--- a/stocks_data.xlsx
+++ b/stocks_data.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>37.15</t>
+          <t>36.62</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>21.16</t>
+          <t>21.58</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>15.33%</t>
+          <t>10.07%</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>728502826.61</t>
+          <t>747382957.78</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>8.212</t>
+          <t>8.147</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1114</t>
+          <t>1099</t>
         </is>
       </c>
     </row>
@@ -573,7 +573,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>21.16%</t>
+          <t>21.58%</t>
         </is>
       </c>
     </row>
@@ -585,7 +585,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>5.75</t>
+          <t>5.64</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>1.21</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.26</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>4.66</t>
+          <t>4.60</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>2.07</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>2.92</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.44</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>0.95</t>
         </is>
       </c>
     </row>
@@ -717,7 +717,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>-42.14</t>
+          <t>-41.32</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>-0.54</t>
+          <t>-0.52</t>
         </is>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>518172569566</t>
+          <t>508352388642</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>762491569566</t>
+          <t>752671388642</t>
         </is>
       </c>
     </row>

--- a/stocks_data.xlsx
+++ b/stocks_data.xlsx
@@ -537,7 +537,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>747382957.78</t>
+          <t>781354910.41</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1099</t>
+          <t>1121</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>3.25</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>4.59</t>
         </is>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>508352388642</t>
+          <t>507533718686</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>752671388642</t>
+          <t>751852718686</t>
         </is>
       </c>
     </row>

--- a/stocks_data.xlsx
+++ b/stocks_data.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>36.62</t>
+          <t>37.03</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>21.58</t>
+          <t>21.36</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>10.07%</t>
+          <t>11.94%</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>781354910.41</t>
+          <t>805830320.14</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>8.147</t>
+          <t>8.107</t>
         </is>
       </c>
     </row>
@@ -573,7 +573,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>21.58%</t>
+          <t>21.36%</t>
         </is>
       </c>
     </row>
@@ -585,7 +585,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>5.64</t>
+          <t>5.70</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>1.22</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.26</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>4.59</t>
+          <t>4.60</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2.07</t>
+          <t>2.09</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>2.95</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.45</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>0.96</t>
         </is>
       </c>
     </row>
@@ -717,7 +717,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>-41.32</t>
+          <t>-41.75</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>-0.52</t>
+          <t>-0.53</t>
         </is>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>507533718686</t>
+          <t>508675763706</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>751852718686</t>
+          <t>752994763706</t>
         </is>
       </c>
     </row>

--- a/stocks_data.xlsx
+++ b/stocks_data.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>37.03</t>
+          <t>36.90</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>21.36</t>
+          <t>21.42</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>11.94%</t>
+          <t>8.21%</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>805830320.14</t>
+          <t>809928904.57</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>8.107</t>
+          <t>8.139</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1121</t>
+          <t>1155</t>
         </is>
       </c>
     </row>
@@ -573,7 +573,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>21.36%</t>
+          <t>21.42%</t>
         </is>
       </c>
     </row>
@@ -585,7 +585,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>5.70</t>
+          <t>5.62</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.20</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>3.23</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>4.57</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2.09</t>
+          <t>2.06</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>2.91</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>30.29</t>
+          <t>30.65</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.44</t>
         </is>
       </c>
     </row>
@@ -693,7 +693,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>6.49</t>
+          <t>6.57</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>0.94</t>
         </is>
       </c>
     </row>
@@ -717,7 +717,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>-41.75</t>
+          <t>-41.14</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>-0.53</t>
+          <t>-0.52</t>
         </is>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>508675763706</t>
+          <t>502907228053</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>752994763706</t>
+          <t>747226228053</t>
         </is>
       </c>
     </row>
@@ -1030,7 +1030,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>13044496930</t>
+          <t>12888732761</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>60.92%</t>
+          <t>61.65%</t>
         </is>
       </c>
     </row>

--- a/stocks_data.xlsx
+++ b/stocks_data.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>36.90</t>
+          <t>37.39</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>21.42</t>
+          <t>21.14</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>8.21%</t>
+          <t>11.18%</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>809928904.57</t>
+          <t>832464894.30</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>8.139</t>
+          <t>8.021</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1155</t>
+          <t>1167</t>
         </is>
       </c>
     </row>
@@ -573,7 +573,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>21.42%</t>
+          <t>21.14%</t>
         </is>
       </c>
     </row>
@@ -585,7 +585,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>5.62</t>
+          <t>5.69</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>1.22</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>3.23</t>
+          <t>3.27</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>4.62</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>2.08</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>2.94</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.45</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.96</t>
         </is>
       </c>
     </row>
@@ -717,7 +717,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>-41.14</t>
+          <t>-41.68</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>-0.52</t>
+          <t>-0.53</t>
         </is>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>502907228053</t>
+          <t>511529798834</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>747226228053</t>
+          <t>755848798834</t>
         </is>
       </c>
     </row>

--- a/stocks_data.xlsx
+++ b/stocks_data.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>37.39</t>
+          <t>37.69</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>21.14</t>
+          <t>20.97</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>11.18%</t>
+          <t>11.48%</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>832464894.30</t>
+          <t>928254286.68</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>8.021</t>
+          <t>8.136</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1167</t>
+          <t>1132</t>
         </is>
       </c>
     </row>
@@ -573,7 +573,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>21.14%</t>
+          <t>20.97%</t>
         </is>
       </c>
     </row>
@@ -585,7 +585,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>5.69</t>
+          <t>5.74</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.23</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>3.29</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>4.62</t>
+          <t>4.65</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>2.10</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2.94</t>
+          <t>2.97</t>
         </is>
       </c>
     </row>
@@ -717,7 +717,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>-41.68</t>
+          <t>-42.02</t>
         </is>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>511529798834</t>
+          <t>515917374859</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>755848798834</t>
+          <t>760236374859</t>
         </is>
       </c>
     </row>

--- a/stocks_data.xlsx
+++ b/stocks_data.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>37.69</t>
+          <t>37.50</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>20.97</t>
+          <t>21.07</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>11.48%</t>
+          <t>9.91%</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>928254286.68</t>
+          <t>907289809.19</t>
         </is>
       </c>
     </row>
@@ -573,7 +573,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>20.97%</t>
+          <t>21.07%</t>
         </is>
       </c>
     </row>
@@ -585,7 +585,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>5.74</t>
+          <t>5.71</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>1.22</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>3.26</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>4.61</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>2.09</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2.97</t>
+          <t>2.95</t>
         </is>
       </c>
     </row>
@@ -717,7 +717,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>-42.02</t>
+          <t>-41.81</t>
         </is>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>515917374859</t>
+          <t>510417200768</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>760236374859</t>
+          <t>754736200768</t>
         </is>
       </c>
     </row>

--- a/stocks_data.xlsx
+++ b/stocks_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,17 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>petr4</t>
+          <t>PETR4</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ABEV3</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BBAS3</t>
         </is>
       </c>
     </row>
@@ -453,7 +463,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>37.50</t>
+          <t>37.18</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>10.86</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>27.85</t>
         </is>
       </c>
     </row>
@@ -468,6 +488,16 @@
           <t>29.23</t>
         </is>
       </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>10.46</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.73</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -480,6 +510,16 @@
           <t>37.75</t>
         </is>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>13.59</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>28.48</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -489,7 +529,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>21.07</t>
+          <t>21.23</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.38</t>
         </is>
       </c>
     </row>
@@ -501,7 +551,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>9.91%</t>
+          <t>9.14%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>-12.82%</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.91%</t>
         </is>
       </c>
     </row>
@@ -516,6 +576,16 @@
           <t>PN</t>
         </is>
       </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -528,6 +598,16 @@
           <t>100 %</t>
         </is>
       </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>80 %</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -540,6 +620,16 @@
           <t>907289809.19</t>
         </is>
       </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>360706803.24</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>365704169.52</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -549,7 +639,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>8.136</t>
+          <t>8.106</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2.365</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.828</t>
         </is>
       </c>
     </row>
@@ -561,7 +661,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1132</t>
+          <t>1147</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>302</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>597</t>
         </is>
       </c>
     </row>
@@ -573,7 +683,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>21.07%</t>
+          <t>21.23%</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>6.13%</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.38%</t>
         </is>
       </c>
     </row>
@@ -585,7 +705,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>5.71</t>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>12.31</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.99</t>
         </is>
       </c>
     </row>
@@ -600,6 +730,16 @@
           <t>-0.15</t>
         </is>
       </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>-1.63</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>-1.26</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -609,7 +749,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.88</t>
         </is>
       </c>
     </row>
@@ -621,9 +771,15 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>3.26</t>
-        </is>
-      </c>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -633,7 +789,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>4.61</t>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.78</t>
         </is>
       </c>
     </row>
@@ -645,9 +811,15 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2.09</t>
-        </is>
-      </c>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -657,7 +829,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.76</t>
         </is>
       </c>
     </row>
@@ -672,6 +854,16 @@
           <t>30.65</t>
         </is>
       </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>31.53</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -684,6 +876,16 @@
           <t>0.45</t>
         </is>
       </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -696,6 +898,16 @@
           <t>6.57</t>
         </is>
       </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -705,7 +917,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.61</t>
         </is>
       </c>
     </row>
@@ -717,7 +939,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>-41.81</t>
+          <t>-41.51</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>24.52</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.08</t>
         </is>
       </c>
     </row>
@@ -732,6 +964,16 @@
           <t>-0.53</t>
         </is>
       </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>-1.64</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>-0.07</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -744,6 +986,12 @@
           <t>0.62</t>
         </is>
       </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>-0.18</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -756,6 +1004,12 @@
           <t>1.06</t>
         </is>
       </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>-0.67</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -768,6 +1022,12 @@
           <t>1.49</t>
         </is>
       </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>-0.89</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -780,6 +1040,16 @@
           <t>0.37</t>
         </is>
       </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -792,6 +1062,16 @@
           <t>0.63</t>
         </is>
       </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -804,6 +1084,16 @@
           <t>0.94</t>
         </is>
       </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>18.28</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -816,6 +1106,16 @@
           <t>51.79%</t>
         </is>
       </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>50.98%</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>37.76%</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -828,6 +1128,12 @@
           <t>45.89%</t>
         </is>
       </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>31.92%</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -840,6 +1146,16 @@
           <t>32.48%</t>
         </is>
       </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>23.92%</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>12.73%</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -852,6 +1168,16 @@
           <t>16.81%</t>
         </is>
       </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>16.92%</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>12.13%</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -864,6 +1190,16 @@
           <t>21.44%</t>
         </is>
       </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>14.21%</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>17.70%</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -876,6 +1212,16 @@
           <t>7.86%</t>
         </is>
       </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>9.47%</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.31%</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -888,6 +1234,12 @@
           <t>18.31%</t>
         </is>
       </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>16.38%</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -900,6 +1252,16 @@
           <t>0.47</t>
         </is>
       </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -912,6 +1274,16 @@
           <t>10.54%</t>
         </is>
       </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>9.68%</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>17.16%</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -924,6 +1296,16 @@
           <t>26.86%</t>
         </is>
       </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>4.87%</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>18.25%</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -936,6 +1318,16 @@
           <t>395053000000</t>
         </is>
       </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>98140388000</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>180665826000</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -948,6 +1340,16 @@
           <t>1077849000000</t>
         </is>
       </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>147286361000</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2436404436000</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -960,6 +1362,16 @@
           <t>167371000000</t>
         </is>
       </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>42672930000</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>81013704000</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -972,6 +1384,12 @@
           <t>322157000000</t>
         </is>
       </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>3380273000</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -984,6 +1402,16 @@
           <t>77838000000</t>
         </is>
       </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>20939039000</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>81013704000</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -996,6 +1424,12 @@
           <t>244319000000</t>
         </is>
       </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>-17558766000</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1005,7 +1439,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>510417200768</t>
+          <t>504700836867</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>172231194682</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>160348736439</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1461,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>754736200768</t>
+          <t>749019836867</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>154672428682</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>160348736439</t>
         </is>
       </c>
     </row>
@@ -1033,6 +1487,16 @@
           <t>12888732761</t>
         </is>
       </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>15757657336</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>5730834040</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -1045,6 +1509,12 @@
           <t>Nivel 2</t>
         </is>
       </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Novo Mercado</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -1055,6 +1525,16 @@
       <c r="B52" t="inlineStr">
         <is>
           <t>61.65%</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>27.89%</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>49.60%</t>
         </is>
       </c>
     </row>

--- a/stocks_data.xlsx
+++ b/stocks_data.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>37.18</t>
+          <t>37.01</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -473,7 +473,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>27.85</t>
+          <t>27.89</t>
         </is>
       </c>
     </row>
@@ -529,12 +529,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>21.23</t>
+          <t>21.32</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>6.13</t>
+          <t>6.16</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -551,17 +551,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>9.14%</t>
+          <t>8.47%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-12.82%</t>
+          <t>-12.98%</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.91%</t>
+          <t>1.01%</t>
         </is>
       </c>
     </row>
@@ -627,7 +627,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>365704169.52</t>
+          <t>379050291.52</t>
         </is>
       </c>
     </row>
@@ -683,12 +683,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>21.23%</t>
+          <t>21.32%</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>6.13%</t>
+          <t>6.16%</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -705,17 +705,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>5.67</t>
+          <t>5.64</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>12.31</t>
+          <t>12.25</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4.99</t>
+          <t>5.00</t>
         </is>
       </c>
     </row>
@@ -754,7 +754,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -776,7 +776,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>5.88</t>
+          <t>5.84</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -789,17 +789,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>4.58</t>
+          <t>4.57</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>7.85</t>
+          <t>7.79</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4.78</t>
+          <t>4.77</t>
         </is>
       </c>
     </row>
@@ -811,12 +811,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>6.52</t>
+          <t>6.49</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
@@ -829,12 +829,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>8.71</t>
+          <t>8.67</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -922,7 +922,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -939,17 +939,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>-41.51</t>
+          <t>-41.32</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>24.52</t>
+          <t>24.40</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>2.09</t>
         </is>
       </c>
     </row>
@@ -961,12 +961,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>-0.53</t>
+          <t>-0.52</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>-1.64</t>
+          <t>-1.63</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1439,17 +1439,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>504700836867</t>
+          <t>506674061381</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>172231194682</t>
+          <t>171916041536</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>160348736439</t>
+          <t>160635278141</t>
         </is>
       </c>
     </row>
@@ -1461,17 +1461,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>749019836867</t>
+          <t>750993061381</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>154672428682</t>
+          <t>154357275536</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>160348736439</t>
+          <t>160635278141</t>
         </is>
       </c>
     </row>

--- a/stocks_data.xlsx
+++ b/stocks_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,6 +439,2712 @@
           <t>indicadores</t>
         </is>
       </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BBSE3</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ABCB4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>ABEV3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>ADHM3</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>AFLT3</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>AGRO3</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>AHEB3</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>AHEB5</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ALPA3</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>ALPA4</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Valor atual</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>39.05</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>22.15</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>40.50</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>45.00</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Min. 52 semanas</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>30.75</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>18.78</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>21.81</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>16.10</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>19.20</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Max. 52 semanas</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>39.73</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>23.85</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.59</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>26.43</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>40.50</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>45.00</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>10.79</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>10.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Dividend Yield</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Valorizacao (12m)</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>23.22%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>-9.26%</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>-10.09%</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>-4.99%</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.56%</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>151.55%</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>134.25%</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>-31.63%</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>-26.35%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Tipo</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>PN</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>PNA</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>PN</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>TAG ALONG</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>80 %</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>80 %</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>LIQUIDEZ MEDIA DIARIA</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>169817082.38</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>11905748.52</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>382020791.48</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3762.95</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3950911.90</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>3185.71</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>42609.67</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>12906504.43</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>PARTICIPACAO NO IBOV</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1.237</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.359</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>MERCADO DE OPCOES</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>253</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>335</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>D.Y</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>3.55%</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>8.19%</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.09%</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.75%</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>7.02%</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>P/L</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.40</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>-4.09</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>19.15</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>-2.98</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>-2.98</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>PEG Ratio</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>-0.29</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>-1.64</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>-0.58</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>-1.06</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>P/VP</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>-1.29</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>EV/EBITDA</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>-3.84</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>-3.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>EV/EBIT</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>-5.69</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>13.93</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>10.39</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>-2.90</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>-2.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>P/EBITDA</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>-3.88</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>-3.87</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>P/EBIT</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>-5.69</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>14.64</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>-2.93</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>-2.93</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>VPA</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>26.07</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>-1.21</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>21.23</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>18.75</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>18.75</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>P/Ativo</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>105.12</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>LPA</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>-0.38</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>16.75</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>16.75</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>-2.20</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>-2.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>P/SR</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>770.90</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>P/Cap. Giro</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>19.48</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>24.70</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>-1.43</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>15.15</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>P/Ativo Circ. Liq.</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>-6.66</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>-0.08</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>-1.65</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>-116.16</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>-1.83</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>-0.91</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>-1.68</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>-1.87</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>-1.42</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>-1.42</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>Div. liquida/PL</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>-0.18</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>-0.09</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>-0.43</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>-0.43</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>Div. liquida/EBITDA</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>-0.67</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>-0.42</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>-0.42</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Div. liquida/EBIT</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>-0.89</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>-0.72</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>-0.43</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>-0.43</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>PL/Ativos</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>-81.72</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>Passivos/Ativos</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>Liq. corrente</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>M. Bruta</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>17.76%</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>50.98%</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>58.08%</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>34.91%</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>28.07%</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>28.07%</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>44.20%</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>44.20%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>M. EBITDA</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>31.92%</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>38.86%</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>23.22%</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>23.22%</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>-28.86%</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>-28.86%</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>M. EBIT</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>12.53%</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>23.92%</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>-13548.48%</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>53.92%</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>24.45%</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>22.41%</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>22.41%</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>-38.16%</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>-38.16%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>M. Liquida</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>10.94%</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>16.92%</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>-18860.61%</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>41.22%</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>23.93%</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>20.02%</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>20.02%</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>-37.55%</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>-37.55%</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>ROE</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>69.51%</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>11.43%</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>14.21%</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>-31.47%</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>9.13%</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>13.50%</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>89.31%</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>89.31%</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>-37.92%</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>-37.92%</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>ROA</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>44.32%</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>1.05%</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>9.47%</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>-2571.90%</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.19%</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>8.16%</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>27.74%</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>27.74%</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>-22.66%</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>-22.66%</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>ROIC</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>16.38%</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>22.61%</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>8.69%</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>8.56%</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>92.71%</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>92.71%</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>-30.81%</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>-30.81%</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>Giro ativos</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>CAGR Receitas 5 anos</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>20.08%</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>9.68%</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>14.85%</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>13.78%</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>50.82%</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>50.82%</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>-0.89%</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>-0.89%</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>CAGR Lucros 5 anos</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>19.19%</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>11.85%</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.87%</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>-0.02%</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>10.70%</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>Patrimonio liquido</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>12251901000</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>6378306000</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>98140388000</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>-19776000</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>247459000</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>2179679000</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>160224000</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>160224000</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>3956053000</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>3956053000</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>Ativos</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>19213887000</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>69206300000</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>147286361000</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>242000</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>314207000</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>3605082000</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>515816000</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>515816000</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>6619179000</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>6619179000</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>Ativo circulante</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>7454252000</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>5331598000</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>42672930000</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>23000</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>77347000</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>1099490000</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>310100000</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>310100000</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>3477619000</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>3477619000</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>Divida bruta</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3380273000</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>1043998000</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>4617000</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>4617000</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>1374074000</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>1374074000</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>Disponibilidade</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>6186125000</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>5331598000</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>20939039000</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>21139000</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>193894000</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>73498000</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>73498000</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>1419235000</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>1419235000</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>Divida liquida</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>-17558766000</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>-21139000</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>850104000</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>-68881000</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>-68881000</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>-45161000</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>-45161000</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>Valor de mercado</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>78300000000</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>4917602826</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>172073618109</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>25439770</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>432761042</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>2273411450</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>346231733</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>346231733</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>4372204347</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>4372204347</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>Valor de firma</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>78300000000</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>4917602826</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>154514852109</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>25439770</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>411622042</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>3123515450</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>277350733</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>277350733</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>4327043347</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>4327043347</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>No total de papeis
+                                    help_outline</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2000000000</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>244656857</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>15757657336</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>16307545</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>63084700</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>102683444</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>8543894</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>8543894</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>683062222</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>683062222</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>Segmento de listagem</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Novo Mercado</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Nivel 2</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Novo Mercado</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Nivel 1</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Nivel 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Free Float</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>31.87%</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>29.87%</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>27.89%</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.33%</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>61.82%</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>3.25%</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>3.25%</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>24.07%</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>24.07%</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stocks_data.xlsx
+++ b/stocks_data.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>36.83</t>
+          <t>36.29</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>21.46</t>
+          <t>21.77</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>9.52%</t>
+          <t>7.91%</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1183</t>
+          <t>1217</t>
         </is>
       </c>
     </row>
@@ -573,7 +573,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>21.46%</t>
+          <t>21.77%</t>
         </is>
       </c>
     </row>
@@ -585,7 +585,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>5.60</t>
+          <t>5.52</t>
         </is>
       </c>
     </row>
@@ -597,7 +597,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>-0.15</t>
+          <t>-0.14</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>1.18</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>3.22</t>
+          <t>3.18</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>4.50</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>2.02</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>2.86</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.43</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.93</t>
         </is>
       </c>
     </row>
@@ -717,7 +717,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>-41.06</t>
+          <t>-40.47</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>-0.52</t>
+          <t>-0.51</t>
         </is>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>500144458914</t>
+          <t>491957608243</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>744463458914</t>
+          <t>736276608243</t>
         </is>
       </c>
     </row>

--- a/stocks_data.xlsx
+++ b/stocks_data.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>36.29</t>
+          <t>36.19</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>21.77</t>
+          <t>21.83</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>7.91%</t>
+          <t>7.61%</t>
         </is>
       </c>
     </row>
@@ -573,7 +573,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>21.77%</t>
+          <t>21.83%</t>
         </is>
       </c>
     </row>
@@ -585,7 +585,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>5.52</t>
+          <t>5.51</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>4.49</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>2.85</t>
         </is>
       </c>
     </row>
@@ -717,7 +717,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>-40.47</t>
+          <t>-40.36</t>
         </is>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>491957608243</t>
+          <t>489201916236</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>736276608243</t>
+          <t>733520916236</t>
         </is>
       </c>
     </row>

--- a/stocks_data.xlsx
+++ b/stocks_data.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>36.19</t>
+          <t>36.28</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>21.83</t>
+          <t>21.78</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>7.61%</t>
+          <t>7.88%</t>
         </is>
       </c>
     </row>
@@ -573,7 +573,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>21.83%</t>
+          <t>21.78%</t>
         </is>
       </c>
     </row>
@@ -585,7 +585,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>5.51</t>
+          <t>5.52</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>2.86</t>
         </is>
       </c>
     </row>
@@ -717,7 +717,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>-40.36</t>
+          <t>-40.45</t>
         </is>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>489201916236</t>
+          <t>490227607970</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>733520916236</t>
+          <t>734546607970</t>
         </is>
       </c>
     </row>

--- a/stocks_data.xlsx
+++ b/stocks_data.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>36.28</t>
+          <t>36.32</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>21.78</t>
+          <t>21.76</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>7.88%</t>
+          <t>4.67%</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>921529064.41</t>
+          <t>940501603.39</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>7.927</t>
+          <t>7.943</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1217</t>
+          <t>1235</t>
         </is>
       </c>
     </row>
@@ -573,7 +573,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>21.78%</t>
+          <t>21.76%</t>
         </is>
       </c>
     </row>
@@ -585,7 +585,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>5.52</t>
+          <t>5.53</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.19</t>
         </is>
       </c>
     </row>
@@ -717,7 +717,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>-40.45</t>
+          <t>-40.49</t>
         </is>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>490227607970</t>
+          <t>491264113478</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>734546607970</t>
+          <t>735583113478</t>
         </is>
       </c>
     </row>

--- a/stocks_data.xlsx
+++ b/stocks_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>PETR4</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>AERI3</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -456,6 +461,11 @@
           <t>36.32</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -468,6 +478,11 @@
           <t>29.23</t>
         </is>
       </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -480,6 +495,11 @@
           <t>37.75</t>
         </is>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>16.00</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -492,6 +512,7 @@
           <t>21.76</t>
         </is>
       </c>
+      <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -504,6 +525,11 @@
           <t>4.67%</t>
         </is>
       </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>-64.34%</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -516,6 +542,11 @@
           <t>PN</t>
         </is>
       </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -528,6 +559,11 @@
           <t>100 %</t>
         </is>
       </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -540,6 +576,11 @@
           <t>940501603.39</t>
         </is>
       </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>4220412.48</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -552,6 +593,11 @@
           <t>7.943</t>
         </is>
       </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -564,6 +610,11 @@
           <t>1235</t>
         </is>
       </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -576,6 +627,7 @@
           <t>21.76%</t>
         </is>
       </c>
+      <c r="C12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -588,6 +640,11 @@
           <t>5.53</t>
         </is>
       </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>-1.92</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -600,6 +657,11 @@
           <t>-0.14</t>
         </is>
       </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>-0.03</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -612,6 +674,11 @@
           <t>1.19</t>
         </is>
       </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -624,6 +691,11 @@
           <t>3.18</t>
         </is>
       </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -636,6 +708,11 @@
           <t>4.49</t>
         </is>
       </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>14.69</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -648,6 +725,11 @@
           <t>2.02</t>
         </is>
       </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -660,6 +742,11 @@
           <t>2.86</t>
         </is>
       </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -672,6 +759,11 @@
           <t>30.65</t>
         </is>
       </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>16.70</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -684,6 +776,11 @@
           <t>0.43</t>
         </is>
       </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -696,6 +793,11 @@
           <t>6.57</t>
         </is>
       </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>-2.83</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -708,6 +810,11 @@
           <t>0.93</t>
         </is>
       </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -720,6 +827,11 @@
           <t>-40.49</t>
         </is>
       </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -732,6 +844,11 @@
           <t>-0.51</t>
         </is>
       </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>-0.26</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -744,6 +861,11 @@
           <t>0.62</t>
         </is>
       </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -756,6 +878,11 @@
           <t>1.06</t>
         </is>
       </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -768,6 +895,11 @@
           <t>1.49</t>
         </is>
       </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>9.24</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -780,6 +912,11 @@
           <t>0.37</t>
         </is>
       </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -792,6 +929,11 @@
           <t>0.63</t>
         </is>
       </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -804,6 +946,11 @@
           <t>0.94</t>
         </is>
       </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -816,6 +963,11 @@
           <t>51.79%</t>
         </is>
       </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>10.95%</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -828,6 +980,11 @@
           <t>45.89%</t>
         </is>
       </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>9.13%</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -840,6 +997,11 @@
           <t>32.48%</t>
         </is>
       </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>3.55%</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -852,6 +1014,11 @@
           <t>16.81%</t>
         </is>
       </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>-10.06%</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -864,6 +1031,11 @@
           <t>21.44%</t>
         </is>
       </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>-16.91%</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -876,6 +1048,11 @@
           <t>7.86%</t>
         </is>
       </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>-4.90%</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -888,6 +1065,11 @@
           <t>18.31%</t>
         </is>
       </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>1.18%</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -900,6 +1082,11 @@
           <t>0.47</t>
         </is>
       </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -912,6 +1099,11 @@
           <t>10.54%</t>
         </is>
       </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>34.34%</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -924,6 +1116,7 @@
           <t>26.86%</t>
         </is>
       </c>
+      <c r="C41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -936,6 +1129,11 @@
           <t>395053000000</t>
         </is>
       </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>1037685000</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -948,6 +1146,11 @@
           <t>1077849000000</t>
         </is>
       </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>3580115000</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -960,6 +1163,11 @@
           <t>167371000000</t>
         </is>
       </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>2285015000</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -972,6 +1180,11 @@
           <t>322157000000</t>
         </is>
       </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>1453382000</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -984,6 +1197,11 @@
           <t>77838000000</t>
         </is>
       </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>881323000</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -996,6 +1214,11 @@
           <t>244319000000</t>
         </is>
       </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>572059000</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1008,6 +1231,11 @@
           <t>491264113478</t>
         </is>
       </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>336691462</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1020,6 +1248,11 @@
           <t>735583113478</t>
         </is>
       </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>908750462</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1033,6 +1266,11 @@
           <t>12888732761</t>
         </is>
       </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>62120196</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -1045,6 +1283,11 @@
           <t>Nivel 2</t>
         </is>
       </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Novo Mercado</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -1055,6 +1298,11 @@
       <c r="B52" t="inlineStr">
         <is>
           <t>61.25%</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>57.08%</t>
         </is>
       </c>
     </row>

--- a/stocks_data.xlsx
+++ b/stocks_data.xlsx
@@ -522,7 +522,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>4.67%</t>
+          <t>3.89%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -573,12 +573,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>940501603.39</t>
+          <t>927589825.30</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>4220412.48</t>
+          <t>4044505.57</t>
         </is>
       </c>
     </row>
@@ -590,7 +590,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>7.943</t>
+          <t>7.922</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">

--- a/stocks_data.xlsx
+++ b/stocks_data.xlsx
@@ -458,12 +458,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>36.32</t>
+          <t>36.45</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>5.42</t>
+          <t>5.43</t>
         </is>
       </c>
     </row>
@@ -509,7 +509,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>21.76</t>
+          <t>21.68</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -522,12 +522,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3.89%</t>
+          <t>4.32%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-64.34%</t>
+          <t>-64.28%</t>
         </is>
       </c>
     </row>
@@ -624,7 +624,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>21.76%</t>
+          <t>21.68%</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -637,12 +637,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>5.53</t>
+          <t>5.55</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-1.92</t>
+          <t>-1.93</t>
         </is>
       </c>
     </row>
@@ -654,7 +654,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>-0.14</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -676,7 +676,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.33</t>
         </is>
       </c>
     </row>
@@ -722,12 +722,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>2.12</t>
         </is>
       </c>
     </row>
@@ -739,12 +739,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>5.44</t>
+          <t>5.47</t>
         </is>
       </c>
     </row>
@@ -773,7 +773,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -824,7 +824,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>-40.49</t>
+          <t>-40.64</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>-0.51</t>
+          <t>-0.52</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">

--- a/stocks_data.xlsx
+++ b/stocks_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,11 +444,6 @@
           <t>PETR4</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>AERI3</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -458,12 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>36.45</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>5.43</t>
+          <t>36.92</t>
         </is>
       </c>
     </row>
@@ -478,11 +468,6 @@
           <t>29.23</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>5.04</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -495,11 +480,6 @@
           <t>37.75</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>16.00</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -509,10 +489,9 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>21.68</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
+          <t>21.47</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -522,12 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>4.32%</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>-64.28%</t>
+          <t>5.41%</t>
         </is>
       </c>
     </row>
@@ -542,11 +516,6 @@
           <t>PN</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -559,11 +528,6 @@
           <t>100 %</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>100 %</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -576,11 +540,6 @@
           <t>927589825.30</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>4044505.57</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -593,11 +552,6 @@
           <t>7.922</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -610,11 +564,6 @@
           <t>1235</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -624,10 +573,9 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>21.68%</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
+          <t>21.47%</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -637,12 +585,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>5.55</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>-1.93</t>
+          <t>5.60</t>
         </is>
       </c>
     </row>
@@ -657,11 +600,6 @@
           <t>-0.15</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>-0.03</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -671,12 +609,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>0.33</t>
+          <t>1.20</t>
         </is>
       </c>
     </row>
@@ -688,12 +621,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>3.18</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>5.70</t>
+          <t>3.20</t>
         </is>
       </c>
     </row>
@@ -705,12 +633,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>4.49</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>14.69</t>
+          <t>4.53</t>
         </is>
       </c>
     </row>
@@ -722,12 +645,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>2.12</t>
+          <t>2.05</t>
         </is>
       </c>
     </row>
@@ -739,12 +657,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>5.47</t>
+          <t>2.90</t>
         </is>
       </c>
     </row>
@@ -759,11 +672,6 @@
           <t>30.65</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>16.70</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -776,11 +684,6 @@
           <t>0.44</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -793,11 +696,6 @@
           <t>6.57</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>-2.83</t>
-        </is>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -807,12 +705,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>0.19</t>
+          <t>0.94</t>
         </is>
       </c>
     </row>
@@ -824,12 +717,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>-40.64</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>0.83</t>
+          <t>-41.04</t>
         </is>
       </c>
     </row>
@@ -844,11 +732,6 @@
           <t>-0.52</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>-0.26</t>
-        </is>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -861,11 +744,6 @@
           <t>0.62</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -878,11 +756,6 @@
           <t>1.06</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>3.59</t>
-        </is>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -895,11 +768,6 @@
           <t>1.49</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>9.24</t>
-        </is>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -912,11 +780,6 @@
           <t>0.37</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -929,11 +792,6 @@
           <t>0.63</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -946,11 +804,6 @@
           <t>0.94</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -963,11 +816,6 @@
           <t>51.79%</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>10.95%</t>
-        </is>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -980,11 +828,6 @@
           <t>45.89%</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>9.13%</t>
-        </is>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -997,11 +840,6 @@
           <t>32.48%</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>3.55%</t>
-        </is>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1014,11 +852,6 @@
           <t>16.81%</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>-10.06%</t>
-        </is>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1031,11 +864,6 @@
           <t>21.44%</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>-16.91%</t>
-        </is>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1048,11 +876,6 @@
           <t>7.86%</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>-4.90%</t>
-        </is>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1065,11 +888,6 @@
           <t>18.31%</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>1.18%</t>
-        </is>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1082,11 +900,6 @@
           <t>0.47</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1099,11 +912,6 @@
           <t>10.54%</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>34.34%</t>
-        </is>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1116,7 +924,6 @@
           <t>26.86%</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1129,11 +936,6 @@
           <t>395053000000</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>1037685000</t>
-        </is>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1146,11 +948,6 @@
           <t>1077849000000</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>3580115000</t>
-        </is>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1163,11 +960,6 @@
           <t>167371000000</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>2285015000</t>
-        </is>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1180,11 +972,6 @@
           <t>322157000000</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>1453382000</t>
-        </is>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1197,11 +984,6 @@
           <t>77838000000</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>881323000</t>
-        </is>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1214,11 +996,6 @@
           <t>244319000000</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>572059000</t>
-        </is>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1228,12 +1005,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>491264113478</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>336691462</t>
+          <t>496430420355</t>
         </is>
       </c>
     </row>
@@ -1245,12 +1017,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>735583113478</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>908750462</t>
+          <t>740749420355</t>
         </is>
       </c>
     </row>
@@ -1266,11 +1033,6 @@
           <t>12888732761</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>62120196</t>
-        </is>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -1283,11 +1045,6 @@
           <t>Nivel 2</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Novo Mercado</t>
-        </is>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -1298,11 +1055,6 @@
       <c r="B52" t="inlineStr">
         <is>
           <t>61.25%</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>57.08%</t>
         </is>
       </c>
     </row>

--- a/stocks_data.xlsx
+++ b/stocks_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>PETR4</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>AERI3</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -453,7 +458,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>36.92</t>
+          <t>37.02</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>5.46</t>
         </is>
       </c>
     </row>
@@ -468,6 +478,11 @@
           <t>29.23</t>
         </is>
       </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -480,6 +495,11 @@
           <t>37.75</t>
         </is>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>16.00</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -489,9 +509,10 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>21.47</t>
-        </is>
-      </c>
+          <t>21.36</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -501,7 +522,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>5.41%</t>
+          <t>5.81%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>-64.21%</t>
         </is>
       </c>
     </row>
@@ -516,6 +542,11 @@
           <t>PN</t>
         </is>
       </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -528,6 +559,11 @@
           <t>100 %</t>
         </is>
       </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -540,6 +576,11 @@
           <t>927589825.30</t>
         </is>
       </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>4044505.57</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -552,6 +593,11 @@
           <t>7.922</t>
         </is>
       </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -564,6 +610,11 @@
           <t>1235</t>
         </is>
       </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -573,9 +624,10 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>21.47%</t>
-        </is>
-      </c>
+          <t>21.36%</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -585,7 +637,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>5.60</t>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>-1.93</t>
         </is>
       </c>
     </row>
@@ -600,6 +657,11 @@
           <t>-0.15</t>
         </is>
       </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>-0.03</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -609,7 +671,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0.33</t>
         </is>
       </c>
     </row>
@@ -621,7 +688,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>5.68</t>
         </is>
       </c>
     </row>
@@ -633,7 +705,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>4.53</t>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>14.63</t>
         </is>
       </c>
     </row>
@@ -645,7 +722,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2.12</t>
         </is>
       </c>
     </row>
@@ -657,7 +739,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>5.46</t>
         </is>
       </c>
     </row>
@@ -672,6 +759,11 @@
           <t>30.65</t>
         </is>
       </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>16.70</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -684,6 +776,11 @@
           <t>0.44</t>
         </is>
       </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -696,6 +793,11 @@
           <t>6.57</t>
         </is>
       </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>-2.83</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -705,7 +807,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>0.19</t>
         </is>
       </c>
     </row>
@@ -717,7 +824,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>-41.04</t>
+          <t>-41.24</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>0.83</t>
         </is>
       </c>
     </row>
@@ -732,6 +844,11 @@
           <t>-0.52</t>
         </is>
       </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>-0.26</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -744,6 +861,11 @@
           <t>0.62</t>
         </is>
       </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -756,6 +878,11 @@
           <t>1.06</t>
         </is>
       </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -768,6 +895,11 @@
           <t>1.49</t>
         </is>
       </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>9.24</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -780,6 +912,11 @@
           <t>0.37</t>
         </is>
       </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -792,6 +929,11 @@
           <t>0.63</t>
         </is>
       </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -804,6 +946,11 @@
           <t>0.94</t>
         </is>
       </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -816,6 +963,11 @@
           <t>51.79%</t>
         </is>
       </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>10.95%</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -828,6 +980,11 @@
           <t>45.89%</t>
         </is>
       </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>9.13%</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -840,6 +997,11 @@
           <t>32.48%</t>
         </is>
       </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>3.55%</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -852,6 +1014,11 @@
           <t>16.81%</t>
         </is>
       </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>-10.06%</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -864,6 +1031,11 @@
           <t>21.44%</t>
         </is>
       </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>-16.91%</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -876,6 +1048,11 @@
           <t>7.86%</t>
         </is>
       </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>-4.90%</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -888,6 +1065,11 @@
           <t>18.31%</t>
         </is>
       </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>1.18%</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -900,6 +1082,11 @@
           <t>0.47</t>
         </is>
       </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -912,6 +1099,11 @@
           <t>10.54%</t>
         </is>
       </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>34.34%</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -924,6 +1116,7 @@
           <t>26.86%</t>
         </is>
       </c>
+      <c r="C41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -936,6 +1129,11 @@
           <t>395053000000</t>
         </is>
       </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>1037685000</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -948,6 +1146,11 @@
           <t>1077849000000</t>
         </is>
       </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>3580115000</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -960,6 +1163,11 @@
           <t>167371000000</t>
         </is>
       </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>2285015000</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -972,6 +1180,11 @@
           <t>322157000000</t>
         </is>
       </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>1453382000</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -984,6 +1197,11 @@
           <t>77838000000</t>
         </is>
       </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>881323000</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -996,6 +1214,11 @@
           <t>244319000000</t>
         </is>
       </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>572059000</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1005,7 +1228,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>496430420355</t>
+          <t>499068038807</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>332964251</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1245,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>740749420355</t>
+          <t>743387038807</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>905023251</t>
         </is>
       </c>
     </row>
@@ -1033,6 +1266,11 @@
           <t>12888732761</t>
         </is>
       </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>62120196</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -1045,6 +1283,11 @@
           <t>Nivel 2</t>
         </is>
       </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Novo Mercado</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -1055,6 +1298,11 @@
       <c r="B52" t="inlineStr">
         <is>
           <t>61.25%</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>57.08%</t>
         </is>
       </c>
     </row>

--- a/stocks_data.xlsx
+++ b/stocks_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,12 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>PETR4</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>AERI3</t>
+          <t>ABCB4</t>
         </is>
       </c>
     </row>
@@ -458,12 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>37.02</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>5.46</t>
+          <t>20.32</t>
         </is>
       </c>
     </row>
@@ -475,12 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>29.23</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>5.04</t>
+          <t>18.78</t>
         </is>
       </c>
     </row>
@@ -492,12 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>37.75</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>16.00</t>
+          <t>23.85</t>
         </is>
       </c>
     </row>
@@ -509,10 +489,9 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>21.36</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
+          <t>8.13</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -522,12 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>5.81%</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>-64.21%</t>
+          <t>-12.58%</t>
         </is>
       </c>
     </row>
@@ -542,11 +516,6 @@
           <t>PN</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>ON</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -559,11 +528,6 @@
           <t>100 %</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>100 %</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -573,12 +537,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>927589825.30</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>4044505.57</t>
+          <t>14167248.83</t>
         </is>
       </c>
     </row>
@@ -590,11 +549,6 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>7.922</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
           <t>0.000</t>
         </is>
       </c>
@@ -607,12 +561,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1235</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>4</t>
+          <t>50</t>
         </is>
       </c>
     </row>
@@ -624,10 +573,9 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>21.36%</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
+          <t>8.13%</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -637,12 +585,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>5.63</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>-1.93</t>
+          <t>6.79</t>
         </is>
       </c>
     </row>
@@ -654,12 +597,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>-0.15</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>-0.03</t>
+          <t>-0.29</t>
         </is>
       </c>
     </row>
@@ -671,12 +609,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>0.33</t>
+          <t>0.78</t>
         </is>
       </c>
     </row>
@@ -686,16 +619,7 @@
           <t>EV/EBITDA</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>5.68</t>
-        </is>
-      </c>
+      <c r="B16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -705,12 +629,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>4.54</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>14.63</t>
+          <t>5.89</t>
         </is>
       </c>
     </row>
@@ -720,16 +639,7 @@
           <t>P/EBITDA</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>2.06</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>2.12</t>
-        </is>
-      </c>
+      <c r="B18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -739,12 +649,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2.91</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>5.46</t>
+          <t>5.93</t>
         </is>
       </c>
     </row>
@@ -756,12 +661,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>30.65</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>16.70</t>
+          <t>26.07</t>
         </is>
       </c>
     </row>
@@ -773,12 +673,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>0.09</t>
+          <t>0.07</t>
         </is>
       </c>
     </row>
@@ -790,12 +685,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>6.57</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>-2.83</t>
+          <t>2.98</t>
         </is>
       </c>
     </row>
@@ -807,12 +697,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>0.19</t>
+          <t>0.74</t>
         </is>
       </c>
     </row>
@@ -824,12 +709,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>-41.24</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>0.83</t>
+          <t>1.52</t>
         </is>
       </c>
     </row>
@@ -841,12 +721,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>-0.52</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>-0.26</t>
+          <t>-0.08</t>
         </is>
       </c>
     </row>
@@ -856,16 +731,7 @@
           <t>Div. liquida/PL</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
+      <c r="B26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -873,16 +739,7 @@
           <t>Div. liquida/EBITDA</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>3.59</t>
-        </is>
-      </c>
+      <c r="B27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -890,16 +747,7 @@
           <t>Div. liquida/EBIT</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>9.24</t>
-        </is>
-      </c>
+      <c r="B28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -909,12 +757,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0.37</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>0.29</t>
+          <t>0.09</t>
         </is>
       </c>
     </row>
@@ -926,12 +769,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>0.71</t>
+          <t>0.91</t>
         </is>
       </c>
     </row>
@@ -943,12 +781,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>1.22</t>
+          <t>2.58</t>
         </is>
       </c>
     </row>
@@ -960,12 +793,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>51.79%</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>10.95%</t>
+          <t>17.76%</t>
         </is>
       </c>
     </row>
@@ -975,16 +803,7 @@
           <t>M. EBITDA</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>45.89%</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>9.13%</t>
-        </is>
-      </c>
+      <c r="B33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -994,12 +813,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>32.48%</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>3.55%</t>
+          <t>12.53%</t>
         </is>
       </c>
     </row>
@@ -1011,12 +825,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>16.81%</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>-10.06%</t>
+          <t>10.94%</t>
         </is>
       </c>
     </row>
@@ -1028,12 +837,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>21.44%</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>-16.91%</t>
+          <t>11.43%</t>
         </is>
       </c>
     </row>
@@ -1045,12 +849,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>7.86%</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>-4.90%</t>
+          <t>1.05%</t>
         </is>
       </c>
     </row>
@@ -1060,16 +859,7 @@
           <t>ROIC</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>18.31%</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>1.18%</t>
-        </is>
-      </c>
+      <c r="B38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1079,12 +869,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>0.49</t>
+          <t>0.10</t>
         </is>
       </c>
     </row>
@@ -1096,12 +881,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>10.54%</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>34.34%</t>
+          <t>20.08%</t>
         </is>
       </c>
     </row>
@@ -1113,10 +893,9 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>26.86%</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr"/>
+          <t>11.85%</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1126,12 +905,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>395053000000</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>1037685000</t>
+          <t>6378306000</t>
         </is>
       </c>
     </row>
@@ -1143,12 +917,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1077849000000</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>3580115000</t>
+          <t>69206300000</t>
         </is>
       </c>
     </row>
@@ -1160,12 +929,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>167371000000</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>2285015000</t>
+          <t>5331598000</t>
         </is>
       </c>
     </row>
@@ -1175,16 +939,7 @@
           <t>Divida bruta</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>322157000000</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>1453382000</t>
-        </is>
-      </c>
+      <c r="B45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1194,12 +949,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>77838000000</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>881323000</t>
+          <t>5331598000</t>
         </is>
       </c>
     </row>
@@ -1209,16 +959,7 @@
           <t>Divida liquida</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>244319000000</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>572059000</t>
-        </is>
-      </c>
+      <c r="B47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1228,12 +969,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>499068038807</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>332964251</t>
+          <t>4954301354</t>
         </is>
       </c>
     </row>
@@ -1245,12 +981,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>743387038807</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>905023251</t>
+          <t>4954301354</t>
         </is>
       </c>
     </row>
@@ -1263,12 +994,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>12888732761</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>62120196</t>
+          <t>244656857</t>
         </is>
       </c>
     </row>
@@ -1283,11 +1009,6 @@
           <t>Nivel 2</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Novo Mercado</t>
-        </is>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -1297,12 +1018,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>61.25%</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>57.08%</t>
+          <t>29.87%</t>
         </is>
       </c>
     </row>

--- a/stocks_data.xlsx
+++ b/stocks_data.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>ABCB4</t>
+          <t>ADHM3</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>20.32</t>
+          <t>1.56</t>
         </is>
       </c>
     </row>
@@ -463,11 +463,7 @@
           <t>Min. 52 semanas</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>18.78</t>
-        </is>
-      </c>
+      <c r="B3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -475,11 +471,7 @@
           <t>Max. 52 semanas</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>23.85</t>
-        </is>
-      </c>
+      <c r="B4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -487,11 +479,7 @@
           <t>Dividend Yield</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>8.13</t>
-        </is>
-      </c>
+      <c r="B5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -499,11 +487,7 @@
           <t>Valorizacao (12m)</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>-12.58%</t>
-        </is>
-      </c>
+      <c r="B6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -513,7 +497,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PN</t>
+          <t>ON</t>
         </is>
       </c>
     </row>
@@ -523,11 +507,7 @@
           <t>TAG ALONG</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>100 %</t>
-        </is>
-      </c>
+      <c r="B8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -535,11 +515,7 @@
           <t>LIQUIDEZ MEDIA DIARIA</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>14167248.83</t>
-        </is>
-      </c>
+      <c r="B9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -561,7 +537,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -571,11 +547,7 @@
           <t>D.Y</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>8.13%</t>
-        </is>
-      </c>
+      <c r="B12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -585,7 +557,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>6.79</t>
+          <t>-4.09</t>
         </is>
       </c>
     </row>
@@ -597,7 +569,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>-0.29</t>
+          <t>-0.58</t>
         </is>
       </c>
     </row>
@@ -609,7 +581,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>-1.29</t>
         </is>
       </c>
     </row>
@@ -629,7 +601,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>5.89</t>
+          <t>-5.69</t>
         </is>
       </c>
     </row>
@@ -649,7 +621,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>5.93</t>
+          <t>-5.69</t>
         </is>
       </c>
     </row>
@@ -661,7 +633,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>26.07</t>
+          <t>-1.21</t>
         </is>
       </c>
     </row>
@@ -673,7 +645,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>105.12</t>
         </is>
       </c>
     </row>
@@ -685,7 +657,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>-0.38</t>
         </is>
       </c>
     </row>
@@ -697,7 +669,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>770.90</t>
         </is>
       </c>
     </row>
@@ -709,7 +681,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>-1.43</t>
         </is>
       </c>
     </row>
@@ -721,7 +693,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-116.16</t>
         </is>
       </c>
     </row>
@@ -747,7 +719,11 @@
           <t>Div. liquida/EBIT</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -757,7 +733,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>-81.72</t>
         </is>
       </c>
     </row>
@@ -769,7 +745,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>82.72</t>
         </is>
       </c>
     </row>
@@ -781,7 +757,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>0.00</t>
         </is>
       </c>
     </row>
@@ -793,7 +769,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>17.76%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -813,7 +789,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>12.53%</t>
+          <t>-13548.48%</t>
         </is>
       </c>
     </row>
@@ -825,7 +801,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>10.94%</t>
+          <t>-18860.61%</t>
         </is>
       </c>
     </row>
@@ -837,7 +813,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>11.43%</t>
+          <t>-31.47%</t>
         </is>
       </c>
     </row>
@@ -849,7 +825,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1.05%</t>
+          <t>-2571.90%</t>
         </is>
       </c>
     </row>
@@ -859,7 +835,11 @@
           <t>ROIC</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr"/>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>22.61%</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -869,7 +849,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.14</t>
         </is>
       </c>
     </row>
@@ -879,11 +859,7 @@
           <t>CAGR Receitas 5 anos</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>20.08%</t>
-        </is>
-      </c>
+      <c r="B40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -891,11 +867,7 @@
           <t>CAGR Lucros 5 anos</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>11.85%</t>
-        </is>
-      </c>
+      <c r="B41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -905,7 +877,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>6378306000</t>
+          <t>-19776000</t>
         </is>
       </c>
     </row>
@@ -917,7 +889,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>69206300000</t>
+          <t>242000</t>
         </is>
       </c>
     </row>
@@ -929,7 +901,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>5331598000</t>
+          <t>23000</t>
         </is>
       </c>
     </row>
@@ -939,7 +911,11 @@
           <t>Divida bruta</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr"/>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -949,7 +925,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>5331598000</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -959,7 +935,11 @@
           <t>Divida liquida</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr"/>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -969,7 +949,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>4954301354</t>
+          <t>25439770</t>
         </is>
       </c>
     </row>
@@ -981,7 +961,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>4954301354</t>
+          <t>25439770</t>
         </is>
       </c>
     </row>
@@ -994,7 +974,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>244656857</t>
+          <t>16307545</t>
         </is>
       </c>
     </row>
@@ -1004,11 +984,7 @@
           <t>Segmento de listagem</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Nivel 2</t>
-        </is>
-      </c>
+      <c r="B51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -1016,11 +992,7 @@
           <t>Free Float</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>29.87%</t>
-        </is>
-      </c>
+      <c r="B52" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stocks_data.xlsx
+++ b/stocks_data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -508,62 +508,62 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>11.03</t>
+          <t>13.47</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>4.37</t>
+          <t>4.08</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>8.68</t>
+          <t>10.03</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>10.84</t>
+          <t>13.76</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>27.81</t>
+          <t>21.81</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>11.63</t>
+          <t>16.75</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>37.49</t>
+          <t>35.57</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>17.33</t>
+          <t>15.31</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>11.19</t>
+          <t>10.87</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>2.88</t>
         </is>
       </c>
     </row>
@@ -575,62 +575,62 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>10.46</t>
+          <t>10.50</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>4.37</t>
+          <t>3.64</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>7.60</t>
+          <t>7.34</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.10</t>
+          <t>9.07</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>23.73</t>
+          <t>21.40</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>11.16</t>
+          <t>10.92</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>28.97</t>
+          <t>29.67</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>15.53</t>
+          <t>14.72</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>7.62</t>
+          <t>8.53</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>0.96</t>
         </is>
       </c>
     </row>
@@ -642,62 +642,62 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>13.59</t>
+          <t>14.44</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>13.60</t>
+          <t>12.10</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.61</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12.58</t>
+          <t>12.41</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>12.71</t>
+          <t>14.95</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>29.45</t>
+          <t>29.30</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>15.44</t>
+          <t>16.83</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>37.55</t>
+          <t>42.77</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>9.84</t>
+          <t>10.32</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>19.45</t>
+          <t>18.39</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>11.97</t>
+          <t>11.01</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>3.15</t>
         </is>
       </c>
     </row>
@@ -709,34 +709,34 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>6.05</t>
+          <t>6.85</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.61</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>7.87</t>
+          <t>10.94</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>9.58</t>
+          <t>5.65</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>9.87</t>
+          <t>10.43</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
@@ -747,10 +747,14 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>12.74</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr"/>
+          <t>16.31</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -760,62 +764,62 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-12.11%</t>
+          <t>28.04%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-66.89%</t>
+          <t>-20.93%</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-36.56%</t>
+          <t>-2.08%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-31.00%</t>
+          <t>-17.24%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-11.80%</t>
+          <t>35.57%</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.02%</t>
+          <t>-8.78%</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>-10.81%</t>
+          <t>44.40%</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
+          <t>19.89%</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>-37.37%</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>-6.65%</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
           <t>24.51%</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>-67.69%</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>-10.81%</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>38.66%</t>
-        </is>
-      </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>-34.90%</t>
+          <t>82.28%</t>
         </is>
       </c>
     </row>
@@ -957,62 +961,62 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>323780283.19</t>
+          <t>257489327.13</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2687299.10</t>
+          <t>790875.39</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>540642.10</t>
+          <t>375344.26</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>46187730.14</t>
+          <t>37843419.48</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>509090053.38</t>
+          <t>545500206.52</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>622189029.33</t>
+          <t>833474367.83</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>561488374.38</t>
+          <t>538414385.48</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>247315224.00</t>
+          <t>177010295.61</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>11939603.90</t>
+          <t>16043680.30</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>47339646.19</t>
+          <t>64123651.70</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>109126573.05</t>
+          <t>114281940.96</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>73221095.14</t>
+          <t>120923481.87</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1028,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2.389</t>
+          <t>2.763</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1039,27 +1043,27 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.138</t>
+          <t>0.152</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.881</t>
+          <t>3.342</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>3.896</t>
+          <t>2.889</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2.941</t>
+          <t>3.993</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1.178</t>
+          <t>1.055</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1069,17 +1073,17 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>0.214</t>
+          <t>0.179</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>1.025</t>
+          <t>0.941</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>0.153</t>
+          <t>0.251</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1095,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>341</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1101,52 +1105,52 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>62</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>491</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>619</t>
+          <t>1090</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>528</t>
+          <t>741</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>417</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>303</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>215</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>304</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>525</t>
         </is>
       </c>
     </row>
@@ -1158,34 +1162,34 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>6.05%</t>
+          <t>6.85%</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.61%</t>
+          <t>0.57%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.37%</t>
+          <t>1.62%</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>7.87%</t>
+          <t>10.94%</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>9.58%</t>
+          <t>5.65%</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>9.87%</t>
+          <t>10.43%</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
@@ -1196,10 +1200,14 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>12.74%</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr"/>
+          <t>16.31%</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>2.32%</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1209,62 +1217,62 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>12.46</t>
+          <t>14.71</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-1.55</t>
+          <t>-0.26</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>-1.71</t>
+          <t>-4.38</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12.61</t>
+          <t>1811.43</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>12.85</t>
+          <t>15.31</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>5.46</t>
+          <t>5.07</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>7.02</t>
+          <t>9.33</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>8.62</t>
+          <t>8.23</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>-0.22</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>3.78</t>
+          <t>3.34</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>4.85</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>-7.03</t>
+          <t>5.50</t>
         </is>
       </c>
     </row>
@@ -1276,12 +1284,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>-1.65</t>
+          <t>-29.74</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1291,27 +1299,27 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-0.20</t>
+          <t>-17.76</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>-0.45</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1321,17 +1329,17 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>-0.25</t>
+          <t>-0.22</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>-4.40</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>-0.15</t>
+          <t>-0.02</t>
         </is>
       </c>
     </row>
@@ -1343,62 +1351,62 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>7.73</t>
+          <t>6.10</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.43</t>
         </is>
       </c>
     </row>
@@ -1410,27 +1418,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>5.94</t>
+          <t>6.54</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>5.29</t>
+          <t>-2.61</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>-4.23</t>
+          <t>15.29</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>5.18</t>
+          <t>9.24</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>8.87</t>
+          <t>10.75</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -1438,18 +1446,18 @@
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>12.86</t>
+          <t>13.00</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>4.14</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>7.11</t>
+          <t>5.81</t>
         </is>
       </c>
     </row>
@@ -1461,62 +1469,62 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>7.93</t>
+          <t>8.62</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>13.63</t>
+          <t>-2.29</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>-8.81</t>
+          <t>19.25</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>7.91</t>
+          <t>17.12</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>9.72</t>
+          <t>11.41</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>5.75</t>
+          <t>6.73</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>6.99</t>
+          <t>8.85</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>7.68</t>
+          <t>7.35</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>-14.94</t>
+          <t>-15.09</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>4.17</t>
+          <t>4.74</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>10.75</t>
+          <t>7.63</t>
         </is>
       </c>
     </row>
@@ -1528,27 +1536,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>6.61</t>
+          <t>7.11</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>-0.38</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>-2.26</t>
+          <t>8.14</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3.87</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>8.88</t>
+          <t>10.70</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
@@ -1556,18 +1564,18 @@
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>2.89</t>
         </is>
       </c>
     </row>
@@ -1579,17 +1587,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>8.82</t>
+          <t>9.38</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>-0.33</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>-4.71</t>
+          <t>10.25</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1599,42 +1607,42 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>9.73</t>
+          <t>11.36</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>5.75</t>
+          <t>6.73</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>7.29</t>
+          <t>9.51</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>7.68</t>
+          <t>7.35</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>-0.56</t>
+          <t>-0.71</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>3.44</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>3.22</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>3.77</t>
+          <t>3.80</t>
         </is>
       </c>
     </row>
@@ -1646,42 +1654,42 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>6.23</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>16.70</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11.98</t>
+          <t>12.62</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>3.57</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>32.15</t>
+          <t>31.72</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>15.95</t>
+          <t>16.10</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>4.85</t>
+          <t>5.83</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1696,12 +1704,12 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>9.81</t>
+          <t>9.75</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>6.19</t>
+          <t>6.63</t>
         </is>
       </c>
     </row>
@@ -1713,42 +1721,42 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>3.84</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1758,17 +1766,17 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.22</t>
         </is>
       </c>
     </row>
@@ -1780,42 +1788,42 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>-2.83</t>
+          <t>-15.89</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>-0.84</t>
+          <t>-0.32</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>5.09</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>4.32</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1830,12 +1838,12 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>-0.24</t>
+          <t>0.52</t>
         </is>
       </c>
     </row>
@@ -1847,37 +1855,37 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>5.56</t>
+          <t>6.73</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -1889,12 +1897,12 @@
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
           <t>0.83</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>0.51</t>
         </is>
       </c>
     </row>
@@ -1906,62 +1914,62 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>24.83</t>
+          <t>50.46</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>-28.78</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>-2.19</t>
+          <t>-1.94</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>9.76</t>
+          <t>8.48</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>46.06</t>
+          <t>15.23</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>28.33</t>
+          <t>25.02</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>47.29</t>
+          <t>35.83</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>1.94</t>
+          <t>4.15</t>
         </is>
       </c>
     </row>
@@ -1973,62 +1981,62 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>-1.66</t>
+          <t>-2.05</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>-0.21</t>
+          <t>-0.20</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>-0.51</t>
+          <t>-0.49</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>-0.42</t>
+          <t>-0.26</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>-1.96</t>
+          <t>-2.40</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>-6.40</t>
+          <t>-6.63</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>-0.83</t>
+          <t>-0.73</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>-0.69</t>
+          <t>-0.64</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>-0.16</t>
+          <t>-0.28</t>
         </is>
       </c>
     </row>
@@ -2045,22 +2053,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>13.58</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
@@ -2078,12 +2086,12 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>0.44</t>
         </is>
       </c>
     </row>
@@ -2095,27 +2103,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>-0.67</t>
+          <t>-0.57</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>3.59</t>
+          <t>-2.23</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>-1.97</t>
+          <t>7.15</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>6.05</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
@@ -2129,12 +2137,12 @@
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>4.62</t>
+          <t>2.92</t>
         </is>
       </c>
     </row>
@@ -2146,27 +2154,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>-0.89</t>
+          <t>-0.76</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>9.24</t>
+          <t>-1.96</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>-4.10</t>
+          <t>9.00</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>11.21</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
@@ -2184,12 +2192,12 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>6.98</t>
+          <t>3.83</t>
         </is>
       </c>
     </row>
@@ -2201,12 +2209,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2216,7 +2224,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2226,17 +2234,17 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
           <t>0.08</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2251,12 +2259,12 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.51</t>
         </is>
       </c>
     </row>
@@ -2268,12 +2276,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2283,7 +2291,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2303,7 +2311,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -2318,12 +2326,12 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.44</t>
         </is>
       </c>
     </row>
@@ -2335,42 +2343,42 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>10.06</t>
+          <t>14.03</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>12.81</t>
+          <t>11.09</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -2385,12 +2393,12 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>1.38</t>
         </is>
       </c>
     </row>
@@ -2402,37 +2410,37 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>50.98%</t>
+          <t>51.46%</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>10.95%</t>
+          <t>10.79%</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>63.30%</t>
+          <t>50.10%</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>19.16%</t>
+          <t>20.53%</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>89.98%</t>
+          <t>89.93%</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>38.21%</t>
+          <t>36.83%</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>32.33%</t>
+          <t>32.69%</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -2444,12 +2452,12 @@
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
         <is>
-          <t>21.82%</t>
+          <t>19.63%</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>66.14%</t>
+          <t>67.94%</t>
         </is>
       </c>
     </row>
@@ -2461,27 +2469,27 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>31.92%</t>
+          <t>32.55%</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>9.13%</t>
+          <t>-55.76%</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>-28.47%</t>
+          <t>6.19%</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>35.70%</t>
+          <t>34.36%</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>62.64%</t>
+          <t>62.92%</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
@@ -2495,12 +2503,12 @@
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
         <is>
-          <t>30.55%</t>
+          <t>27.26%</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>20.52%</t>
+          <t>28.76%</t>
         </is>
       </c>
     </row>
@@ -2512,37 +2520,37 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>23.92%</t>
+          <t>24.69%</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>3.55%</t>
+          <t>-63.54%</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>-13.66%</t>
+          <t>4.91%</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>23.40%</t>
+          <t>18.55%</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>57.18%</t>
+          <t>59.29%</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>10.13%</t>
+          <t>6.66%</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>7.93%</t>
+          <t>8.46%</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -2554,12 +2562,12 @@
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr">
         <is>
-          <t>27.02%</t>
+          <t>23.79%</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>13.58%</t>
+          <t>21.89%</t>
         </is>
       </c>
     </row>
@@ -2571,37 +2579,37 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>16.92%</t>
+          <t>15.74%</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>-10.06%</t>
+          <t>-81.51%</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>-37.76%</t>
+          <t>-11.49%</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10.96%</t>
+          <t>0.06%</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>43.29%</t>
+          <t>43.97%</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>10.67%</t>
+          <t>8.86%</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>8.23%</t>
+          <t>8.62%</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -2613,12 +2621,12 @@
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr">
         <is>
-          <t>17.12%</t>
+          <t>17.25%</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>-7.29%</t>
+          <t>15.13%</t>
         </is>
       </c>
     </row>
@@ -2630,42 +2638,42 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>14.21%</t>
+          <t>15.27%</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>-16.91%</t>
+          <t>-889.48%</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>-155.67%</t>
+          <t>-57.47%</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>5.74%</t>
+          <t>0.04%</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>24.90%</t>
+          <t>25.18%</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>15.83%</t>
+          <t>13.57%</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>10.38%</t>
+          <t>11.15%</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>89.77%</t>
+          <t>74.13%</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2680,12 +2688,12 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>23.55%</t>
+          <t>25.09%</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>-3.82%</t>
+          <t>7.90%</t>
         </is>
       </c>
     </row>
@@ -2697,42 +2705,42 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>9.47%</t>
+          <t>9.80%</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>-4.90%</t>
+          <t>-46.89%</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>-21.57%</t>
+          <t>-8.08%</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2.30%</t>
+          <t>0.01%</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>10.12%</t>
+          <t>10.22%</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>1.22%</t>
+          <t>1.02%</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>0.85%</t>
+          <t>0.93%</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>40.26%</t>
+          <t>46.67%</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2747,12 +2755,12 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>10.49%</t>
+          <t>10.96%</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>-1.86%</t>
+          <t>4.06%</t>
         </is>
       </c>
     </row>
@@ -2764,27 +2772,27 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>16.38%</t>
+          <t>17.85%</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1.18%</t>
+          <t>-46.90%</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>-20.88%</t>
+          <t>6.21%</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>5.47%</t>
+          <t>3.58%</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>14.23%</t>
+          <t>13.91%</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
@@ -2802,12 +2810,12 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>19.50%</t>
+          <t>17.60%</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>2.73%</t>
+          <t>5.43%</t>
         </is>
       </c>
     </row>
@@ -2819,22 +2827,22 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2849,7 +2857,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2869,12 +2877,12 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.27</t>
         </is>
       </c>
     </row>
@@ -2886,17 +2894,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>9.68%</t>
+          <t>11.20%</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>34.34%</t>
+          <t>12.70%</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>-9.85%</t>
+          <t>-13.55%</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
@@ -2924,12 +2932,12 @@
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr">
         <is>
-          <t>10.60%</t>
+          <t>9.42%</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>-0.82%</t>
+          <t>-1.88%</t>
         </is>
       </c>
     </row>
@@ -2941,7 +2949,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>4.87%</t>
+          <t>4.14%</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -2949,22 +2957,22 @@
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>11.01%</t>
+          <t>11.76%</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>12.21%</t>
+          <t>8.51%</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>-3.56%</t>
+          <t>-1.99%</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>5.50%</t>
+          <t>5.36%</t>
         </is>
       </c>
       <c r="J41" t="inlineStr"/>
@@ -2975,10 +2983,14 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>31.19%</t>
-        </is>
-      </c>
-      <c r="M41" t="inlineStr"/>
+          <t>17.50%</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>33.12%</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -2988,42 +3000,42 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>98140388000</t>
+          <t>94528274000</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>1037685000</t>
+          <t>111006000</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>278507000</t>
+          <t>287288000</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>12587285000</t>
+          <t>13251517000</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>18383454000</t>
+          <t>18794551000</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>184236344000</t>
+          <t>181793664000</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>168942492000</t>
+          <t>170501799000</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>9695421000</t>
+          <t>11661962000</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -3038,12 +3050,12 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>28060032000</t>
+          <t>27914455000</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>11616160000</t>
+          <t>12444512000</t>
         </is>
       </c>
     </row>
@@ -3055,42 +3067,42 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>147286361000</t>
+          <t>147298979000</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>3580115000</t>
+          <t>2105580000</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2010006000</t>
+          <t>2044038000</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>31492257000</t>
+          <t>52266696000</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>45228850000</t>
+          <t>46292029000</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2398719197000</t>
+          <t>2427051877000</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2069506045000</t>
+          <t>2054649704000</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>21615587000</t>
+          <t>18524267000</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -3105,12 +3117,12 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>63006898000</t>
+          <t>63901931000</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>23866998000</t>
+          <t>24203940000</t>
         </is>
       </c>
     </row>
@@ -3122,42 +3134,42 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>42672930000</t>
+          <t>43550960000</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2285015000</t>
+          <t>819003000</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>569416000</t>
+          <t>570564000</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>9676566000</t>
+          <t>11093981000</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>15187412000</t>
+          <t>16116282000</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>83167243000</t>
+          <t>71510833000</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>208023801000</t>
+          <t>171220729000</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>9905706000</t>
+          <t>7793681000</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -3172,12 +3184,12 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>16272739000</t>
+          <t>15471501000</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>4221237000</t>
+          <t>4711693000</t>
         </is>
       </c>
     </row>
@@ -3189,27 +3201,27 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>3380273000</t>
+          <t>3218170000</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1453382000</t>
+          <t>1619666000</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>673963000</t>
+          <t>644433000</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>8384382000</t>
+          <t>26161764000</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>13228819000</t>
+          <t>14881775000</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
@@ -3227,12 +3239,12 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>14134273000</t>
+          <t>15242574000</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>6888670000</t>
+          <t>6873792000</t>
         </is>
       </c>
     </row>
@@ -3244,42 +3256,42 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>20939039000</t>
+          <t>20310261000</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>881323000</t>
+          <t>112714000</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>31384000</t>
+          <t>9236000</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>5295721000</t>
+          <t>6162476000</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>13300305000</t>
+          <t>14519084000</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>83167243000</t>
+          <t>71510833000</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>208023801000</t>
+          <t>171220729000</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>8508976000</t>
+          <t>6455132000</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -3294,12 +3306,12 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>6621236000</t>
+          <t>4700460000</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>1126271000</t>
+          <t>1421705000</t>
         </is>
       </c>
     </row>
@@ -3311,27 +3323,27 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>-17558766000</t>
+          <t>-17092091000</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>572059000</t>
+          <t>1506952000</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>642579000</t>
+          <t>635197000</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>3088661000</t>
+          <t>19999288000</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>-71486000</t>
+          <t>362691000</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
@@ -3349,12 +3361,12 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>7513037000</t>
+          <t>10542114000</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>5762399000</t>
+          <t>5452087000</t>
         </is>
       </c>
     </row>
@@ -3366,62 +3378,62 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>173806960416</t>
+          <t>212309274043</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>271465257</t>
+          <t>253450400</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>739376702</t>
+          <t>723973021</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>9117280814</t>
+          <t>10535291079</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>58823260000</t>
+          <t>72467040000</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>159374494652</t>
+          <t>124989490412</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>118199461352</t>
+          <t>165164259965</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>74980000000</t>
+          <t>71140000000</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>270047071</t>
+          <t>344214929</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>6595720111</t>
+          <t>5899637787</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>35926275202</t>
+          <t>35230523435</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>3115166309</t>
+          <t>5404625885</t>
         </is>
       </c>
     </row>
@@ -3433,62 +3445,62 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>156248194416</t>
+          <t>195217183043</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>843524257</t>
+          <t>1760402400</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1381955702</t>
+          <t>1359170021</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>12205941814</t>
+          <t>30534579079</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>58751774000</t>
+          <t>72829731000</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>159374494652</t>
+          <t>124989490412</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>118199461352</t>
+          <t>165164259965</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>74980000000</t>
+          <t>71140000000</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>7229047071</t>
+          <t>7303214929</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>6300989111</t>
+          <t>5604906787</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>43439312202</t>
+          <t>45772637435</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>8877565309</t>
+          <t>10856712885</t>
         </is>
       </c>
     </row>
@@ -3501,7 +3513,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>15757657336</t>
+          <t>15761638756</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -3521,7 +3533,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>5426500000</t>
+          <t>5266500000</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -3631,27 +3643,27 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>27.89%</t>
+          <t>27.12%</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>57.08%</t>
+          <t>59.08%</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>7.06%</t>
+          <t>6.92%</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>30.82%</t>
+          <t>30.31%</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>99.37%</t>
+          <t>98.67%</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -3661,17 +3673,17 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>62.24%</t>
+          <t>62.07%</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>31.87%</t>
+          <t>30.81%</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>99.87%</t>
+          <t>99.98%</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -3681,12 +3693,12 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>81.34%</t>
+          <t>82.92%</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>99.78%</t>
+          <t>96.50%</t>
         </is>
       </c>
     </row>

--- a/stocks_data.xlsx
+++ b/stocks_data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -508,62 +508,62 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>13.47</t>
+          <t>13.38</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>4.08</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>10.03</t>
+          <t>10.14</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>13.76</t>
+          <t>13.58</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>21.81</t>
+          <t>21.23</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>16.75</t>
+          <t>16.56</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>35.57</t>
+          <t>35.09</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>3.62</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>15.31</t>
+          <t>14.94</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>10.87</t>
+          <t>10.39</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>2.82</t>
         </is>
       </c>
     </row>
@@ -600,7 +600,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>21.40</t>
+          <t>21.09</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -610,7 +610,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>29.67</t>
+          <t>29.74</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -709,50 +709,50 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>6.85</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>10.94</t>
+          <t>11.27</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>5.65</t>
+          <t>5.73</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>10.43</t>
+          <t>10.59</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>13.25</t>
+          <t>13.56</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>16.31</t>
+          <t>17.76</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>2.39</t>
         </is>
       </c>
     </row>
@@ -764,62 +764,62 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>28.04%</t>
+          <t>25.07%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-20.93%</t>
+          <t>-21.22%</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-2.08%</t>
+          <t>3.70%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-17.24%</t>
+          <t>-16.38%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>35.57%</t>
+          <t>35.22%</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-8.78%</t>
+          <t>-12.20%</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>44.40%</t>
+          <t>43.17%</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>19.89%</t>
+          <t>17.53%</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>-37.37%</t>
+          <t>-42.44%</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>-6.65%</t>
+          <t>-8.74%</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>24.51%</t>
+          <t>16.24%</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>82.28%</t>
+          <t>63.95%</t>
         </is>
       </c>
     </row>
@@ -961,62 +961,62 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>257489327.13</t>
+          <t>276364447.67</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>790875.39</t>
+          <t>626183.86</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>375344.26</t>
+          <t>309067.90</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>37843419.48</t>
+          <t>40010930.90</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>545500206.52</t>
+          <t>548209890.19</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>833474367.83</t>
+          <t>723517817.76</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>538414385.48</t>
+          <t>527880478.90</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>177010295.61</t>
+          <t>174139213.48</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>16043680.30</t>
+          <t>17295773.24</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>64123651.70</t>
+          <t>62692984.43</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>114281940.96</t>
+          <t>108373555.62</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>120923481.87</t>
+          <t>99094331.05</t>
         </is>
       </c>
     </row>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2.763</t>
+          <t>2.800</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1043,27 +1043,27 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.152</t>
+          <t>0.155</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.342</t>
+          <t>3.315</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2.889</t>
+          <t>2.874</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>3.993</t>
+          <t>3.987</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1.055</t>
+          <t>1.064</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1073,17 +1073,17 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>0.179</t>
+          <t>0.180</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>0.941</t>
+          <t>0.918</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>0.251</t>
+          <t>0.249</t>
         </is>
       </c>
     </row>
@@ -1095,12 +1095,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>262</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1110,47 +1110,47 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>49</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>491</t>
+          <t>397</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1090</t>
+          <t>947</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>741</t>
+          <t>624</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>417</t>
+          <t>317</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>210</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>157</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>251</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>392</t>
         </is>
       </c>
     </row>
@@ -1162,50 +1162,50 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>6.85%</t>
+          <t>6.90%</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.57%</t>
+          <t>0.56%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1.62%</t>
+          <t>2.17%</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>10.94%</t>
+          <t>11.27%</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>5.65%</t>
+          <t>5.73%</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>10.43%</t>
+          <t>10.59%</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>13.25%</t>
+          <t>13.56%</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>16.31%</t>
+          <t>17.76%</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2.32%</t>
+          <t>2.39%</t>
         </is>
       </c>
     </row>
@@ -1217,62 +1217,62 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>14.71</t>
+          <t>14.61</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-0.26</t>
+          <t>-0.25</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>-4.38</t>
+          <t>-4.35</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1811.43</t>
+          <t>1824.07</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>15.31</t>
+          <t>15.12</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>5.07</t>
+          <t>4.92</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>9.33</t>
+          <t>9.21</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>8.23</t>
+          <t>8.10</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>-0.22</t>
+          <t>-0.19</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>3.34</t>
+          <t>3.26</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>4.21</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>5.32</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>-29.74</t>
+          <t>-29.54</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1299,17 +1299,17 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-17.76</t>
+          <t>-17.89</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1334,7 +1334,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -1351,17 +1351,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1371,42 +1371,42 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>6.10</t>
+          <t>6.01</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.42</t>
         </is>
       </c>
     </row>
@@ -1418,27 +1418,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>6.54</t>
+          <t>6.51</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>-2.61</t>
+          <t>-2.60</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>15.29</t>
+          <t>15.12</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>9.24</t>
+          <t>9.27</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>10.75</t>
+          <t>10.55</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -1446,18 +1446,18 @@
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>13.00</t>
+          <t>12.92</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>4.14</t>
+          <t>4.03</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>5.81</t>
+          <t>5.71</t>
         </is>
       </c>
     </row>
@@ -1469,62 +1469,62 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>8.62</t>
+          <t>8.58</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>-2.29</t>
+          <t>-2.28</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>19.25</t>
+          <t>19.03</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>17.12</t>
+          <t>17.17</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>11.41</t>
+          <t>11.20</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>6.73</t>
+          <t>6.54</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>8.85</t>
+          <t>8.72</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>7.35</t>
+          <t>7.22</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>-15.09</t>
+          <t>-15.00</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>3.21</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>4.74</t>
+          <t>4.62</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>7.63</t>
+          <t>7.50</t>
         </is>
       </c>
     </row>
@@ -1536,27 +1536,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>7.11</t>
+          <t>7.07</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-0.38</t>
+          <t>-0.37</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>8.14</t>
+          <t>8.09</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>10.70</t>
+          <t>10.57</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
@@ -1564,18 +1564,18 @@
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>2.80</t>
         </is>
       </c>
     </row>
@@ -1587,62 +1587,62 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>9.38</t>
+          <t>9.32</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>-0.33</t>
+          <t>-0.32</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>10.25</t>
+          <t>10.18</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>5.91</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>11.36</t>
+          <t>11.22</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>6.73</t>
+          <t>6.54</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>9.51</t>
+          <t>9.39</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>7.35</t>
+          <t>7.24</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>-0.71</t>
+          <t>-0.62</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>3.44</t>
+          <t>3.36</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>3.22</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>3.68</t>
         </is>
       </c>
     </row>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1741,7 +1741,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1756,7 +1756,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>3.84</t>
+          <t>3.78</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1766,12 +1766,12 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -1855,7 +1855,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1875,17 +1875,17 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>6.73</t>
+          <t>6.65</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -1897,12 +1897,12 @@
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.81</t>
         </is>
       </c>
     </row>
@@ -1914,62 +1914,62 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>50.46</t>
+          <t>50.12</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>-28.78</t>
+          <t>-28.29</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>-1.94</t>
+          <t>-1.93</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>8.48</t>
+          <t>8.37</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>15.23</t>
+          <t>15.00</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>-0.09</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>25.02</t>
+          <t>24.45</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>35.83</t>
+          <t>33.98</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>4.02</t>
         </is>
       </c>
     </row>
@@ -1981,12 +1981,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>-2.05</t>
+          <t>-2.03</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>-0.20</t>
+          <t>-0.19</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -2001,7 +2001,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>-2.40</t>
+          <t>-2.37</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -2016,7 +2016,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>-6.63</t>
+          <t>-6.53</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2026,17 +2026,17 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>-0.73</t>
+          <t>-0.72</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>-0.64</t>
+          <t>-0.61</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>-0.28</t>
+          <t>-0.27</t>
         </is>
       </c>
     </row>
@@ -3378,62 +3378,62 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>212309274043</t>
+          <t>211363575718</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>253450400</t>
+          <t>248480784</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>723973021</t>
+          <t>708569339</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10535291079</t>
+          <t>10619321317</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>72467040000</t>
+          <t>71097750000</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>124989490412</t>
+          <t>121321756627</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>165164259965</t>
+          <t>162675373081</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>71140000000</t>
+          <t>69920000000</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>344214929</t>
+          <t>299524041</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>5899637787</t>
+          <t>5800609928</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>35230523435</t>
+          <t>34086853776</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>5404625885</t>
+          <t>5216965264</t>
         </is>
       </c>
     </row>
@@ -3445,62 +3445,62 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>195217183043</t>
+          <t>194271484718</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>1760402400</t>
+          <t>1755432784</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1359170021</t>
+          <t>1343766339</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>30534579079</t>
+          <t>30618609317</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>72829731000</t>
+          <t>71460441000</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>124989490412</t>
+          <t>121321756627</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>165164259965</t>
+          <t>162675373081</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>71140000000</t>
+          <t>69920000000</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>7303214929</t>
+          <t>7258524041</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>5604906787</t>
+          <t>5505878928</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>45772637435</t>
+          <t>44628967776</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>10856712885</t>
+          <t>10669052264</t>
         </is>
       </c>
     </row>

--- a/stocks_data.xlsx
+++ b/stocks_data.xlsx
@@ -508,12 +508,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>13.38</t>
+          <t>13.20</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>4.13</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -523,47 +523,47 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>10.14</t>
+          <t>10.01</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>13.58</t>
+          <t>14.10</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>21.23</t>
+          <t>21.72</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>16.56</t>
+          <t>16.60</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>35.09</t>
+          <t>35.39</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>14.94</t>
+          <t>15.60</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>10.39</t>
+          <t>10.49</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2.82</t>
+          <t>2.80</t>
         </is>
       </c>
     </row>
@@ -610,7 +610,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>29.74</t>
+          <t>29.78</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -625,7 +625,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>8.53</t>
+          <t>8.69</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -709,50 +709,50 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>6.90</t>
+          <t>6.99</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.17</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>11.27</t>
+          <t>10.99</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>5.73</t>
+          <t>5.71</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>10.59</t>
+          <t>10.49</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>13.56</t>
+          <t>13.00</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>17.76</t>
+          <t>17.46</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>2.38</t>
         </is>
       </c>
     </row>
@@ -764,12 +764,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>25.07%</t>
+          <t>23.48%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-21.22%</t>
+          <t>-20.12%</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -779,47 +779,47 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-16.38%</t>
+          <t>-18.29%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>35.22%</t>
+          <t>36.89%</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-12.20%</t>
+          <t>-9.05%</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>43.17%</t>
+          <t>44.85%</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>17.53%</t>
+          <t>18.84%</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>-42.44%</t>
+          <t>-40.00%</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>-8.74%</t>
+          <t>-7.91%</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>16.24%</t>
+          <t>19.07%</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>63.95%</t>
+          <t>60.92%</t>
         </is>
       </c>
     </row>
@@ -961,62 +961,62 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>276364447.67</t>
+          <t>319690173.55</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>626183.86</t>
+          <t>693531.00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>309067.90</t>
+          <t>294063.91</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>40010930.90</t>
+          <t>38191698.14</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>548209890.19</t>
+          <t>541668777.55</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>723517817.76</t>
+          <t>724360794.14</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>527880478.90</t>
+          <t>521733897.68</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>174139213.48</t>
+          <t>170549869.77</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>17295773.24</t>
+          <t>17169921.59</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>62692984.43</t>
+          <t>56800277.82</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>108373555.62</t>
+          <t>109925697.27</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>99094331.05</t>
+          <t>97696091.41</t>
         </is>
       </c>
     </row>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2.800</t>
+          <t>2.732</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1043,27 +1043,27 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.155</t>
+          <t>0.153</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.315</t>
+          <t>3.472</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2.874</t>
+          <t>2.920</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>3.987</t>
+          <t>4.005</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1.064</t>
+          <t>1.061</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1073,17 +1073,17 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>0.180</t>
+          <t>0.185</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>0.918</t>
+          <t>0.921</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>0.249</t>
+          <t>0.247</t>
         </is>
       </c>
     </row>
@@ -1095,62 +1095,62 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>268</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>401</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>963</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>635</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
           <t>262</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>397</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>947</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>624</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>317</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>210</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>157</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>251</t>
-        </is>
-      </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>408</t>
         </is>
       </c>
     </row>
@@ -1162,50 +1162,50 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>6.90%</t>
+          <t>6.99%</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.56%</t>
+          <t>0.57%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.17%</t>
+          <t>2.09%</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>11.27%</t>
+          <t>10.99%</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>5.73%</t>
+          <t>5.71%</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>10.59%</t>
+          <t>10.49%</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>13.56%</t>
+          <t>13.00%</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>17.76%</t>
+          <t>17.46%</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2.39%</t>
+          <t>2.38%</t>
         </is>
       </c>
     </row>
@@ -1217,12 +1217,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>14.61</t>
+          <t>14.42</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-0.25</t>
+          <t>-0.26</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1232,47 +1232,47 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1824.07</t>
+          <t>1807.82</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>15.12</t>
+          <t>15.69</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>5.05</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>9.21</t>
+          <t>9.25</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>8.10</t>
+          <t>8.19</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>-0.19</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>4.21</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>5.32</t>
+          <t>5.34</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>-29.54</t>
+          <t>-29.15</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1299,17 +1299,17 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-17.89</t>
+          <t>-17.73</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>-0.22</t>
+          <t>-0.23</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1351,12 +1351,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1366,17 +1366,17 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3.81</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1386,7 +1386,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>6.01</t>
+          <t>6.07</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1396,12 +1396,12 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -1418,27 +1418,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>6.51</t>
+          <t>6.40</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>-2.60</t>
+          <t>-2.61</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>15.12</t>
+          <t>15.23</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>9.27</t>
+          <t>9.24</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>10.55</t>
+          <t>11.02</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -1446,18 +1446,18 @@
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>12.92</t>
+          <t>12.91</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>4.03</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>5.71</t>
+          <t>5.73</t>
         </is>
       </c>
     </row>
@@ -1469,62 +1469,62 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>8.58</t>
+          <t>8.44</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>-2.28</t>
+          <t>-2.29</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>19.03</t>
+          <t>19.18</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>17.17</t>
+          <t>17.11</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>11.20</t>
+          <t>11.69</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>6.54</t>
+          <t>6.71</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>8.72</t>
+          <t>8.76</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>7.22</t>
+          <t>7.31</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>-15.00</t>
+          <t>-14.99</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>3.26</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>4.62</t>
+          <t>4.64</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>7.50</t>
+          <t>7.52</t>
         </is>
       </c>
     </row>
@@ -1536,12 +1536,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>7.07</t>
+          <t>6.97</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-0.37</t>
+          <t>-0.38</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1551,12 +1551,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3.21</t>
+          <t>3.18</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>10.57</t>
+          <t>10.96</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
@@ -1564,18 +1564,18 @@
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>2.71</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>2.81</t>
         </is>
       </c>
     </row>
@@ -1587,12 +1587,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>9.32</t>
+          <t>9.19</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>-0.32</t>
+          <t>-0.33</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1602,47 +1602,47 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>5.90</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>11.22</t>
+          <t>11.64</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>6.54</t>
+          <t>6.71</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>9.39</t>
+          <t>9.42</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>7.24</t>
+          <t>7.31</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>-0.62</t>
+          <t>-0.61</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>3.36</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>3.69</t>
         </is>
       </c>
     </row>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1741,7 +1741,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1756,7 +1756,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>3.78</t>
+          <t>3.82</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1766,12 +1766,12 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -1855,7 +1855,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1870,22 +1870,22 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>6.65</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -1897,7 +1897,7 @@
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -1914,12 +1914,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>50.12</t>
+          <t>49.45</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>-28.29</t>
+          <t>-29.13</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1929,27 +1929,27 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>8.37</t>
+          <t>8.69</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>15.00</t>
+          <t>15.16</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1959,17 +1959,17 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>24.45</t>
+          <t>25.50</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>33.98</t>
+          <t>34.58</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>4.02</t>
+          <t>4.03</t>
         </is>
       </c>
     </row>
@@ -1981,12 +1981,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>-2.03</t>
+          <t>-2.01</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>-0.19</t>
+          <t>-0.20</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -2001,7 +2001,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>-2.37</t>
+          <t>-2.46</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -2016,7 +2016,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>-6.53</t>
+          <t>-6.60</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2026,12 +2026,12 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>-0.72</t>
+          <t>-0.75</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>-0.61</t>
+          <t>-0.62</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -3378,62 +3378,62 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>211363575718</t>
+          <t>208053631579</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>248480784</t>
+          <t>256556409</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>708569339</t>
+          <t>718838460</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10619321317</t>
+          <t>10514283520</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>71097750000</t>
+          <t>74257650000</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>121321756627</t>
+          <t>124473715349</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>162675373081</t>
+          <t>163416342037</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>69920000000</t>
+          <t>70780000000</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>299524041</t>
+          <t>293818821</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>5800609928</t>
+          <t>5992937319</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>34086853776</t>
+          <t>34267404563</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>5216965264</t>
+          <t>5254497388</t>
         </is>
       </c>
     </row>
@@ -3445,62 +3445,62 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>194271484718</t>
+          <t>190961540579</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>1755432784</t>
+          <t>1763508409</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1343766339</t>
+          <t>1354035460</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>30618609317</t>
+          <t>30513571520</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>71460441000</t>
+          <t>74620341000</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>121321756627</t>
+          <t>124473715349</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>162675373081</t>
+          <t>163416342037</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>69920000000</t>
+          <t>70780000000</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>7258524041</t>
+          <t>7252818821</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>5505878928</t>
+          <t>5698206319</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>44628967776</t>
+          <t>44809518563</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>10669052264</t>
+          <t>10706584388</t>
         </is>
       </c>
     </row>

--- a/stocks_data.xlsx
+++ b/stocks_data.xlsx
@@ -961,62 +961,62 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>319690173.55</t>
+          <t>326269940.05</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>693531.00</t>
+          <t>700556.95</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>294063.91</t>
+          <t>290787.67</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>38191698.14</t>
+          <t>38833188.67</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>541668777.55</t>
+          <t>546042613.48</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>724360794.14</t>
+          <t>722310430.14</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>521733897.68</t>
+          <t>505282975.90</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>170549869.77</t>
+          <t>171982625.76</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>17169921.59</t>
+          <t>17582798.86</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>56800277.82</t>
+          <t>56419574.52</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>109925697.27</t>
+          <t>111647710.10</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>97696091.41</t>
+          <t>98055613.81</t>
         </is>
       </c>
     </row>

--- a/stocks_data.xlsx
+++ b/stocks_data.xlsx
@@ -508,57 +508,57 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>13.20</t>
+          <t>13.35</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>4.13</t>
+          <t>4.14</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>10.01</t>
+          <t>10.15</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>14.10</t>
+          <t>14.62</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>21.72</t>
+          <t>22.18</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>16.60</t>
+          <t>16.83</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>35.39</t>
+          <t>36.05</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>15.60</t>
+          <t>15.67</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>10.49</t>
+          <t>10.81</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -610,7 +610,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>29.78</t>
+          <t>29.79</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -731,7 +731,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>5.71</t>
+          <t>7.50</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -764,62 +764,62 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>23.48%</t>
+          <t>24.77%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-20.12%</t>
+          <t>-22.62%</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.70%</t>
+          <t>2.96%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-18.29%</t>
+          <t>-16.12%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>36.89%</t>
+          <t>42.22%</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-9.05%</t>
+          <t>-7.43%</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>44.85%</t>
+          <t>47.12%</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>18.84%</t>
+          <t>21.01%</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>-40.00%</t>
+          <t>-39.42%</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>-7.91%</t>
+          <t>-7.11%</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>19.07%</t>
+          <t>24.40%</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>60.92%</t>
+          <t>73.91%</t>
         </is>
       </c>
     </row>
@@ -961,62 +961,62 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>326269940.05</t>
+          <t>329954312.40</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>700556.95</t>
+          <t>694910.70</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>290787.67</t>
+          <t>267071.35</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>38833188.67</t>
+          <t>35771290.00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>546042613.48</t>
+          <t>506334600.75</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>722310430.14</t>
+          <t>676194641.50</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>505282975.90</t>
+          <t>482225224.10</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>171982625.76</t>
+          <t>169138478.30</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>17582798.86</t>
+          <t>18103998.45</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>56419574.52</t>
+          <t>56032479.35</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>111647710.10</t>
+          <t>105692518.35</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>98055613.81</t>
+          <t>86742044.00</t>
         </is>
       </c>
     </row>
@@ -1184,7 +1184,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>5.71%</t>
+          <t>7.50%</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">

--- a/stocks_data.xlsx
+++ b/stocks_data.xlsx
@@ -508,62 +508,62 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>13.35</t>
+          <t>13.56</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>4.14</t>
+          <t>4.34</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>10.15</t>
+          <t>9.85</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>14.62</t>
+          <t>14.34</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>22.18</t>
+          <t>21.90</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>16.83</t>
+          <t>16.41</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>36.05</t>
+          <t>36.07</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>15.67</t>
+          <t>16.43</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>10.81</t>
+          <t>10.97</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>2.83</t>
         </is>
       </c>
     </row>
@@ -610,7 +610,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>29.79</t>
+          <t>29.91</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -625,7 +625,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>8.69</t>
+          <t>8.94</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -692,7 +692,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>11.01</t>
+          <t>11.03</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -709,50 +709,50 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>6.99</t>
+          <t>6.81</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.09</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>10.99</t>
+          <t>10.90</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>7.50</t>
+          <t>7.58</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>10.49</t>
+          <t>10.29</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>13.00</t>
+          <t>12.35</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>17.46</t>
+          <t>16.69</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>2.36</t>
         </is>
       </c>
     </row>
@@ -764,62 +764,62 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>24.77%</t>
+          <t>27.68%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-22.62%</t>
+          <t>-23.32%</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.96%</t>
+          <t>-3.55%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-16.12%</t>
+          <t>-18.73%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>42.22%</t>
+          <t>39.77%</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-7.43%</t>
+          <t>-9.47%</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>47.12%</t>
+          <t>42.94%</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>21.01%</t>
+          <t>20.60%</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>-39.42%</t>
+          <t>-40.50%</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>-7.11%</t>
+          <t>-4.64%</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>24.40%</t>
+          <t>22.71%</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>73.91%</t>
+          <t>65.50%</t>
         </is>
       </c>
     </row>
@@ -961,62 +961,62 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>329954312.40</t>
+          <t>327889245.62</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>694910.70</t>
+          <t>683126.48</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>267071.35</t>
+          <t>266633.19</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>35771290.00</t>
+          <t>34972753.76</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>506334600.75</t>
+          <t>502541146.24</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>676194641.50</t>
+          <t>678233974.05</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>482225224.10</t>
+          <t>478713043.33</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>169138478.30</t>
+          <t>173881458.33</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>18103998.45</t>
+          <t>17703806.10</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>56032479.35</t>
+          <t>55405092.38</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>105692518.35</t>
+          <t>106820749.38</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>86742044.00</t>
+          <t>85548190.00</t>
         </is>
       </c>
     </row>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2.732</t>
+          <t>2.729</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1043,27 +1043,27 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.153</t>
+          <t>0.151</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.472</t>
+          <t>3.499</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2.920</t>
+          <t>2.891</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>4.005</t>
+          <t>3.953</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1.061</t>
+          <t>1.078</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1078,12 +1078,12 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>0.921</t>
+          <t>0.947</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>0.247</t>
+          <t>0.248</t>
         </is>
       </c>
     </row>
@@ -1095,7 +1095,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>280</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1115,42 +1115,42 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>401</t>
+          <t>428</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>963</t>
+          <t>989</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>635</t>
+          <t>655</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>336</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>214</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>165</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>276</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>408</t>
+          <t>425</t>
         </is>
       </c>
     </row>
@@ -1162,50 +1162,50 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>6.99%</t>
+          <t>6.81%</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.57%</t>
+          <t>0.58%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.09%</t>
+          <t>2.06%</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>10.99%</t>
+          <t>10.90%</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>7.50%</t>
+          <t>7.58%</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>10.49%</t>
+          <t>10.29%</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>13.00%</t>
+          <t>12.35%</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>17.46%</t>
+          <t>16.69%</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2.38%</t>
+          <t>2.36%</t>
         </is>
       </c>
     </row>
@@ -1217,62 +1217,62 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>14.42</t>
+          <t>14.81</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-0.26</t>
+          <t>-0.27</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>-4.35</t>
+          <t>-4.23</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1807.82</t>
+          <t>1778.92</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>15.69</t>
+          <t>15.96</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>5.05</t>
+          <t>5.09</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>9.25</t>
+          <t>9.14</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>8.19</t>
+          <t>8.35</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.19</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>4.29</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>5.34</t>
+          <t>5.40</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>-29.15</t>
+          <t>-29.94</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1299,12 +1299,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-17.73</t>
+          <t>-17.44</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1329,12 +1329,12 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>-0.23</t>
+          <t>-0.24</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -1351,42 +1351,42 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>4.02</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>6.07</t>
+          <t>6.19</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1396,17 +1396,17 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.43</t>
         </is>
       </c>
     </row>
@@ -1418,27 +1418,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>6.40</t>
+          <t>6.59</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>-2.61</t>
+          <t>-2.63</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>15.23</t>
+          <t>14.94</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>9.24</t>
+          <t>9.19</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>11.02</t>
+          <t>11.26</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -1452,12 +1452,12 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>4.18</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>5.73</t>
+          <t>5.76</t>
         </is>
       </c>
     </row>
@@ -1469,42 +1469,42 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>8.44</t>
+          <t>8.69</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>-2.29</t>
+          <t>-2.31</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>19.18</t>
+          <t>18.81</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>17.11</t>
+          <t>17.02</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>11.69</t>
+          <t>11.95</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>6.71</t>
+          <t>6.74</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>8.76</t>
+          <t>8.65</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>7.31</t>
+          <t>7.46</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1514,17 +1514,17 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>3.44</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>4.64</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>7.52</t>
+          <t>7.56</t>
         </is>
       </c>
     </row>
@@ -1536,27 +1536,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>6.97</t>
+          <t>7.16</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-0.38</t>
+          <t>-0.40</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>8.09</t>
+          <t>7.86</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3.18</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>10.96</t>
+          <t>11.15</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
@@ -1570,12 +1570,12 @@
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>2.84</t>
         </is>
       </c>
     </row>
@@ -1587,42 +1587,42 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>9.19</t>
+          <t>9.44</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>-0.33</t>
+          <t>-0.35</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>10.18</t>
+          <t>9.89</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>5.90</t>
+          <t>5.80</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>11.64</t>
+          <t>11.83</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>6.71</t>
+          <t>6.76</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>9.42</t>
+          <t>9.31</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>7.31</t>
+          <t>7.45</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1632,17 +1632,17 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>3.51</t>
+          <t>3.69</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>3.73</t>
         </is>
       </c>
     </row>
@@ -1721,17 +1721,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1741,7 +1741,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1751,12 +1751,12 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>3.82</t>
+          <t>3.89</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1766,12 +1766,12 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -1855,27 +1855,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>6.90</t>
+          <t>7.02</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1885,7 +1885,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -1897,12 +1897,12 @@
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.82</t>
         </is>
       </c>
     </row>
@@ -1914,42 +1914,42 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>49.45</t>
+          <t>50.80</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>-29.13</t>
+          <t>-30.62</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>-1.93</t>
+          <t>-1.87</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>8.69</t>
+          <t>8.84</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>15.16</t>
+          <t>15.45</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1959,17 +1959,17 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>25.50</t>
+          <t>26.86</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>34.58</t>
+          <t>36.16</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>4.03</t>
+          <t>4.07</t>
         </is>
       </c>
     </row>
@@ -1981,27 +1981,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>-2.01</t>
+          <t>-2.06</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>-0.20</t>
+          <t>-0.21</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>-0.49</t>
+          <t>-0.47</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>-0.26</t>
+          <t>-0.25</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>-2.46</t>
+          <t>-2.50</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -2016,7 +2016,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>-6.60</t>
+          <t>-6.72</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2026,12 +2026,12 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>-0.75</t>
+          <t>-0.79</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>-0.62</t>
+          <t>-0.65</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -3378,62 +3378,62 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>208053631579</t>
+          <t>211994041268</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>256556409</t>
+          <t>268980449</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>718838460</t>
+          <t>703434779</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10514283520</t>
+          <t>10335719264</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>74257650000</t>
+          <t>75100290000</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>124473715349</t>
+          <t>124015248626</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>163416342037</t>
+          <t>160874731037</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>70780000000</t>
+          <t>72340000000</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>293818821</t>
+          <t>292867951</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>5992937319</t>
+          <t>6243892957</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>34267404563</t>
+          <t>35746847752</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>5254497388</t>
+          <t>5329561636</t>
         </is>
       </c>
     </row>
@@ -3445,62 +3445,62 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>190961540579</t>
+          <t>194901950268</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>1763508409</t>
+          <t>1775932449</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1354035460</t>
+          <t>1338631779</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>30513571520</t>
+          <t>30335007264</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>74620341000</t>
+          <t>75462981000</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>124473715349</t>
+          <t>124015248626</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>163416342037</t>
+          <t>160874731037</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>70780000000</t>
+          <t>72340000000</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>7252818821</t>
+          <t>7251867951</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>5698206319</t>
+          <t>5949161957</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>44809518563</t>
+          <t>46288961752</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>10706584388</t>
+          <t>10781648636</t>
         </is>
       </c>
     </row>

--- a/stocks_data.xlsx
+++ b/stocks_data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -508,62 +508,62 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>13.56</t>
+          <t>13.30</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>4.34</t>
+          <t>4.28</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>9.85</t>
+          <t>9.07</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>14.34</t>
+          <t>13.71</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>21.90</t>
+          <t>21.20</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>16.41</t>
+          <t>16.01</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>36.07</t>
+          <t>35.26</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>16.43</t>
+          <t>16.66</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>10.97</t>
+          <t>10.80</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>2.64</t>
         </is>
       </c>
     </row>
@@ -575,7 +575,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>10.50</t>
+          <t>10.62</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -610,7 +610,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>29.91</t>
+          <t>30.88</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -625,7 +625,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>8.94</t>
+          <t>9.11</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -692,7 +692,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>11.03</t>
+          <t>11.21</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -709,50 +709,50 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>6.81</t>
+          <t>6.94</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>10.90</t>
+          <t>11.26</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>7.58</t>
+          <t>7.77</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>10.29</t>
+          <t>10.52</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>12.35</t>
+          <t>12.18</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>16.69</t>
+          <t>16.96</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>2.53</t>
         </is>
       </c>
     </row>
@@ -764,62 +764,62 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>27.68%</t>
+          <t>22.36%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-23.32%</t>
+          <t>-38.24%</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-3.55%</t>
+          <t>-11.03%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-18.73%</t>
+          <t>-26.80%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>39.77%</t>
+          <t>21.76%</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-9.47%</t>
+          <t>-13.19%</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>42.94%</t>
+          <t>35.68%</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>20.60%</t>
+          <t>14.18%</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>-40.50%</t>
+          <t>-47.82%</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>-4.64%</t>
+          <t>-4.75%</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>22.71%</t>
+          <t>16.76%</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>65.50%</t>
+          <t>40.43%</t>
         </is>
       </c>
     </row>
@@ -961,62 +961,62 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>327889245.62</t>
+          <t>277466148.81</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>683126.48</t>
+          <t>526411.19</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>266633.19</t>
+          <t>119040.90</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>34972753.76</t>
+          <t>26020442.95</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>502541146.24</t>
+          <t>354105524.33</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>678233974.05</t>
+          <t>453688058.57</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>478713043.33</t>
+          <t>347402302.67</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>173881458.33</t>
+          <t>123206899.00</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>17703806.10</t>
+          <t>8327877.19</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>55405092.38</t>
+          <t>45393506.62</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>106820749.38</t>
+          <t>84775290.24</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>85548190.00</t>
+          <t>57807315.38</t>
         </is>
       </c>
     </row>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2.729</t>
+          <t>2.780</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1043,27 +1043,27 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.151</t>
+          <t>0.140</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.499</t>
+          <t>3.396</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2.891</t>
+          <t>2.858</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>3.953</t>
+          <t>3.902</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1.078</t>
+          <t>1.068</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1073,17 +1073,17 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>0.185</t>
+          <t>0.199</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>0.947</t>
+          <t>0.955</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>0.248</t>
+          <t>0.236</t>
         </is>
       </c>
     </row>
@@ -1095,7 +1095,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>292</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1110,47 +1110,47 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>64</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>428</t>
+          <t>442</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>989</t>
+          <t>981</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>655</t>
+          <t>639</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>336</t>
+          <t>366</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>227</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>183</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>310</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>488</t>
         </is>
       </c>
     </row>
@@ -1162,50 +1162,50 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>6.81%</t>
+          <t>6.94%</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.58%</t>
+          <t>0.63%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.06%</t>
+          <t>2.15%</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>10.90%</t>
+          <t>11.26%</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>7.58%</t>
+          <t>7.77%</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>10.29%</t>
+          <t>10.52%</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>12.35%</t>
+          <t>12.18%</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>16.69%</t>
+          <t>16.96%</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2.36%</t>
+          <t>2.53%</t>
         </is>
       </c>
     </row>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>14.81</t>
+          <t>14.53</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1227,52 +1227,52 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>-4.23</t>
+          <t>-4.01</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1778.92</t>
+          <t>1638.06</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>15.96</t>
+          <t>15.26</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>5.09</t>
+          <t>4.93</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>9.14</t>
+          <t>8.92</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>8.35</t>
+          <t>8.16</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>-0.19</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>3.63</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>4.41</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>5.40</t>
+          <t>5.04</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>-29.94</t>
+          <t>-29.37</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1299,27 +1299,27 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-17.44</t>
+          <t>-16.06</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1334,7 +1334,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -1351,42 +1351,42 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>4.02</t>
+          <t>3.84</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>6.19</t>
+          <t>6.05</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1396,17 +1396,17 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.40</t>
         </is>
       </c>
     </row>
@@ -1418,27 +1418,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>6.59</t>
+          <t>6.45</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>-2.63</t>
+          <t>-2.62</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>14.94</t>
+          <t>14.60</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>9.19</t>
+          <t>8.94</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>11.26</t>
+          <t>10.71</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -1446,18 +1446,18 @@
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>12.91</t>
+          <t>12.89</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>4.18</t>
+          <t>4.14</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>5.76</t>
+          <t>5.57</t>
         </is>
       </c>
     </row>
@@ -1469,62 +1469,62 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>8.69</t>
+          <t>8.51</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>-2.31</t>
+          <t>-2.30</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>18.81</t>
+          <t>18.38</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>17.02</t>
+          <t>16.56</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>11.95</t>
+          <t>11.37</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>6.74</t>
+          <t>6.55</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>8.65</t>
+          <t>8.44</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>7.46</t>
+          <t>7.28</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>-14.99</t>
+          <t>-14.97</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>3.44</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>7.56</t>
+          <t>7.31</t>
         </is>
       </c>
     </row>
@@ -1536,27 +1536,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>7.16</t>
+          <t>7.02</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-0.40</t>
+          <t>-0.39</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>7.86</t>
+          <t>7.45</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>2.88</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>11.15</t>
+          <t>10.66</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
@@ -1564,18 +1564,18 @@
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>2.79</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>2.65</t>
         </is>
       </c>
     </row>
@@ -1587,7 +1587,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>9.44</t>
+          <t>9.26</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1597,52 +1597,52 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>9.89</t>
+          <t>9.38</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>5.80</t>
+          <t>5.34</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>11.83</t>
+          <t>11.31</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>6.76</t>
+          <t>6.55</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>9.31</t>
+          <t>9.09</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>7.45</t>
+          <t>7.28</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>-0.61</t>
+          <t>-0.59</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>3.73</t>
+          <t>3.48</t>
         </is>
       </c>
     </row>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1731,52 +1731,52 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
           <t>0.20</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>1.63</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>3.89</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>0.22</t>
         </is>
       </c>
     </row>
@@ -1855,7 +1855,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1865,27 +1865,27 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>7.02</t>
+          <t>6.71</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -1897,12 +1897,12 @@
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>0.76</t>
         </is>
       </c>
     </row>
@@ -1914,42 +1914,42 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>50.80</t>
+          <t>49.82</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>-30.62</t>
+          <t>-30.19</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>-1.87</t>
+          <t>-1.77</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>8.84</t>
+          <t>8.45</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>15.45</t>
+          <t>15.10</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1959,17 +1959,17 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>26.86</t>
+          <t>27.23</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>36.16</t>
+          <t>35.60</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>3.80</t>
         </is>
       </c>
     </row>
@@ -1981,7 +1981,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>-2.06</t>
+          <t>-2.02</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1991,52 +1991,52 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>-0.47</t>
+          <t>-0.45</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
+          <t>-0.23</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>-2.39</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>-0.05</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>-0.09</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>-6.57</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>-0.80</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>-0.64</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
           <t>-0.25</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>-2.50</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>-0.05</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>-0.09</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>-6.72</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>-0.02</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>-0.79</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>-0.65</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>-0.27</t>
         </is>
       </c>
     </row>
@@ -3378,62 +3378,62 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>211994041268</t>
+          <t>209629795455</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>268980449</t>
+          <t>265874439</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>703434779</t>
+          <t>662358295</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10335719264</t>
+          <t>9526928224</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>75100290000</t>
+          <t>72203715000</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>124015248626</t>
+          <t>121493681648</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>160874731037</t>
+          <t>157591364603</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>72340000000</t>
+          <t>70520000000</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>292867951</t>
+          <t>284310121</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>6243892957</t>
+          <t>6375122251</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>35746847752</t>
+          <t>35326745295</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>5329561636</t>
+          <t>4954240394</t>
         </is>
       </c>
     </row>
@@ -3445,62 +3445,62 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>194901950268</t>
+          <t>192537704455</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>1775932449</t>
+          <t>1772826439</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1338631779</t>
+          <t>1297555295</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>30335007264</t>
+          <t>29526216224</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>75462981000</t>
+          <t>72566406000</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>124015248626</t>
+          <t>121493681648</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>160874731037</t>
+          <t>157591364603</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>72340000000</t>
+          <t>70520000000</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>7251867951</t>
+          <t>7243310121</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>5949161957</t>
+          <t>6080391251</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>46288961752</t>
+          <t>45868859295</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>10781648636</t>
+          <t>10406327394</t>
         </is>
       </c>
     </row>

--- a/stocks_data.xlsx
+++ b/stocks_data.xlsx
@@ -508,62 +508,62 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>13.30</t>
+          <t>13.46</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>4.28</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>9.07</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>13.71</t>
+          <t>13.77</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>21.20</t>
+          <t>20.79</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>16.01</t>
+          <t>15.98</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>35.26</t>
+          <t>34.83</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>3.17</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>16.66</t>
+          <t>16.10</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>10.80</t>
+          <t>10.48</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>2.73</t>
         </is>
       </c>
     </row>
@@ -600,7 +600,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>21.09</t>
+          <t>20.59</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -610,7 +610,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>30.88</t>
+          <t>30.94</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12.41</t>
+          <t>12.38</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -709,50 +709,50 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>6.94</t>
+          <t>6.86</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>11.26</t>
+          <t>11.48</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>7.77</t>
+          <t>7.79</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>10.52</t>
+          <t>10.65</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>12.18</t>
+          <t>12.60</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>16.96</t>
+          <t>17.47</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>2.44</t>
         </is>
       </c>
     </row>
@@ -764,62 +764,62 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>22.36%</t>
+          <t>22.92%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-38.24%</t>
+          <t>-23.55%</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-11.03%</t>
+          <t>-10.88%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-26.80%</t>
+          <t>-27.00%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>21.76%</t>
+          <t>25.30%</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-13.19%</t>
+          <t>-15.35%</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>35.68%</t>
+          <t>36.58%</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>14.18%</t>
+          <t>12.57%</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>-47.82%</t>
+          <t>-35.96%</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>-4.75%</t>
+          <t>-5.41%</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>16.76%</t>
+          <t>15.04%</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>40.43%</t>
+          <t>68.52%</t>
         </is>
       </c>
     </row>
@@ -961,62 +961,62 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>277466148.81</t>
+          <t>289272231.14</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>526411.19</t>
+          <t>459349.27</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>119040.90</t>
+          <t>125317.64</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>26020442.95</t>
+          <t>26740971.00</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>354105524.33</t>
+          <t>288771625.82</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>453688058.57</t>
+          <t>449364630.95</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>347402302.67</t>
+          <t>305305637.23</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>123206899.00</t>
+          <t>112993308.68</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>8327877.19</t>
+          <t>8665163.68</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>45393506.62</t>
+          <t>40097091.27</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>84775290.24</t>
+          <t>82188377.09</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>57807315.38</t>
+          <t>53770018.95</t>
         </is>
       </c>
     </row>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2.780</t>
+          <t>2.827</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1043,27 +1043,27 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.140</t>
+          <t>0.139</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.396</t>
+          <t>3.414</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2.858</t>
+          <t>2.817</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>3.902</t>
+          <t>3.915</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1.068</t>
+          <t>1.061</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1073,17 +1073,17 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>0.199</t>
+          <t>0.193</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>0.955</t>
+          <t>0.929</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>0.236</t>
+          <t>0.244</t>
         </is>
       </c>
     </row>
@@ -1095,7 +1095,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>320</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1110,47 +1110,47 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>73</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>464</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>981</t>
+          <t>1084</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>639</t>
+          <t>705</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>366</t>
+          <t>395</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>242</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>189</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>336</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>488</t>
+          <t>543</t>
         </is>
       </c>
     </row>
@@ -1162,50 +1162,50 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>6.94%</t>
+          <t>6.86%</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.63%</t>
+          <t>0.64%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.15%</t>
+          <t>2.14%</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>11.26%</t>
+          <t>11.48%</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>7.77%</t>
+          <t>7.79%</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>10.52%</t>
+          <t>10.65%</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>12.18%</t>
+          <t>12.60%</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>16.96%</t>
+          <t>17.47%</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2.53%</t>
+          <t>2.44%</t>
         </is>
       </c>
     </row>
@@ -1217,62 +1217,62 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>14.53</t>
+          <t>14.70</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-0.27</t>
+          <t>-0.28</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>-4.01</t>
+          <t>-4.07</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1638.06</t>
+          <t>1616.38</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>15.26</t>
+          <t>15.32</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>4.93</t>
+          <t>4.83</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>8.92</t>
+          <t>8.90</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>8.16</t>
+          <t>8.06</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.19</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>3.63</t>
+          <t>5.42</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>4.41</t>
+          <t>4.28</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>5.04</t>
+          <t>5.21</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>-29.37</t>
+          <t>-29.72</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1299,12 +1299,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-16.06</t>
+          <t>-15.85</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>-0.24</t>
+          <t>-0.26</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1351,32 +1351,32 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>2.51</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3.84</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1386,7 +1386,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>6.05</t>
+          <t>5.97</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1396,17 +1396,17 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>0.41</t>
         </is>
       </c>
     </row>
@@ -1418,27 +1418,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>6.45</t>
+          <t>5.88</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>-2.62</t>
+          <t>-2.94</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>14.60</t>
+          <t>8.96</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>8.94</t>
+          <t>9.00</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>10.71</t>
+          <t>8.78</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -1446,18 +1446,18 @@
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>12.89</t>
+          <t>12.92</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>4.14</t>
+          <t>8.68</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>5.57</t>
+          <t>5.71</t>
         </is>
       </c>
     </row>
@@ -1469,62 +1469,62 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>8.51</t>
+          <t>8.62</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>-2.30</t>
+          <t>-2.32</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>18.38</t>
+          <t>18.52</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>16.56</t>
+          <t>16.49</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>11.37</t>
+          <t>11.42</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>6.55</t>
+          <t>6.42</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>8.44</t>
+          <t>8.43</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>7.28</t>
+          <t>7.19</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>-14.97</t>
+          <t>-15.00</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>4.64</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>7.31</t>
+          <t>7.43</t>
         </is>
       </c>
     </row>
@@ -1536,17 +1536,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>7.02</t>
+          <t>6.39</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-0.39</t>
+          <t>-0.46</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>7.45</t>
+          <t>4.61</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1556,7 +1556,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>10.66</t>
+          <t>8.74</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
@@ -1564,18 +1564,18 @@
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>5.81</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>2.77</t>
         </is>
       </c>
     </row>
@@ -1587,62 +1587,62 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>9.26</t>
+          <t>9.37</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>-0.35</t>
+          <t>-0.36</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>9.38</t>
+          <t>9.53</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>5.34</t>
+          <t>5.27</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>11.31</t>
+          <t>11.36</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>6.55</t>
+          <t>6.42</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>9.09</t>
+          <t>9.07</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>7.28</t>
+          <t>7.19</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>-0.59</t>
+          <t>-0.62</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>5.72</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>3.60</t>
         </is>
       </c>
     </row>
@@ -1699,7 +1699,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>21.50</t>
+          <t>22.05</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1721,7 +1721,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1731,7 +1731,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1741,7 +1741,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1756,7 +1756,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>3.81</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1766,17 +1766,17 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.21</t>
         </is>
       </c>
     </row>
@@ -1833,7 +1833,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>4.59</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -1855,32 +1855,32 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>6.71</t>
+          <t>6.74</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1897,12 +1897,12 @@
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.79</t>
         </is>
       </c>
     </row>
@@ -1914,32 +1914,32 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>49.82</t>
+          <t>50.42</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>-30.19</t>
+          <t>-31.60</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>-1.77</t>
+          <t>-1.80</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>8.45</t>
+          <t>8.49</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1949,7 +1949,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>15.10</t>
+          <t>14.92</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1959,17 +1959,17 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>27.23</t>
+          <t>10.73</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>35.60</t>
+          <t>34.54</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>3.93</t>
         </is>
       </c>
     </row>
@@ -1981,17 +1981,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>-2.02</t>
+          <t>-2.04</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>-0.21</t>
+          <t>-0.22</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>-0.45</t>
+          <t>-0.46</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2001,7 +2001,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>-2.39</t>
+          <t>-2.40</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -2016,7 +2016,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>-6.57</t>
+          <t>-6.49</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2026,17 +2026,17 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>-0.80</t>
+          <t>-0.78</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>-0.64</t>
+          <t>-0.62</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>-0.25</t>
+          <t>-0.26</t>
         </is>
       </c>
     </row>
@@ -2081,7 +2081,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2103,27 +2103,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>-0.57</t>
+          <t>-0.51</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>-2.23</t>
+          <t>-2.48</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>7.15</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>6.05</t>
+          <t>6.12</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
@@ -2137,12 +2137,12 @@
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>2.94</t>
         </is>
       </c>
     </row>
@@ -2187,7 +2187,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>-0.64</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2388,7 +2388,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>5.41</t>
+          <t>5.83</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2469,27 +2469,27 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>32.55%</t>
+          <t>36.21%</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>-55.76%</t>
+          <t>-50.15%</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>6.19%</t>
+          <t>10.16%</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>34.36%</t>
+          <t>33.99%</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>62.92%</t>
+          <t>77.09%</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
@@ -2503,12 +2503,12 @@
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
         <is>
-          <t>27.26%</t>
+          <t>12.70%</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>28.76%</t>
+          <t>28.48%</t>
         </is>
       </c>
     </row>
@@ -2683,7 +2683,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>21.33%</t>
+          <t>13.47%</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -2750,7 +2750,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>21.19%</t>
+          <t>13.27%</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -2772,12 +2772,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>17.85%</t>
+          <t>17.40%</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>-46.90%</t>
+          <t>-47.60%</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2787,12 +2787,12 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>3.58%</t>
+          <t>3.69%</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>13.91%</t>
+          <t>9.90%</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
@@ -2805,17 +2805,17 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>20.63%</t>
+          <t>12.72%</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>17.60%</t>
+          <t>17.72%</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>5.43%</t>
+          <t>5.34%</t>
         </is>
       </c>
     </row>
@@ -2976,11 +2976,7 @@
         </is>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>8.66%</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
           <t>17.50%</t>
@@ -3045,7 +3041,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>8451831000</t>
+          <t>8667966000</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3112,7 +3108,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>8508543000</t>
+          <t>8794484000</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -3179,7 +3175,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>294978000</t>
+          <t>711811000</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -3301,7 +3297,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>294731000</t>
+          <t>711201000</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -3356,7 +3352,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>-294731000</t>
+          <t>-711201000</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -3378,62 +3374,62 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>209629795455</t>
+          <t>212151657656</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>265874439</t>
+          <t>278298478</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>662358295</t>
+          <t>672627416</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>9526928224</t>
+          <t>9400882867</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>72203715000</t>
+          <t>72519705000</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>121493681648</t>
+          <t>119144039692</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>157591364603</t>
+          <t>157326642950</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>70520000000</t>
+          <t>69660000000</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>284310121</t>
+          <t>301425780</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>6375122251</t>
+          <t>6186725826</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>35326745295</t>
+          <t>34238786744</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>4954240394</t>
+          <t>5123134953</t>
         </is>
       </c>
     </row>
@@ -3445,62 +3441,62 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>192537704455</t>
+          <t>195059566656</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>1772826439</t>
+          <t>1785250478</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1297555295</t>
+          <t>1307824416</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>29526216224</t>
+          <t>29400170867</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>72566406000</t>
+          <t>72882396000</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>121493681648</t>
+          <t>119144039692</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>157591364603</t>
+          <t>157326642950</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>70520000000</t>
+          <t>69660000000</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>7243310121</t>
+          <t>7260425780</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>6080391251</t>
+          <t>5475524826</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>45868859295</t>
+          <t>44780900744</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>10406327394</t>
+          <t>10575221953</t>
         </is>
       </c>
     </row>

--- a/stocks_data.xlsx
+++ b/stocks_data.xlsx
@@ -508,62 +508,62 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>13.46</t>
+          <t>13.50</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>4.27</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>9.30</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>13.77</t>
+          <t>13.12</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>20.79</t>
+          <t>19.90</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>15.98</t>
+          <t>15.64</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>34.83</t>
+          <t>33.88</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>3.17</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>16.10</t>
+          <t>17.04</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>10.48</t>
+          <t>10.39</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>2.50</t>
         </is>
       </c>
     </row>
@@ -600,7 +600,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>20.59</t>
+          <t>19.85</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -625,7 +625,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>9.11</t>
+          <t>9.18</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>12.38</t>
+          <t>12.26</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -709,50 +709,50 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>6.86</t>
+          <t>6.84</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.14</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>11.48</t>
+          <t>11.98</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>7.79</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>10.65</t>
+          <t>10.96</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>12.60</t>
+          <t>11.90</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>17.47</t>
+          <t>17.63</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>2.68</t>
         </is>
       </c>
     </row>
@@ -764,62 +764,62 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>22.92%</t>
+          <t>22.55%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-23.55%</t>
+          <t>-25.39%</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-10.88%</t>
+          <t>-12.50%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-27.00%</t>
+          <t>-24.08%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>25.30%</t>
+          <t>19.27%</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-15.35%</t>
+          <t>-18.65%</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>36.58%</t>
+          <t>33.22%</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
+          <t>9.23%</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>-38.16%</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>1.67%</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
           <t>12.57%</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>-35.96%</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>-5.41%</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>15.04%</t>
-        </is>
-      </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>68.52%</t>
+          <t>57.23%</t>
         </is>
       </c>
     </row>
@@ -961,62 +961,62 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>289272231.14</t>
+          <t>292121224.52</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>459349.27</t>
+          <t>475564.14</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>125317.64</t>
+          <t>140277.14</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>26740971.00</t>
+          <t>26347073.05</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>288771625.82</t>
+          <t>337068150.19</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>449364630.95</t>
+          <t>493939611.71</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>305305637.23</t>
+          <t>324777895.10</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>112993308.68</t>
+          <t>118939405.48</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>8665163.68</t>
+          <t>9572752.52</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>40097091.27</t>
+          <t>38671696.52</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>82188377.09</t>
+          <t>85108173.29</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>53770018.95</t>
+          <t>57239998.24</t>
         </is>
       </c>
     </row>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2.827</t>
+          <t>2.848</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1043,22 +1043,22 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.139</t>
+          <t>0.141</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.414</t>
+          <t>3.289</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2.817</t>
+          <t>2.726</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>3.915</t>
+          <t>3.870</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1073,17 +1073,17 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>0.193</t>
+          <t>0.201</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>0.929</t>
+          <t>0.940</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>0.244</t>
+          <t>0.234</t>
         </is>
       </c>
     </row>
@@ -1095,7 +1095,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>247</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1105,52 +1105,52 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>63</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>408</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1084</t>
+          <t>939</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>705</t>
+          <t>592</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>309</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>159</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>138</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>336</t>
+          <t>281</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>543</t>
+          <t>383</t>
         </is>
       </c>
     </row>
@@ -1162,50 +1162,50 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>6.86%</t>
+          <t>6.84%</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.64%</t>
+          <t>0.61%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.14%</t>
+          <t>2.25%</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>11.48%</t>
+          <t>11.98%</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>7.79%</t>
+          <t>7.95%</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>10.65%</t>
+          <t>10.96%</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>12.60%</t>
+          <t>11.90%</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>17.47%</t>
+          <t>17.63%</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2.44%</t>
+          <t>2.68%</t>
         </is>
       </c>
     </row>
@@ -1217,62 +1217,62 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>14.70</t>
+          <t>14.73</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-0.28</t>
+          <t>-0.27</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>-4.07</t>
+          <t>-3.92</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1616.38</t>
+          <t>1681.40</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>15.32</t>
+          <t>14.61</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>4.83</t>
+          <t>4.63</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>8.90</t>
+          <t>8.72</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>8.06</t>
+          <t>7.84</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>-0.19</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>5.42</t>
+          <t>5.74</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>4.28</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>5.21</t>
+          <t>4.75</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>-29.72</t>
+          <t>-29.79</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1299,17 +1299,17 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-15.85</t>
+          <t>-16.49</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>-0.16</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>-0.26</t>
+          <t>-0.28</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1351,42 +1351,42 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2.51</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>5.97</t>
+          <t>5.81</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1396,7 +1396,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1406,7 +1406,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.38</t>
         </is>
       </c>
     </row>
@@ -1418,27 +1418,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>5.88</t>
+          <t>6.37</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>-2.94</t>
+          <t>-2.81</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>8.96</t>
+          <t>9.05</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>9.00</t>
+          <t>9.60</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>8.78</t>
+          <t>8.18</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -1446,18 +1446,18 @@
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>12.92</t>
+          <t>12.88</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>8.68</t>
+          <t>9.26</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>5.71</t>
+          <t>5.83</t>
         </is>
       </c>
     </row>
@@ -1474,57 +1474,57 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>-2.32</t>
+          <t>-2.30</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>18.52</t>
+          <t>18.16</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>16.49</t>
+          <t>16.73</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>11.42</t>
+          <t>10.92</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>6.42</t>
+          <t>6.15</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>8.43</t>
+          <t>8.26</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>7.19</t>
+          <t>7.01</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>-15.00</t>
+          <t>-14.96</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>5.23</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>4.64</t>
+          <t>4.63</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>7.43</t>
+          <t>7.11</t>
         </is>
       </c>
     </row>
@@ -1536,27 +1536,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>6.39</t>
+          <t>6.94</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-0.46</t>
+          <t>-0.42</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>4.61</t>
+          <t>4.57</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>8.74</t>
+          <t>8.12</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
@@ -1564,18 +1564,18 @@
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>5.81</t>
+          <t>6.16</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>2.69</t>
         </is>
       </c>
     </row>
@@ -1587,62 +1587,62 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>9.37</t>
+          <t>9.39</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>-0.36</t>
+          <t>-0.34</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>9.53</t>
+          <t>9.16</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>5.27</t>
+          <t>5.48</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>11.36</t>
+          <t>10.84</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>6.42</t>
+          <t>6.15</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>9.07</t>
+          <t>8.88</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>7.19</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>-0.62</t>
+          <t>-0.58</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>5.72</t>
+          <t>6.06</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>3.28</t>
         </is>
       </c>
     </row>
@@ -1731,17 +1731,17 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1756,7 +1756,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>3.76</t>
+          <t>3.66</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1766,7 +1766,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1776,7 +1776,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.19</t>
         </is>
       </c>
     </row>
@@ -1855,37 +1855,37 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>6.74</t>
+          <t>6.42</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -1897,12 +1897,12 @@
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>0.72</t>
         </is>
       </c>
     </row>
@@ -1914,42 +1914,42 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>50.42</t>
+          <t>50.53</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>-31.60</t>
+          <t>-30.05</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>-1.80</t>
+          <t>-1.73</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>8.49</t>
+          <t>8.09</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>14.92</t>
+          <t>14.50</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1959,17 +1959,17 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>10.73</t>
+          <t>11.37</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>34.54</t>
+          <t>34.25</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>3.93</t>
+          <t>3.58</t>
         </is>
       </c>
     </row>
@@ -1981,27 +1981,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>-2.04</t>
+          <t>-2.05</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>-0.22</t>
+          <t>-0.21</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>-0.46</t>
+          <t>-0.44</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>-0.23</t>
+          <t>-0.24</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>-2.40</t>
+          <t>-2.29</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -2016,7 +2016,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>-6.49</t>
+          <t>-6.31</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2026,17 +2026,17 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>-0.78</t>
+          <t>-0.83</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>-0.62</t>
+          <t>-0.61</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>-0.26</t>
+          <t>-0.24</t>
         </is>
       </c>
     </row>
@@ -2103,22 +2103,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>-0.51</t>
+          <t>-0.56</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>-2.48</t>
+          <t>-2.39</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>6.12</t>
+          <t>6.44</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2137,12 +2137,12 @@
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>2.18</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>2.94</t>
+          <t>3.14</t>
         </is>
       </c>
     </row>
@@ -2469,27 +2469,27 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>36.21%</t>
+          <t>33.41%</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>-50.15%</t>
+          <t>-52.14%</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>10.16%</t>
+          <t>9.86%</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>33.99%</t>
+          <t>32.32%</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>77.09%</t>
+          <t>79.14%</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
@@ -2503,12 +2503,12 @@
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
         <is>
-          <t>12.70%</t>
+          <t>11.89%</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>28.48%</t>
+          <t>26.73%</t>
         </is>
       </c>
     </row>
@@ -3374,62 +3374,62 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>212151657656</t>
+          <t>212309274043</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>278298478</t>
+          <t>265253237</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>672627416</t>
+          <t>646954614</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>9400882867</t>
+          <t>9842041616</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>72519705000</t>
+          <t>69307140000</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>119144039692</t>
+          <t>114100905736</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>157326642950</t>
+          <t>154202235345</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>69660000000</t>
+          <t>67900000000</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>301425780</t>
+          <t>280506641</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>6186725826</t>
+          <t>6493514993</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>34238786744</t>
+          <t>34191117126</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>5123134953</t>
+          <t>4672749463</t>
         </is>
       </c>
     </row>
@@ -3441,62 +3441,62 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>195059566656</t>
+          <t>195217183043</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>1785250478</t>
+          <t>1772205237</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1307824416</t>
+          <t>1282151614</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>29400170867</t>
+          <t>29841329616</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>72882396000</t>
+          <t>69669831000</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>119144039692</t>
+          <t>114100905736</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>157326642950</t>
+          <t>154202235345</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>69660000000</t>
+          <t>67900000000</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>7260425780</t>
+          <t>7239506641</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>5475524826</t>
+          <t>5782313993</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>44780900744</t>
+          <t>44733231126</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>10575221953</t>
+          <t>10124836463</t>
         </is>
       </c>
     </row>

--- a/stocks_data.xlsx
+++ b/stocks_data.xlsx
@@ -508,7 +508,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>13.50</t>
+          <t>13.49</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -523,47 +523,47 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>9.30</t>
+          <t>9.73</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>13.12</t>
+          <t>13.14</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>19.90</t>
+          <t>20.02</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>15.64</t>
+          <t>15.61</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>33.88</t>
+          <t>33.63</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>17.04</t>
+          <t>16.89</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>10.39</t>
+          <t>10.51</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>2.60</t>
         </is>
       </c>
     </row>
@@ -716,7 +716,7 @@
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -726,33 +726,33 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>11.98</t>
+          <t>11.91</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>7.96</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>10.96</t>
+          <t>11.03</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>11.90</t>
+          <t>12.04</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>17.63</t>
+          <t>17.41</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>2.56</t>
         </is>
       </c>
     </row>
@@ -764,62 +764,62 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>22.55%</t>
+          <t>21.97%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-25.39%</t>
+          <t>-24.16%</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-12.50%</t>
+          <t>-11.89%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-24.08%</t>
+          <t>-18.65%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>19.27%</t>
+          <t>22.57%</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-18.65%</t>
+          <t>-17.82%</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>33.22%</t>
+          <t>35.21%</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>9.23%</t>
+          <t>8.89%</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>-38.16%</t>
+          <t>-36.83%</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>1.67%</t>
+          <t>1.69%</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>12.57%</t>
+          <t>14.60%</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>57.23%</t>
+          <t>70.59%</t>
         </is>
       </c>
     </row>
@@ -961,62 +961,62 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>292121224.52</t>
+          <t>288831678.30</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>475564.14</t>
+          <t>463992.04</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>140277.14</t>
+          <t>138583.65</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>26347073.05</t>
+          <t>28964369.04</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>337068150.19</t>
+          <t>329638379.61</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>493939611.71</t>
+          <t>504003213.87</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>324777895.10</t>
+          <t>327713334.17</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>118939405.48</t>
+          <t>125999903.57</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>9572752.52</t>
+          <t>9786256.57</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>38671696.52</t>
+          <t>41541173.35</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>85108173.29</t>
+          <t>86467967.43</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>57239998.24</t>
+          <t>59479929.35</t>
         </is>
       </c>
     </row>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2.848</t>
+          <t>2.858</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1043,27 +1043,27 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.141</t>
+          <t>0.151</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.289</t>
+          <t>3.332</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2.726</t>
+          <t>2.749</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>3.870</t>
+          <t>3.885</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1.061</t>
+          <t>1.030</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1073,17 +1073,17 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>0.201</t>
+          <t>0.204</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>0.940</t>
+          <t>0.941</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>0.234</t>
+          <t>0.237</t>
         </is>
       </c>
     </row>
@@ -1095,7 +1095,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>259</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1110,47 +1110,47 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>66</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>408</t>
+          <t>421</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>939</t>
+          <t>968</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>592</t>
+          <t>610</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>326</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>171</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>148</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>288</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>383</t>
+          <t>407</t>
         </is>
       </c>
     </row>
@@ -1169,7 +1169,7 @@
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.61%</t>
+          <t>0.59%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1179,33 +1179,33 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>11.98%</t>
+          <t>11.91%</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>7.95%</t>
+          <t>7.96%</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>10.96%</t>
+          <t>11.03%</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>11.90%</t>
+          <t>12.04%</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>17.63%</t>
+          <t>17.41%</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2.68%</t>
+          <t>2.56%</t>
         </is>
       </c>
     </row>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>14.73</t>
+          <t>14.74</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1227,32 +1227,32 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>-3.92</t>
+          <t>-3.89</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1681.40</t>
+          <t>1759.06</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>14.61</t>
+          <t>14.62</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>4.63</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>8.72</t>
+          <t>8.71</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>7.84</t>
+          <t>7.79</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1262,17 +1262,17 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>5.74</t>
+          <t>5.67</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>4.98</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>-29.79</t>
+          <t>-29.81</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-16.49</t>
+          <t>-17.25</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>-0.28</t>
+          <t>-0.27</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1356,17 +1356,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1386,7 +1386,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>5.81</t>
+          <t>5.77</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1396,17 +1396,17 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.39</t>
         </is>
       </c>
     </row>
@@ -1418,7 +1418,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>6.37</t>
+          <t>6.39</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1433,12 +1433,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>9.60</t>
+          <t>9.72</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>8.18</t>
+          <t>8.20</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -1446,18 +1446,18 @@
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>12.88</t>
+          <t>12.90</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>9.26</t>
+          <t>9.29</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>5.83</t>
+          <t>5.96</t>
         </is>
       </c>
     </row>
@@ -1469,7 +1469,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>8.62</t>
+          <t>8.64</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1484,47 +1484,47 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>16.73</t>
+          <t>16.95</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>10.92</t>
+          <t>10.95</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>6.15</t>
+          <t>6.19</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>8.26</t>
+          <t>8.25</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>7.01</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>-14.96</t>
+          <t>-14.98</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>5.23</t>
+          <t>5.16</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>4.63</t>
+          <t>4.64</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>7.11</t>
+          <t>7.27</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>6.94</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1546,12 +1546,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>4.53</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1564,18 +1564,18 @@
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>6.16</t>
+          <t>6.23</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>2.82</t>
         </is>
       </c>
     </row>
@@ -1587,7 +1587,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>9.39</t>
+          <t>9.40</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1597,12 +1597,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>9.16</t>
+          <t>9.09</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>5.48</t>
+          <t>5.74</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1612,7 +1612,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>6.15</t>
+          <t>6.18</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1622,27 +1622,27 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>-0.58</t>
+          <t>-0.61</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>6.06</t>
+          <t>5.99</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>3.44</t>
         </is>
       </c>
     </row>
@@ -1731,12 +1731,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1756,7 +1756,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>3.66</t>
+          <t>3.63</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1766,7 +1766,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1776,7 +1776,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.20</t>
         </is>
       </c>
     </row>
@@ -1870,12 +1870,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>6.42</t>
+          <t>6.43</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1897,12 +1897,12 @@
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.75</t>
         </is>
       </c>
     </row>
@@ -1914,32 +1914,32 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>50.53</t>
+          <t>50.57</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>-30.05</t>
+          <t>-30.12</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>-1.73</t>
+          <t>-1.72</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>8.09</t>
+          <t>8.10</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1949,7 +1949,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>14.50</t>
+          <t>14.41</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1959,17 +1959,17 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>11.37</t>
+          <t>11.23</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>34.25</t>
+          <t>34.68</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>3.76</t>
         </is>
       </c>
     </row>
@@ -1996,7 +1996,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>-0.24</t>
+          <t>-0.25</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2016,7 +2016,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>-6.31</t>
+          <t>-6.27</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2026,17 +2026,17 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>-0.83</t>
+          <t>-0.82</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>-0.61</t>
+          <t>-0.62</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>-0.24</t>
+          <t>-0.25</t>
         </is>
       </c>
     </row>
@@ -3374,62 +3374,62 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>212309274043</t>
+          <t>211678808493</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>265253237</t>
+          <t>262768429</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>646954614</t>
+          <t>667492856</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>9842041616</t>
+          <t>10136147449</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>69307140000</t>
+          <t>69096480000</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>114100905736</t>
+          <t>114272830758</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>154202235345</t>
+          <t>154255274053</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>67900000000</t>
+          <t>67120000000</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>280506641</t>
+          <t>293818821</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>6493514993</t>
+          <t>6388005101</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>34191117126</t>
+          <t>34162499307</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>4672749463</t>
+          <t>4860410084</t>
         </is>
       </c>
     </row>
@@ -3441,62 +3441,62 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>195217183043</t>
+          <t>194586717493</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>1772205237</t>
+          <t>1769720429</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1282151614</t>
+          <t>1302689856</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>29841329616</t>
+          <t>30135435449</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>69669831000</t>
+          <t>69459171000</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>114100905736</t>
+          <t>114272830758</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>154202235345</t>
+          <t>154255274053</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>67900000000</t>
+          <t>67120000000</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>7239506641</t>
+          <t>7252818821</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>5782313993</t>
+          <t>5676804101</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>44733231126</t>
+          <t>44704613307</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>10124836463</t>
+          <t>10312497084</t>
         </is>
       </c>
     </row>

--- a/stocks_data.xlsx
+++ b/stocks_data.xlsx
@@ -508,12 +508,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>13.49</t>
+          <t>13.06</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>4.27</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -523,42 +523,42 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>9.73</t>
+          <t>9.36</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>13.14</t>
+          <t>12.74</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>20.02</t>
+          <t>19.97</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>15.61</t>
+          <t>15.44</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>33.63</t>
+          <t>33.60</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>16.89</t>
+          <t>16.21</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>10.51</t>
+          <t>10.39</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -610,7 +610,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>30.94</t>
+          <t>31.39</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -625,7 +625,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>9.18</t>
+          <t>9.23</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -709,50 +709,50 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>6.84</t>
+          <t>7.07</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>11.91</t>
+          <t>11.95</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>7.96</t>
+          <t>8.06</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>11.03</t>
+          <t>11.04</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>12.04</t>
+          <t>12.51</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>17.41</t>
+          <t>17.63</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>2.57</t>
         </is>
       </c>
     </row>
@@ -764,12 +764,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>21.97%</t>
+          <t>18.40%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-24.16%</t>
+          <t>-23.65%</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -779,47 +779,47 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-18.65%</t>
+          <t>-21.08%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>22.57%</t>
+          <t>19.40%</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-17.82%</t>
+          <t>-18.82%</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>35.21%</t>
+          <t>31.97%</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>8.89%</t>
+          <t>6.80%</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>-36.83%</t>
+          <t>-36.01%</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>1.69%</t>
+          <t>-2.29%</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>14.60%</t>
+          <t>10.18%</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>70.59%</t>
+          <t>71.05%</t>
         </is>
       </c>
     </row>
@@ -961,62 +961,62 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>288831678.30</t>
+          <t>250821220.81</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>463992.04</t>
+          <t>348948.33</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>138583.65</t>
+          <t>129568.62</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>28964369.04</t>
+          <t>26862091.71</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>329638379.61</t>
+          <t>323765427.57</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>504003213.87</t>
+          <t>537023819.95</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>327713334.17</t>
+          <t>325338266.29</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>125999903.57</t>
+          <t>124231218.48</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>9786256.57</t>
+          <t>9570147.10</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>41541173.35</t>
+          <t>40033009.62</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>86467967.43</t>
+          <t>81250210.95</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>59479929.35</t>
+          <t>57449418.62</t>
         </is>
       </c>
     </row>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2.858</t>
+          <t>2.873</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1048,22 +1048,22 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.332</t>
+          <t>3.298</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2.749</t>
+          <t>2.792</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>3.885</t>
+          <t>3.860</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1.030</t>
+          <t>1.037</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1073,17 +1073,17 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>0.204</t>
+          <t>0.201</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>0.941</t>
+          <t>0.945</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>0.237</t>
+          <t>0.242</t>
         </is>
       </c>
     </row>
@@ -1095,7 +1095,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>261</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1115,42 +1115,42 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>421</t>
+          <t>416</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>968</t>
+          <t>946</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>610</t>
+          <t>593</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>328</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>169</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>150</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>295</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>407</t>
+          <t>397</t>
         </is>
       </c>
     </row>
@@ -1162,50 +1162,50 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>6.84%</t>
+          <t>7.07%</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.59%</t>
+          <t>0.61%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.25%</t>
+          <t>2.32%</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>11.91%</t>
+          <t>11.95%</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>7.96%</t>
+          <t>8.06%</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>11.03%</t>
+          <t>11.04%</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>12.04%</t>
+          <t>12.51%</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>17.41%</t>
+          <t>17.63%</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2.56%</t>
+          <t>2.57%</t>
         </is>
       </c>
     </row>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>14.74</t>
+          <t>14.26</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1227,32 +1227,32 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>-3.89</t>
+          <t>-3.92</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1759.06</t>
+          <t>1690.43</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>14.62</t>
+          <t>14.18</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>4.64</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>8.71</t>
+          <t>8.60</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>7.79</t>
+          <t>7.77</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1262,17 +1262,17 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>5.67</t>
+          <t>5.46</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>4.98</t>
+          <t>4.96</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>-29.81</t>
+          <t>-28.84</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1299,12 +1299,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-17.25</t>
+          <t>-16.58</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>-0.27</t>
+          <t>-0.26</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1351,27 +1351,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>2.25</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>2.39</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>3.57</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1381,12 +1381,12 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>5.77</t>
+          <t>5.76</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1396,12 +1396,12 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -1418,27 +1418,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>6.39</t>
+          <t>5.69</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>-2.81</t>
+          <t>-2.96</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>9.05</t>
+          <t>8.78</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>9.72</t>
+          <t>9.13</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>8.20</t>
+          <t>8.13</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -1446,18 +1446,18 @@
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>12.90</t>
+          <t>12.88</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>9.29</t>
+          <t>8.64</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>5.96</t>
+          <t>5.58</t>
         </is>
       </c>
     </row>
@@ -1469,7 +1469,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>8.64</t>
+          <t>8.34</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1484,47 +1484,47 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>16.95</t>
+          <t>16.73</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>10.95</t>
+          <t>10.57</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>6.19</t>
+          <t>6.17</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>8.25</t>
+          <t>8.15</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>6.94</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>-14.98</t>
+          <t>-14.96</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>5.16</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>4.64</t>
+          <t>4.61</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>7.27</t>
+          <t>7.26</t>
         </is>
       </c>
     </row>
@@ -1536,27 +1536,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>6.20</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-0.42</t>
+          <t>-0.44</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>4.53</t>
+          <t>4.43</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>3.01</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>8.12</t>
+          <t>8.09</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
@@ -1564,18 +1564,18 @@
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>6.23</t>
+          <t>5.76</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2.82</t>
+          <t>2.64</t>
         </is>
       </c>
     </row>
@@ -1587,7 +1587,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>9.40</t>
+          <t>9.09</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1597,52 +1597,52 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>9.09</t>
+          <t>9.16</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>5.74</t>
+          <t>5.51</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>10.84</t>
+          <t>10.51</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>6.18</t>
+          <t>6.17</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>8.88</t>
+          <t>8.76</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>6.94</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>-0.61</t>
+          <t>-0.58</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>5.99</t>
+          <t>5.76</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>3.44</t>
+          <t>3.43</t>
         </is>
       </c>
     </row>
@@ -1721,27 +1721,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1766,7 +1766,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1855,7 +1855,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1870,12 +1870,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>6.43</t>
+          <t>6.23</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1885,7 +1885,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -1897,7 +1897,7 @@
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -1914,42 +1914,42 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>50.57</t>
+          <t>48.92</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>-30.12</t>
+          <t>-29.84</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>-1.72</t>
+          <t>-1.73</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2.97</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>8.10</t>
+          <t>7.85</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>14.41</t>
+          <t>14.39</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1959,17 +1959,17 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>11.23</t>
+          <t>10.81</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>34.68</t>
+          <t>34.25</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>3.76</t>
+          <t>3.74</t>
         </is>
       </c>
     </row>
@@ -1981,12 +1981,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>-2.05</t>
+          <t>-1.98</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>-0.21</t>
+          <t>-0.20</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1996,12 +1996,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>-0.25</t>
+          <t>-0.24</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>-2.29</t>
+          <t>-2.22</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -2016,7 +2016,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>-6.27</t>
+          <t>-6.26</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2026,12 +2026,12 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>-0.82</t>
+          <t>-0.79</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>-0.62</t>
+          <t>-0.61</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -2103,22 +2103,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>-0.56</t>
+          <t>-0.51</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>-2.39</t>
+          <t>-2.52</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>6.44</t>
+          <t>6.12</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2137,12 +2137,12 @@
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
-          <t>2.18</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>2.94</t>
         </is>
       </c>
     </row>
@@ -2469,27 +2469,27 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>33.41%</t>
+          <t>36.21%</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>-52.14%</t>
+          <t>-49.41%</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>9.86%</t>
+          <t>10.16%</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>32.32%</t>
+          <t>33.99%</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>79.14%</t>
+          <t>77.09%</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
@@ -2503,12 +2503,12 @@
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
         <is>
-          <t>11.89%</t>
+          <t>12.70%</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>26.73%</t>
+          <t>28.48%</t>
         </is>
       </c>
     </row>
@@ -3374,7 +3374,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>211678808493</t>
+          <t>205847002153</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -3384,52 +3384,52 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>667492856</t>
+          <t>646954614</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10136147449</t>
+          <t>9831537837</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>69096480000</t>
+          <t>67095210000</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>114272830758</t>
+          <t>114444755779</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>154255274053</t>
+          <t>152084304825</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>67120000000</t>
+          <t>67200000000</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>293818821</t>
+          <t>280506641</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>6388005101</t>
+          <t>6183049888</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>34162499307</t>
+          <t>34009924431</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>4860410084</t>
+          <t>4879176146</t>
         </is>
       </c>
     </row>
@@ -3441,7 +3441,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>194586717493</t>
+          <t>188754911153</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -3451,52 +3451,52 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1302689856</t>
+          <t>1282151614</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>30135435449</t>
+          <t>29830825837</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>69459171000</t>
+          <t>67457901000</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>114272830758</t>
+          <t>114444755779</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>154255274053</t>
+          <t>152084304825</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>67120000000</t>
+          <t>67200000000</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>7252818821</t>
+          <t>7239506641</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>5676804101</t>
+          <t>5471848888</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>44704613307</t>
+          <t>44552038431</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>10312497084</t>
+          <t>10331263146</t>
         </is>
       </c>
     </row>

--- a/stocks_data.xlsx
+++ b/stocks_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M52"/>
+  <dimension ref="A1:N52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,6 +499,11 @@
           <t>COGN3</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>WEGE3</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -566,6 +571,11 @@
           <t>2.60</t>
         </is>
       </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>36.76</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -633,6 +643,11 @@
           <t>0.96</t>
         </is>
       </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>36.19</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -698,6 +713,11 @@
       <c r="M4" t="inlineStr">
         <is>
           <t>3.15</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>58.03</t>
         </is>
       </c>
     </row>
@@ -755,6 +775,11 @@
           <t>2.57</t>
         </is>
       </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -764,12 +789,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>18.40%</t>
+          <t>20.15%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-23.65%</t>
+          <t>-22.39%</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -779,47 +804,52 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-21.08%</t>
+          <t>-20.41%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>19.40%</t>
+          <t>20.42%</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-18.82%</t>
+          <t>-18.22%</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>31.97%</t>
+          <t>32.99%</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>6.80%</t>
+          <t>5.89%</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>-36.01%</t>
+          <t>-35.45%</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>-2.29%</t>
+          <t>-0.92%</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>10.18%</t>
+          <t>10.77%</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>71.05%</t>
+          <t>76.87%</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>-18.73%</t>
         </is>
       </c>
     </row>
@@ -889,6 +919,11 @@
           <t>ON</t>
         </is>
       </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -952,6 +987,11 @@
           <t>100 %</t>
         </is>
       </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -961,62 +1001,67 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>250821220.81</t>
+          <t>269273291.62</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>348948.33</t>
+          <t>343546.19</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>129568.62</t>
+          <t>126599.90</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>26862091.71</t>
+          <t>26331929.52</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>323765427.57</t>
+          <t>323800884.24</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>537023819.95</t>
+          <t>531917705.62</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>325338266.29</t>
+          <t>320536439.95</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>124231218.48</t>
+          <t>129082517.00</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>9570147.10</t>
+          <t>9429612.81</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>40033009.62</t>
+          <t>39164362.67</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>81250210.95</t>
+          <t>81082827.86</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>57449418.62</t>
+          <t>56107575.43</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>401138236.33</t>
         </is>
       </c>
     </row>
@@ -1028,7 +1073,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2.873</t>
+          <t>2.815</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1043,27 +1088,27 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.151</t>
+          <t>0.148</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.298</t>
+          <t>3.238</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2.792</t>
+          <t>2.779</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>3.860</t>
+          <t>3.870</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1.037</t>
+          <t>1.049</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1073,7 +1118,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>0.201</t>
+          <t>0.200</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1083,7 +1128,12 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>0.242</t>
+          <t>0.241</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2.669</t>
         </is>
       </c>
     </row>
@@ -1095,7 +1145,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>272</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1115,42 +1165,47 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>416</t>
+          <t>433</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>946</t>
+          <t>962</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>593</t>
+          <t>610</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>330</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>170</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>151</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>300</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>402</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>625</t>
         </is>
       </c>
     </row>
@@ -1208,6 +1263,11 @@
           <t>2.57%</t>
         </is>
       </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>2.68%</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1275,6 +1335,11 @@
           <t>4.96</t>
         </is>
       </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>24.07</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1342,6 +1407,11 @@
           <t>-0.02</t>
         </is>
       </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1409,6 +1479,11 @@
           <t>0.39</t>
         </is>
       </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1418,27 +1493,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>5.69</t>
+          <t>6.16</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>-2.96</t>
+          <t>-2.80</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>8.78</t>
+          <t>9.05</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>9.13</t>
+          <t>9.60</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>8.13</t>
+          <t>7.92</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -1452,12 +1527,17 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>8.64</t>
+          <t>9.23</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>5.58</t>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>32.69</t>
         </is>
       </c>
     </row>
@@ -1527,6 +1607,11 @@
           <t>7.26</t>
         </is>
       </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>18.62</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1536,27 +1621,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>6.20</t>
+          <t>6.72</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-0.44</t>
+          <t>-0.42</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>4.57</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3.01</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>8.09</t>
+          <t>7.88</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
@@ -1570,12 +1655,17 @@
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>5.76</t>
+          <t>6.16</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>33.35</t>
         </is>
       </c>
     </row>
@@ -1645,6 +1735,11 @@
           <t>3.43</t>
         </is>
       </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>19.00</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1712,6 +1807,11 @@
           <t>6.63</t>
         </is>
       </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1779,6 +1879,11 @@
           <t>0.20</t>
         </is>
       </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1846,6 +1951,11 @@
           <t>0.52</t>
         </is>
       </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1905,6 +2015,11 @@
           <t>0.75</t>
         </is>
       </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1972,6 +2087,11 @@
           <t>3.74</t>
         </is>
       </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>13.97</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -2037,6 +2157,11 @@
       <c r="M25" t="inlineStr">
         <is>
           <t>-0.25</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>-10.61</t>
         </is>
       </c>
     </row>
@@ -2094,6 +2219,11 @@
           <t>0.44</t>
         </is>
       </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>-0.14</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -2103,22 +2233,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>-0.51</t>
+          <t>-0.56</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>-2.52</t>
+          <t>-2.39</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>6.12</t>
+          <t>6.44</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2137,12 +2267,17 @@
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>2.18</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>2.94</t>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>-0.67</t>
         </is>
       </c>
     </row>
@@ -2200,6 +2335,11 @@
           <t>3.83</t>
         </is>
       </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>-0.38</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -2267,6 +2407,11 @@
           <t>0.51</t>
         </is>
       </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -2334,6 +2479,11 @@
           <t>0.44</t>
         </is>
       </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -2401,6 +2551,11 @@
           <t>1.38</t>
         </is>
       </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -2460,6 +2615,11 @@
           <t>67.94%</t>
         </is>
       </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>33.61%</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -2469,27 +2629,27 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>36.21%</t>
+          <t>33.41%</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>-49.41%</t>
+          <t>-52.14%</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>10.16%</t>
+          <t>9.86%</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>33.99%</t>
+          <t>32.32%</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>77.09%</t>
+          <t>79.14%</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
@@ -2503,12 +2663,17 @@
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
         <is>
-          <t>12.70%</t>
+          <t>11.89%</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>28.48%</t>
+          <t>26.73%</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>11.29%</t>
         </is>
       </c>
     </row>
@@ -2570,6 +2735,11 @@
           <t>21.89%</t>
         </is>
       </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>19.82%</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -2629,6 +2799,11 @@
           <t>15.13%</t>
         </is>
       </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>15.65%</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -2696,6 +2871,11 @@
           <t>7.90%</t>
         </is>
       </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>28.86%</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -2761,6 +2941,11 @@
       <c r="M37" t="inlineStr">
         <is>
           <t>4.06%</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>16.09%</t>
         </is>
       </c>
     </row>
@@ -2818,6 +3003,11 @@
           <t>5.34%</t>
         </is>
       </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>25.60%</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -2885,6 +3075,11 @@
           <t>0.27</t>
         </is>
       </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -2938,6 +3133,11 @@
       <c r="M40" t="inlineStr">
         <is>
           <t>-1.88%</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>23.27%</t>
         </is>
       </c>
     </row>
@@ -2987,6 +3187,11 @@
           <t>33.12%</t>
         </is>
       </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>31.76%</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -3054,6 +3259,11 @@
           <t>12444512000</t>
         </is>
       </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>22215931000</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -3121,6 +3331,11 @@
           <t>24203940000</t>
         </is>
       </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>39836839000</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -3186,6 +3401,11 @@
       <c r="M44" t="inlineStr">
         <is>
           <t>4711693000</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>25299344000</t>
         </is>
       </c>
     </row>
@@ -3243,6 +3463,11 @@
           <t>6873792000</t>
         </is>
       </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>2584148000</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -3308,6 +3533,11 @@
       <c r="M46" t="inlineStr">
         <is>
           <t>1421705000</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>5668597000</t>
         </is>
       </c>
     </row>
@@ -3365,6 +3595,11 @@
           <t>5452087000</t>
         </is>
       </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>-3084449000</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -3432,6 +3667,11 @@
           <t>4879176146</t>
         </is>
       </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>154293409606</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -3499,6 +3739,11 @@
           <t>10331263146</t>
         </is>
       </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>151208960606</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -3567,6 +3812,11 @@
           <t>1876606210</t>
         </is>
       </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>4197317998</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -3630,6 +3880,11 @@
           <t>Novo Mercado</t>
         </is>
       </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>Novo Mercado</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -3695,6 +3950,11 @@
       <c r="M52" t="inlineStr">
         <is>
           <t>96.50%</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>35.40%</t>
         </is>
       </c>
     </row>

--- a/stocks_data.xlsx
+++ b/stocks_data.xlsx
@@ -513,67 +513,67 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>13.06</t>
+          <t>13.20</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>9.36</t>
+          <t>9.21</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>12.74</t>
+          <t>12.68</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>19.97</t>
+          <t>19.93</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>15.44</t>
+          <t>15.41</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>33.60</t>
+          <t>33.72</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>2.94</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>16.21</t>
+          <t>16.20</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>10.39</t>
+          <t>10.46</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>36.76</t>
+          <t>36.53</t>
         </is>
       </c>
     </row>
@@ -729,55 +729,55 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>7.07</t>
+          <t>6.99</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>11.95</t>
+          <t>11.97</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>8.06</t>
+          <t>8.07</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>11.04</t>
+          <t>11.01</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>12.51</t>
+          <t>12.52</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>17.63</t>
+          <t>17.51</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>2.51</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>2.70</t>
         </is>
       </c>
     </row>
@@ -789,67 +789,67 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>20.15%</t>
+          <t>21.44%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-22.39%</t>
+          <t>-22.02%</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-11.89%</t>
+          <t>-10.49%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-20.41%</t>
+          <t>-21.68%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>20.42%</t>
+          <t>19.85%</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-18.22%</t>
+          <t>-18.39%</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>32.99%</t>
+          <t>32.73%</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>5.89%</t>
+          <t>6.27%</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>-35.45%</t>
+          <t>-35.67%</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>-0.92%</t>
+          <t>-0.98%</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>10.77%</t>
+          <t>11.51%</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>76.87%</t>
+          <t>80.95%</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>-18.73%</t>
+          <t>-19.24%</t>
         </is>
       </c>
     </row>
@@ -1217,55 +1217,55 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>7.07%</t>
+          <t>6.99%</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.61%</t>
+          <t>0.62%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.32%</t>
+          <t>2.33%</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>11.95%</t>
+          <t>11.97%</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>8.06%</t>
+          <t>8.07%</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>11.04%</t>
+          <t>11.01%</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>12.51%</t>
+          <t>12.52%</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>17.63%</t>
+          <t>17.51%</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2.57%</t>
+          <t>2.51%</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>2.68%</t>
+          <t>2.70%</t>
         </is>
       </c>
     </row>
@@ -1277,7 +1277,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>14.26</t>
+          <t>14.42</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1287,32 +1287,32 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>-3.92</t>
+          <t>-3.98</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1690.43</t>
+          <t>1663.34</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>14.18</t>
+          <t>14.11</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>4.64</t>
+          <t>4.63</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>8.60</t>
+          <t>8.58</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>7.77</t>
+          <t>7.80</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1322,22 +1322,22 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>5.46</t>
+          <t>5.45</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>4.27</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>4.96</t>
+          <t>5.08</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>24.07</t>
+          <t>23.92</t>
         </is>
       </c>
     </row>
@@ -1349,7 +1349,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>-28.84</t>
+          <t>-29.15</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1364,7 +1364,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-16.58</t>
+          <t>-16.31</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1409,7 +1409,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>2.38</t>
         </is>
       </c>
     </row>
@@ -1421,27 +1421,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2.18</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3.57</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>5.76</t>
+          <t>5.78</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1466,7 +1466,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1476,12 +1476,12 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>6.90</t>
         </is>
       </c>
     </row>
@@ -1493,7 +1493,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>6.16</t>
+          <t>6.23</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1503,17 +1503,17 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>9.05</t>
+          <t>9.12</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>9.60</t>
+          <t>9.55</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>7.92</t>
+          <t>7.88</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -1527,17 +1527,17 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>9.23</t>
+          <t>9.29</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>5.94</t>
+          <t>6.01</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>32.69</t>
+          <t>32.48</t>
         </is>
       </c>
     </row>
@@ -1549,7 +1549,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>8.34</t>
+          <t>8.44</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1559,32 +1559,32 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>18.16</t>
+          <t>18.30</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>16.73</t>
+          <t>16.64</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>10.57</t>
+          <t>10.52</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>6.17</t>
+          <t>6.15</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>8.15</t>
+          <t>8.13</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>6.94</t>
+          <t>6.96</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1594,22 +1594,22 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>4.94</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>4.61</t>
+          <t>4.64</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>7.26</t>
+          <t>7.34</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>18.62</t>
+          <t>18.50</t>
         </is>
       </c>
     </row>
@@ -1621,7 +1621,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>6.72</t>
+          <t>6.79</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1631,17 +1631,17 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>4.64</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>7.88</t>
+          <t>7.84</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
@@ -1655,17 +1655,17 @@
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>6.16</t>
+          <t>6.20</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>33.35</t>
+          <t>33.15</t>
         </is>
       </c>
     </row>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>9.09</t>
+          <t>9.19</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1687,32 +1687,32 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>9.16</t>
+          <t>9.31</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>5.51</t>
+          <t>5.42</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>10.51</t>
+          <t>10.46</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>6.17</t>
+          <t>6.15</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>8.76</t>
+          <t>8.75</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>6.94</t>
+          <t>6.96</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1727,17 +1727,17 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>19.00</t>
+          <t>18.88</t>
         </is>
       </c>
     </row>
@@ -1821,12 +1821,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1841,7 +1841,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1856,7 +1856,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>3.63</t>
+          <t>3.64</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1876,12 +1876,12 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>3.87</t>
+          <t>3.85</t>
         </is>
       </c>
     </row>
@@ -1965,7 +1965,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1975,17 +1975,17 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>6.23</t>
+          <t>6.20</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -2007,17 +2007,17 @@
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>3.77</t>
+          <t>3.74</t>
         </is>
       </c>
     </row>
@@ -2029,27 +2029,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>48.92</t>
+          <t>49.45</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>-29.84</t>
+          <t>-29.98</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>-1.73</t>
+          <t>-1.76</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>7.85</t>
+          <t>7.81</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -2064,7 +2064,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>14.39</t>
+          <t>14.44</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -2074,22 +2074,22 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>10.81</t>
+          <t>10.80</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>34.25</t>
+          <t>34.48</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>3.83</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>13.97</t>
+          <t>13.88</t>
         </is>
       </c>
     </row>
@@ -2101,17 +2101,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>-1.98</t>
+          <t>-2.01</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>-0.20</t>
+          <t>-0.21</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>-0.44</t>
+          <t>-0.45</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2121,7 +2121,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>-2.22</t>
+          <t>-2.21</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -2136,7 +2136,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>-6.26</t>
+          <t>-6.28</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2151,17 +2151,17 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>-0.61</t>
+          <t>-0.62</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>-0.25</t>
+          <t>-0.26</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>-10.61</t>
+          <t>-10.55</t>
         </is>
       </c>
     </row>
@@ -3609,67 +3609,67 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>205847002153</t>
+          <t>208053631579</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>262768429</t>
+          <t>264010833</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>646954614</t>
+          <t>657223735</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>9831537837</t>
+          <t>9673981141</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>67095210000</t>
+          <t>66779220000</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>114444755779</t>
+          <t>114215522417</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>152084304825</t>
+          <t>151660467049</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>67200000000</t>
+          <t>67440000000</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>280506641</t>
+          <t>279555771</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>6183049888</t>
+          <t>6176359124</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>34009924431</t>
+          <t>34296343336</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>4879176146</t>
+          <t>4991772519</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>154293409606</t>
+          <t>153328026467</t>
         </is>
       </c>
     </row>
@@ -3681,67 +3681,67 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>188754911153</t>
+          <t>190961540579</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>1769720429</t>
+          <t>1770962833</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1282151614</t>
+          <t>1292420735</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>29830825837</t>
+          <t>29673269141</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>67457901000</t>
+          <t>67141911000</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>114444755779</t>
+          <t>114215522417</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>152084304825</t>
+          <t>151660467049</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>67200000000</t>
+          <t>67440000000</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>7239506641</t>
+          <t>7238555771</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>5471848888</t>
+          <t>5465158124</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>44552038431</t>
+          <t>44838457336</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>10331263146</t>
+          <t>10443859519</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>151208960606</t>
+          <t>150243577467</t>
         </is>
       </c>
     </row>

--- a/stocks_data.xlsx
+++ b/stocks_data.xlsx
@@ -513,12 +513,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>13.20</t>
+          <t>13.19</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>4.28</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -528,17 +528,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>9.21</t>
+          <t>9.22</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>12.68</t>
+          <t>12.71</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>19.93</t>
+          <t>19.95</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>10.46</t>
+          <t>10.45</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -573,7 +573,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>36.53</t>
+          <t>36.58</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>6.99</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -741,12 +741,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>11.97</t>
+          <t>11.96</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -767,7 +767,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>17.51</t>
+          <t>17.52</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -789,67 +789,67 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>21.44%</t>
+          <t>22.02%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-22.02%</t>
+          <t>-19.85%</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-10.49%</t>
+          <t>-11.11%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-21.68%</t>
+          <t>-21.86%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>19.85%</t>
+          <t>19.12%</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-18.39%</t>
+          <t>-17.08%</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>32.73%</t>
+          <t>32.39%</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>6.27%</t>
+          <t>5.67%</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>-35.67%</t>
+          <t>-34.23%</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>-0.98%</t>
+          <t>-2.70%</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>11.51%</t>
+          <t>11.53%</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>80.95%</t>
+          <t>79.73%</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>-19.24%</t>
+          <t>-26.81%</t>
         </is>
       </c>
     </row>
@@ -1001,67 +1001,67 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>269273291.62</t>
+          <t>269558947.09</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>343546.19</t>
+          <t>335598.55</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>126599.90</t>
+          <t>126822.77</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>26331929.52</t>
+          <t>26003732.41</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>323800884.24</t>
+          <t>319008981.45</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>531917705.62</t>
+          <t>541568573.86</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>320536439.95</t>
+          <t>325670703.18</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>129082517.00</t>
+          <t>143089814.86</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>9429612.81</t>
+          <t>9292647.36</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>39164362.67</t>
+          <t>38782723.27</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>81082827.86</t>
+          <t>81525387.68</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>56107575.43</t>
+          <t>56774469.36</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>401138236.33</t>
+          <t>407123807.82</t>
         </is>
       </c>
     </row>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2.815</t>
+          <t>2.830</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1088,22 +1088,22 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.148</t>
+          <t>0.146</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.238</t>
+          <t>3.226</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2.779</t>
+          <t>2.768</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>3.870</t>
+          <t>3.845</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1118,22 +1118,22 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>0.200</t>
+          <t>0.198</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>0.945</t>
+          <t>0.948</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>0.241</t>
+          <t>0.243</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>2.669</t>
+          <t>2.647</t>
         </is>
       </c>
     </row>
@@ -1145,7 +1145,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>279</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1160,22 +1160,22 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>67</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>437</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>962</t>
+          <t>980</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>610</t>
+          <t>615</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1185,27 +1185,27 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>174</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>152</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>301</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>406</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>625</t>
+          <t>632</t>
         </is>
       </c>
     </row>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>6.99%</t>
+          <t>7.00%</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -1229,12 +1229,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.33%</t>
+          <t>2.32%</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>11.97%</t>
+          <t>11.96%</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>17.51%</t>
+          <t>17.52%</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1277,7 +1277,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>14.42</t>
+          <t>14.41</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1292,12 +1292,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1663.34</t>
+          <t>1665.15</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>14.11</t>
+          <t>14.14</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1337,7 +1337,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>23.92</t>
+          <t>23.95</t>
         </is>
       </c>
     </row>
@@ -1349,7 +1349,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>-29.15</t>
+          <t>-29.12</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1364,7 +1364,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-16.31</t>
+          <t>-16.33</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1409,7 +1409,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>2.39</t>
         </is>
       </c>
     </row>
@@ -1426,7 +1426,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1441,7 +1441,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1481,7 +1481,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>6.90</t>
+          <t>6.91</t>
         </is>
       </c>
     </row>
@@ -1498,7 +1498,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>-2.80</t>
+          <t>-2.81</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>7.88</t>
+          <t>7.90</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -1527,7 +1527,7 @@
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>9.29</t>
+          <t>9.28</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -1537,7 +1537,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>32.48</t>
+          <t>32.52</t>
         </is>
       </c>
     </row>
@@ -1549,7 +1549,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>8.44</t>
+          <t>8.43</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1564,22 +1564,22 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>16.64</t>
+          <t>16.65</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>10.52</t>
+          <t>10.55</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>6.15</t>
+          <t>6.16</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>8.13</t>
+          <t>8.14</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1594,7 +1594,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>4.94</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>18.50</t>
+          <t>18.53</t>
         </is>
       </c>
     </row>
@@ -1636,12 +1636,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>7.84</t>
+          <t>7.86</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
@@ -1655,7 +1655,7 @@
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>6.20</t>
+          <t>6.19</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -1665,7 +1665,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>33.15</t>
+          <t>33.19</t>
         </is>
       </c>
     </row>
@@ -1677,12 +1677,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>9.19</t>
+          <t>9.18</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>-0.34</t>
+          <t>-0.35</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1692,17 +1692,17 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>5.42</t>
+          <t>5.43</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>10.46</t>
+          <t>10.49</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>6.15</t>
+          <t>6.16</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1737,7 +1737,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>18.88</t>
+          <t>18.91</t>
         </is>
       </c>
     </row>
@@ -1841,7 +1841,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1985,7 +1985,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>6.20</t>
+          <t>6.22</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -2017,7 +2017,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>3.75</t>
         </is>
       </c>
     </row>
@@ -2029,12 +2029,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>49.45</t>
+          <t>49.41</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>-29.98</t>
+          <t>-30.19</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -2044,12 +2044,12 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>7.81</t>
+          <t>7.83</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -2079,7 +2079,7 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>34.48</t>
+          <t>34.45</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>13.88</t>
+          <t>13.90</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>-2.01</t>
+          <t>-2.00</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2121,7 +2121,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>-2.21</t>
+          <t>-2.22</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -2161,7 +2161,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>-10.55</t>
+          <t>-10.56</t>
         </is>
       </c>
     </row>
@@ -3609,12 +3609,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>208053631579</t>
+          <t>207896015192</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>264010833</t>
+          <t>265874439</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -3624,22 +3624,22 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>9673981141</t>
+          <t>9684484920</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>66779220000</t>
+          <t>66937215000</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>114215522417</t>
+          <t>114330139098</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>151660467049</t>
+          <t>151872621880</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3654,12 +3654,12 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>6176359124</t>
+          <t>6186018417</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>34296343336</t>
+          <t>34277291536</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
@@ -3669,7 +3669,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>153328026467</t>
+          <t>153537892367</t>
         </is>
       </c>
     </row>
@@ -3681,12 +3681,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>190961540579</t>
+          <t>190803924192</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>1770962833</t>
+          <t>1772826439</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -3696,22 +3696,22 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>29673269141</t>
+          <t>29683772920</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>67141911000</t>
+          <t>67299906000</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>114215522417</t>
+          <t>114330139098</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>151660467049</t>
+          <t>151872621880</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3726,12 +3726,12 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>5465158124</t>
+          <t>5474817417</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>44838457336</t>
+          <t>44819405536</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
@@ -3741,7 +3741,7 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>150243577467</t>
+          <t>150453443367</t>
         </is>
       </c>
     </row>

--- a/stocks_data.xlsx
+++ b/stocks_data.xlsx
@@ -518,12 +518,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>12.33</t>
+          <t>12.29</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>4.38</t>
+          <t>4.37</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -533,42 +533,42 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>9.60</t>
+          <t>9.65</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>12.45</t>
+          <t>12.59</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18.92</t>
+          <t>18.35</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>15.55</t>
+          <t>15.56</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>33.62</t>
+          <t>33.44</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>15.67</t>
+          <t>15.70</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>10.35</t>
+          <t>10.34</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -578,12 +578,12 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>36.96</t>
+          <t>37.18</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>51.70</t>
+          <t>51.74</t>
         </is>
       </c>
     </row>
@@ -620,7 +620,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>18.91</t>
+          <t>18.35</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>7.48</t>
+          <t>7.51</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -761,43 +761,43 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>12.42</t>
+          <t>13.00</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>8.08</t>
+          <t>8.12</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>11.03</t>
+          <t>11.10</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>12.88</t>
+          <t>12.92</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>17.68</t>
+          <t>17.71</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2.66</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -814,12 +814,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>11.47%</t>
+          <t>11.02%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-17.05%</t>
+          <t>-17.23%</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -829,42 +829,42 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-18.02%</t>
+          <t>-17.59%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>16.57%</t>
+          <t>17.88%</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-20.18%</t>
+          <t>-22.54%</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>31.45%</t>
+          <t>31.20%</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>6.19%</t>
+          <t>5.62%</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>-25.95%</t>
+          <t>-27.14%</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>-2.90%</t>
+          <t>-2.97%</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>12.13%</t>
+          <t>12.03%</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -874,12 +874,12 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>-24.75%</t>
+          <t>-24.34%</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>0.19%</t>
+          <t>0.31%</t>
         </is>
       </c>
     </row>
@@ -1272,7 +1272,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>7.48%</t>
+          <t>7.51%</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -1284,43 +1284,43 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.37%</t>
+          <t>2.35%</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>12.42%</t>
+          <t>13.00%</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>8.08%</t>
+          <t>8.12%</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>11.03%</t>
+          <t>11.10%</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>12.88%</t>
+          <t>12.92%</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>17.68%</t>
+          <t>17.71%</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2.39%</t>
+          <t>2.41%</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>2.66%</t>
+          <t>2.65%</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1337,52 +1337,52 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>13.18</t>
+          <t>13.13</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-0.28</t>
+          <t>-0.27</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>-3.83</t>
+          <t>-3.86</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1735.58</t>
+          <t>1742.80</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>13.89</t>
+          <t>14.01</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>4.26</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>7.90</t>
+          <t>7.86</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>7.79</t>
+          <t>7.74</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>-0.19</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>5.30</t>
+          <t>5.29</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1392,17 +1392,17 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>5.32</t>
+          <t>5.29</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>24.23</t>
+          <t>24.34</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>-68.56</t>
+          <t>-68.60</t>
         </is>
       </c>
     </row>
@@ -1414,7 +1414,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>5.33</t>
+          <t>5.30</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1429,7 +1429,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-17.02</t>
+          <t>-17.09</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>-0.16</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1501,7 +1501,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1511,12 +1511,12 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.53</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1526,7 +1526,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>5.77</t>
+          <t>5.73</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>6.99</t>
+          <t>7.02</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1569,22 +1569,22 @@
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
-          <t>-2.81</t>
+          <t>-2.82</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>8.94</t>
+          <t>8.98</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>9.68</t>
+          <t>9.69</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>7.76</t>
+          <t>7.80</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -1592,7 +1592,7 @@
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>12.91</t>
+          <t>12.90</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
@@ -1603,12 +1603,12 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>6.14</t>
+          <t>6.11</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>32.76</t>
+          <t>33.07</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1625,7 +1625,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>7.79</t>
+          <t>7.85</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1635,22 +1635,22 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>17.94</t>
+          <t>18.01</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>16.87</t>
+          <t>16.89</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>10.36</t>
+          <t>10.41</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>6.06</t>
+          <t>5.67</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1660,17 +1660,17 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>6.99</t>
+          <t>6.94</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>-14.99</t>
+          <t>-14.98</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>4.82</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1680,12 +1680,12 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>7.50</t>
+          <t>7.46</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>18.66</t>
+          <t>18.84</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1708,17 +1708,17 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>4.46</t>
+          <t>4.49</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.26</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>7.72</t>
+          <t>7.78</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
@@ -1726,23 +1726,23 @@
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>6.14</t>
+          <t>6.13</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>3.01</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>33.58</t>
+          <t>33.74</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>8.46</t>
+          <t>8.43</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1769,57 +1769,57 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>8.94</t>
+          <t>9.02</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>5.66</t>
+          <t>5.68</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>10.30</t>
+          <t>10.39</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>5.93</t>
+          <t>5.67</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>8.59</t>
+          <t>8.56</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>6.91</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>-0.61</t>
+          <t>-0.60</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>5.60</t>
+          <t>5.58</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>19.13</t>
+          <t>19.22</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -1913,7 +1913,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1933,12 +1933,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1948,7 +1948,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>3.63</t>
+          <t>3.61</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1968,12 +1968,12 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2087,17 +2087,17 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>6.11</t>
+          <t>6.16</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -2114,12 +2114,12 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2136,42 +2136,42 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>49.62</t>
+          <t>49.42</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>-30.90</t>
+          <t>-30.83</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>-1.69</t>
+          <t>-1.71</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>2.94</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>7.69</t>
+          <t>7.76</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>14.41</t>
+          <t>14.32</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -2181,22 +2181,22 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>10.50</t>
+          <t>10.47</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>34.15</t>
+          <t>34.08</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>4.02</t>
+          <t>3.99</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>14.07</t>
+          <t>14.13</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -2213,7 +2213,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>-1.92</t>
+          <t>-1.91</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2233,12 +2233,12 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>-2.18</t>
+          <t>-2.20</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>-6.27</t>
+          <t>-6.23</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2258,7 +2258,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>-0.77</t>
+          <t>-0.76</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2273,7 +2273,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>-10.69</t>
+          <t>-10.73</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -3824,72 +3824,72 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>193395307536</t>
+          <t>194813855024</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>270222853</t>
+          <t>271465257</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>631550933</t>
+          <t>636685493</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10083628550</t>
+          <t>10115139890</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>65725920000</t>
+          <t>66094575000</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>112438963865</t>
+          <t>105332729655</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>153460951798</t>
+          <t>153620225217</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>67640000000</t>
+          <t>67200000000</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>294769691</t>
+          <t>291917081</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>6020999057</t>
+          <t>6042578762</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>33799873203</t>
+          <t>33761769603</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>5216965264</t>
+          <t>5160667078</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>154629195046</t>
+          <t>156056283166</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>65316957167</t>
+          <t>65418086576</t>
         </is>
       </c>
     </row>
@@ -3901,72 +3901,72 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>179028493536</t>
+          <t>180447041024</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>1777174853</t>
+          <t>1778417257</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1266747933</t>
+          <t>1271882493</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>30082916550</t>
+          <t>30114427890</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>66088611000</t>
+          <t>66457266000</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>112438963865</t>
+          <t>105332729655</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>153460951798</t>
+          <t>153620225217</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>67640000000</t>
+          <t>67200000000</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>7253769691</t>
+          <t>7250917081</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>5309798057</t>
+          <t>5331377762</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>44341987203</t>
+          <t>44303883603</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>10669052264</t>
+          <t>10612754078</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>151544746046</t>
+          <t>152971834166</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>139928700167</t>
+          <t>140029829576</t>
         </is>
       </c>
     </row>

--- a/stocks_data.xlsx
+++ b/stocks_data.xlsx
@@ -533,57 +533,57 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>9.65</t>
+          <t>9.56</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>12.59</t>
+          <t>12.51</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18.35</t>
+          <t>18.42</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>15.56</t>
+          <t>15.50</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>33.44</t>
+          <t>33.43</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>15.70</t>
+          <t>15.74</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>10.34</t>
+          <t>10.31</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>37.18</t>
+          <t>37.01</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>51.74</t>
+          <t>51.64</t>
         </is>
       </c>
     </row>
@@ -620,7 +620,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>18.35</t>
+          <t>18.42</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11.71</t>
+          <t>11.58</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -756,22 +756,22 @@
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>13.00</t>
+          <t>12.95</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>8.12</t>
+          <t>8.03</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -782,27 +782,27 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>12.92</t>
+          <t>12.89</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>17.71</t>
+          <t>17.76</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>3.91</t>
         </is>
       </c>
     </row>
@@ -814,72 +814,72 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>11.02%</t>
+          <t>11.12%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-17.23%</t>
+          <t>-18.01%</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-12.68%</t>
+          <t>-12.06%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-17.59%</t>
+          <t>-17.44%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>17.88%</t>
+          <t>17.13%</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-22.54%</t>
+          <t>-22.38%</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>31.20%</t>
+          <t>21.47%</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>5.62%</t>
+          <t>6.50%</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>-27.14%</t>
+          <t>-32.07%</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>-2.97%</t>
+          <t>-1.93%</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>12.03%</t>
+          <t>11.22%</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>89.73%</t>
+          <t>88.36%</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>-24.34%</t>
+          <t>-23.50%</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>0.31%</t>
+          <t>0.06%</t>
         </is>
       </c>
     </row>
@@ -1041,72 +1041,72 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>288440690.87</t>
+          <t>278627420.17</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>315839.39</t>
+          <t>297980.83</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>126669.78</t>
+          <t>115619.13</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>25948614.78</t>
+          <t>25367505.65</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>304125124.22</t>
+          <t>287260986.13</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>547146402.74</t>
+          <t>523838223.61</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>333842504.91</t>
+          <t>318198701.22</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>162257918.78</t>
+          <t>151649136.43</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>8947834.61</t>
+          <t>8591819.48</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>38418074.52</t>
+          <t>36956340.91</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>88088665.78</t>
+          <t>83155317.91</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>56771827.13</t>
+          <t>54265888.43</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>407953223.96</t>
+          <t>398253965.87</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>156700559.48</t>
+          <t>151869157.26</t>
         </is>
       </c>
     </row>
@@ -1195,72 +1195,72 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>290</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>435</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>973</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>616</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
           <t>309</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>67</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>453</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>1012</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>647</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>332</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>183</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>159</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>309</t>
-        </is>
-      </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>404</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>650</t>
+          <t>605</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>340</t>
         </is>
       </c>
     </row>
@@ -1279,22 +1279,22 @@
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.59%</t>
+          <t>0.60%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.35%</t>
+          <t>2.36%</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>13.00%</t>
+          <t>12.95%</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>8.12%</t>
+          <t>8.03%</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1305,27 +1305,27 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>12.92%</t>
+          <t>12.89%</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>17.71%</t>
+          <t>17.76%</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2.41%</t>
+          <t>2.43%</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>2.65%</t>
+          <t>2.66%</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>3.90%</t>
+          <t>3.91%</t>
         </is>
       </c>
     </row>
@@ -1352,27 +1352,27 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1742.80</t>
+          <t>1726.55</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>14.01</t>
+          <t>13.92</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>4.26</t>
+          <t>4.28</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>7.86</t>
+          <t>7.83</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>7.74</t>
+          <t>7.73</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1382,27 +1382,27 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>5.29</t>
+          <t>5.30</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>4.21</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>5.29</t>
+          <t>5.25</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>24.34</t>
+          <t>24.23</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>-68.60</t>
+          <t>-68.46</t>
         </is>
       </c>
     </row>
@@ -1429,7 +1429,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-17.09</t>
+          <t>-16.93</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3.53</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1546,12 +1546,12 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>7.02</t>
+          <t>6.99</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1579,12 +1579,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>9.69</t>
+          <t>9.67</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>7.80</t>
+          <t>7.78</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -1608,12 +1608,12 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>33.07</t>
+          <t>32.91</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>4.59</t>
+          <t>4.58</t>
         </is>
       </c>
     </row>
@@ -1625,7 +1625,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>7.85</t>
+          <t>7.80</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1640,27 +1640,27 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>16.89</t>
+          <t>16.85</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>10.41</t>
+          <t>10.38</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>5.67</t>
+          <t>5.69</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>7.97</t>
+          <t>7.91</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>6.94</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1670,7 +1670,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>4.82</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1685,7 +1685,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>18.84</t>
+          <t>18.75</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1713,12 +1713,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>3.23</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>7.78</t>
+          <t>7.73</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
@@ -1732,17 +1732,17 @@
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>6.13</t>
+          <t>6.11</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>33.74</t>
+          <t>33.58</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1774,27 +1774,27 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>5.68</t>
+          <t>5.63</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>10.39</t>
+          <t>10.32</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>5.67</t>
+          <t>5.69</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>8.56</t>
+          <t>8.52</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>6.91</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1804,27 +1804,27 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>5.58</t>
+          <t>5.59</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>3.63</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>19.22</t>
+          <t>19.13</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>4.24</t>
         </is>
       </c>
     </row>
@@ -1933,7 +1933,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1973,7 +1973,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -2082,12 +2082,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>6.16</t>
+          <t>6.12</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -2114,12 +2114,12 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>3.81</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2151,17 +2151,17 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2.94</t>
+          <t>2.91</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>7.76</t>
+          <t>7.71</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -2181,22 +2181,22 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>10.47</t>
+          <t>10.49</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>34.08</t>
+          <t>33.98</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>3.99</t>
+          <t>3.96</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>14.13</t>
+          <t>14.07</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -2228,12 +2228,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>-0.25</t>
+          <t>-0.24</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>-2.20</t>
+          <t>-2.18</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -2258,7 +2258,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>-0.76</t>
+          <t>-0.77</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2268,12 +2268,12 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>-0.27</t>
+          <t>-0.26</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>-10.73</t>
+          <t>-10.69</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -3824,7 +3824,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>194813855024</t>
+          <t>193710540311</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -3839,42 +3839,42 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10115139890</t>
+          <t>10041613431</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>66094575000</t>
+          <t>65883915000</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>105332729655</t>
+          <t>105561963017</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>153620225217</t>
+          <t>152401593300</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>67200000000</t>
+          <t>66860000000</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>291917081</t>
+          <t>290015341</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>6042578762</t>
+          <t>6014853269</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>33761769603</t>
+          <t>33809679937</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
@@ -3884,12 +3884,12 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>156056283166</t>
+          <t>155342739106</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>65418086576</t>
+          <t>65279033639</t>
         </is>
       </c>
     </row>
@@ -3901,7 +3901,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>180447041024</t>
+          <t>179343726311</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -3916,42 +3916,42 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>30114427890</t>
+          <t>30040901431</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>66457266000</t>
+          <t>66246606000</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>105332729655</t>
+          <t>105561963017</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>153620225217</t>
+          <t>152401593300</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>67200000000</t>
+          <t>66860000000</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>7250917081</t>
+          <t>7249015341</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>5331377762</t>
+          <t>5303652269</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>44303883603</t>
+          <t>44351793937</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
@@ -3961,12 +3961,12 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>152971834166</t>
+          <t>152258290106</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>140029829576</t>
+          <t>139890776639</t>
         </is>
       </c>
     </row>

--- a/stocks_data.xlsx
+++ b/stocks_data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/stocks_data.xlsx
+++ b/stocks_data.xlsx
@@ -797,7 +797,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2.66</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1041,72 +1041,72 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>278627420.17</t>
+          <t>285315017.95</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>297980.83</t>
+          <t>288377.91</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>115619.13</t>
+          <t>116996.45</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>25367505.65</t>
+          <t>25837533.73</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>287260986.13</t>
+          <t>292486716.41</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>523838223.61</t>
+          <t>541086402.41</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>318198701.22</t>
+          <t>327271517.91</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>151649136.43</t>
+          <t>156156227.91</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>8591819.48</t>
+          <t>8844842.32</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>36956340.91</t>
+          <t>37456637.59</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>83155317.91</t>
+          <t>84190497.64</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>54265888.43</t>
+          <t>55867467.82</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>398253965.87</t>
+          <t>412064298.55</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>151869157.26</t>
+          <t>150448076.36</t>
         </is>
       </c>
     </row>
@@ -1320,7 +1320,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>2.66%</t>
+          <t>2.16%</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">

--- a/stocks_data.xlsx
+++ b/stocks_data.xlsx
@@ -1041,72 +1041,72 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>285315017.95</t>
+          <t>288762642.38</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>288377.91</t>
+          <t>255474.86</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>116996.45</t>
+          <t>116836.57</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>25837533.73</t>
+          <t>25490674.38</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>292486716.41</t>
+          <t>286324465.48</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>541086402.41</t>
+          <t>537846000.76</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>327271517.91</t>
+          <t>315800215.33</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>156156227.91</t>
+          <t>156534584.05</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>8844842.32</t>
+          <t>8912112.52</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>37456637.59</t>
+          <t>37207344.62</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>84190497.64</t>
+          <t>83380173.67</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>55867467.82</t>
+          <t>55313311.67</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>412064298.55</t>
+          <t>417565723.71</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>150448076.36</t>
+          <t>148937274.14</t>
         </is>
       </c>
     </row>

--- a/stocks_data.xlsx
+++ b/stocks_data.xlsx
@@ -518,72 +518,72 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>12.29</t>
+          <t>11.98</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>4.37</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>9.56</t>
+          <t>9.92</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>12.51</t>
+          <t>13.06</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18.42</t>
+          <t>20.64</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>15.50</t>
+          <t>16.08</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>33.43</t>
+          <t>32.75</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>15.74</t>
+          <t>15.89</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>10.31</t>
+          <t>10.77</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>37.01</t>
+          <t>35.91</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>51.64</t>
+          <t>53.15</t>
         </is>
       </c>
     </row>
@@ -630,7 +630,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>31.39</t>
+          <t>31.48</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>9.23</t>
+          <t>9.40</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>36.19</t>
+          <t>35.91</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11.58</t>
+          <t>11.55</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -749,60 +749,60 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>7.51</t>
+          <t>8.78</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>12.95</t>
+          <t>11.56</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>8.03</t>
+          <t>7.74</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>11.10</t>
+          <t>13.01</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>12.89</t>
+          <t>12.77</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>17.76</t>
+          <t>17.00</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>3.80</t>
         </is>
       </c>
     </row>
@@ -814,72 +814,72 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>11.12%</t>
+          <t>-1.32%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-18.01%</t>
+          <t>-54.11%</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-12.06%</t>
+          <t>-4.00%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-17.44%</t>
+          <t>-14.11%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>17.13%</t>
+          <t>3.82%</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-22.38%</t>
+          <t>-21.82%</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>21.47%</t>
+          <t>9.39%</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>6.50%</t>
+          <t>-3.59%</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>-32.07%</t>
+          <t>-50.94%</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>-1.93%</t>
+          <t>-5.42%</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>11.22%</t>
+          <t>5.38%</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>88.36%</t>
+          <t>96.50%</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>-23.50%</t>
+          <t>-29.95%</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>0.06%</t>
+          <t>-0.78%</t>
         </is>
       </c>
     </row>
@@ -1041,72 +1041,72 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>288762642.38</t>
+          <t>307238677.36</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>255474.86</t>
+          <t>276613.86</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>116836.57</t>
+          <t>250679.77</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>25490674.38</t>
+          <t>31852924.36</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>286324465.48</t>
+          <t>320679813.86</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>537846000.76</t>
+          <t>715008305.41</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>315800215.33</t>
+          <t>371407520.59</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>156534584.05</t>
+          <t>219836735.00</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>8912112.52</t>
+          <t>11650975.05</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>37207344.62</t>
+          <t>47413243.68</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>83380173.67</t>
+          <t>101115489.18</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>55313311.67</t>
+          <t>69252881.27</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>417565723.71</t>
+          <t>413769119.77</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>148937274.14</t>
+          <t>182557023.55</t>
         </is>
       </c>
     </row>
@@ -1118,7 +1118,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2.666</t>
+          <t>2.532</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1133,27 +1133,27 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.146</t>
+          <t>0.154</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.185</t>
+          <t>3.272</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2.727</t>
+          <t>2.809</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>3.865</t>
+          <t>3.921</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1.046</t>
+          <t>1.000</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1163,27 +1163,27 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>0.193</t>
+          <t>0.190</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>0.935</t>
+          <t>0.953</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>0.252</t>
+          <t>0.254</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>2.679</t>
+          <t>2.551</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1.602</t>
+          <t>1.610</t>
         </is>
       </c>
     </row>
@@ -1195,7 +1195,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>226</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1210,57 +1210,57 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>48</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>374</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>973</t>
+          <t>962</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>616</t>
+          <t>534</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>244</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>154</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>131</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>265</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>341</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>605</t>
+          <t>524</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>307</t>
         </is>
       </c>
     </row>
@@ -1272,60 +1272,60 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>7.51%</t>
+          <t>8.78%</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.60%</t>
+          <t>0.57%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.36%</t>
+          <t>2.26%</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>12.95%</t>
+          <t>11.56%</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>8.03%</t>
+          <t>7.74%</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>11.10%</t>
+          <t>13.01%</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>12.89%</t>
+          <t>12.77%</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>17.76%</t>
+          <t>17.00%</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2.43%</t>
+          <t>2.37%</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>2.16%</t>
+          <t>2.22%</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>3.91%</t>
+          <t>3.80%</t>
         </is>
       </c>
     </row>
@@ -1337,72 +1337,72 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>13.13</t>
+          <t>12.80</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-0.27</t>
+          <t>-0.23</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>-3.86</t>
+          <t>-10.11</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1726.55</t>
+          <t>-14.87</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>13.92</t>
+          <t>14.29</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>4.28</t>
+          <t>6.30</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>7.83</t>
+          <t>8.12</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>7.73</t>
+          <t>7.35</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-1.18</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>5.30</t>
+          <t>5.77</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>4.21</t>
+          <t>4.74</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>5.25</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>24.23</t>
+          <t>23.51</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>-68.46</t>
+          <t>8.59</t>
         </is>
       </c>
     </row>
@@ -1414,7 +1414,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>5.30</t>
+          <t>5.17</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1424,22 +1424,22 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-16.93</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>-0.15</t>
+          <t>-0.14</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1449,22 +1449,22 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>-0.26</t>
+          <t>-0.14</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -1474,12 +1474,12 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>0.00</t>
         </is>
       </c>
     </row>
@@ -1491,49 +1491,49 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2.09</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>-4.20</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3.51</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
           <t>0.58</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>5.73</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
       <c r="K15" t="inlineStr">
         <is>
           <t>0.71</t>
@@ -1541,22 +1541,22 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>6.99</t>
+          <t>6.78</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>1.56</t>
         </is>
       </c>
     </row>
@@ -1566,25 +1566,25 @@
           <t>EV/EBITDA</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>-2.82</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>8.98</t>
-        </is>
-      </c>
+          <t>-2.37</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>9.67</t>
+          <t>8.56</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>7.78</t>
+          <t>7.88</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -1592,28 +1592,24 @@
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>12.90</t>
+          <t>15.72</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>9.18</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>6.11</t>
+          <t>5.54</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>32.91</t>
+          <t>31.92</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>4.58</t>
+          <t>3.61</t>
         </is>
       </c>
     </row>
@@ -1625,72 +1621,72 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>7.80</t>
+          <t>7.59</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>-2.31</t>
+          <t>-2.11</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>18.01</t>
+          <t>6.96</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>16.85</t>
+          <t>19.88</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>10.38</t>
+          <t>10.82</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>5.69</t>
+          <t>13.82</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>7.91</t>
+          <t>8.22</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>6.90</t>
+          <t>6.61</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>-14.98</t>
+          <t>-18.26</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>5.71</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>4.59</t>
+          <t>5.06</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>7.46</t>
+          <t>7.13</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>18.75</t>
+          <t>18.18</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>9.09</t>
+          <t>10.14</t>
         </is>
       </c>
     </row>
@@ -1700,25 +1696,25 @@
           <t>P/EBITDA</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-0.43</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>4.49</t>
-        </is>
-      </c>
+          <t>-0.33</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3.23</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>7.73</t>
+          <t>7.89</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
@@ -1726,28 +1722,24 @@
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>3.34</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>6.11</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2.97</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>33.58</t>
+          <t>32.58</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2.14</t>
+          <t>1.75</t>
         </is>
       </c>
     </row>
@@ -1759,72 +1751,72 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>8.43</t>
+          <t>8.22</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>-0.35</t>
+          <t>-0.30</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>9.02</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>5.63</t>
+          <t>6.87</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>10.32</t>
+          <t>10.83</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>5.69</t>
+          <t>13.82</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>8.52</t>
+          <t>8.84</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>6.90</t>
+          <t>6.61</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>-0.60</t>
+          <t>-3.88</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>5.59</t>
+          <t>6.17</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>3.63</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>19.13</t>
+          <t>18.56</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>4.24</t>
+          <t>4.92</t>
         </is>
       </c>
     </row>
@@ -1841,7 +1833,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>-1.02</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1851,17 +1843,17 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>12.62</t>
+          <t>12.08</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>3.57</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>31.72</t>
+          <t>31.76</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1871,27 +1863,27 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>5.83</t>
+          <t>5.25</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>34.10</t>
+          <t>4.96</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>22.05</t>
+          <t>22.31</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>9.75</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>6.63</t>
+          <t>6.70</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -1901,7 +1893,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>30.38</t>
+          <t>34.12</t>
         </is>
       </c>
     </row>
@@ -1913,7 +1905,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1928,17 +1920,17 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1948,32 +1940,32 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>3.61</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>3.78</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -1995,27 +1987,27 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>-15.89</t>
+          <t>-18.65</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>-0.32</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.67</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -2025,27 +2017,27 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>4.32</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>-16.75</t>
+          <t>-2.44</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>2.97</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -2055,7 +2047,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>-0.75</t>
+          <t>6.19</t>
         </is>
       </c>
     </row>
@@ -2067,43 +2059,43 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>6.12</t>
+          <t>6.38</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="K23" t="inlineStr"/>
@@ -2114,17 +2106,17 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>1.31</t>
         </is>
       </c>
     </row>
@@ -2136,72 +2128,72 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>49.42</t>
+          <t>48.17</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>-30.83</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>-1.71</t>
+          <t>-1.47</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>4.47</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>7.71</t>
+          <t>6.77</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>14.32</t>
+          <t>22.74</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-0.46</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>10.49</t>
+          <t>25.06</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>33.98</t>
+          <t>-506.21</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>14.07</t>
+          <t>13.65</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>2.46</t>
         </is>
       </c>
     </row>
@@ -2213,7 +2205,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>-1.91</t>
+          <t>-1.86</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2223,22 +2215,22 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>-0.43</t>
+          <t>-0.41</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>-0.24</t>
+          <t>-0.26</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>-2.18</t>
+          <t>-2.25</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -2248,37 +2240,37 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>-6.23</t>
+          <t>-5.75</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.10</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>-0.77</t>
+          <t>-0.73</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>-0.61</t>
+          <t>-0.62</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>-0.26</t>
+          <t>-0.27</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>-10.69</t>
+          <t>-10.37</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>-0.54</t>
+          <t>-0.56</t>
         </is>
       </c>
     </row>
@@ -2293,24 +2285,20 @@
           <t>-0.16</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>13.58</t>
-        </is>
-      </c>
+      <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
@@ -2323,17 +2311,17 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -2343,7 +2331,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>1.94</t>
+          <t>1.65</t>
         </is>
       </c>
     </row>
@@ -2353,25 +2341,25 @@
           <t>Div. liquida/EBITDA</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>-0.43</t>
+        </is>
+      </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>-2.39</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>4.48</t>
-        </is>
-      </c>
+          <t>-2.03</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>6.44</t>
+          <t>5.60</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
@@ -2383,14 +2371,10 @@
         </is>
       </c>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>2.18</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -2400,7 +2384,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>1.86</t>
         </is>
       </c>
     </row>
@@ -2417,22 +2401,22 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>-1.96</t>
+          <t>-1.81</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>9.00</t>
+          <t>3.61</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11.21</t>
+          <t>13.01</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
@@ -2445,17 +2429,17 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>-0.64</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>3.83</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -2465,7 +2449,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>4.85</t>
+          <t>5.22</t>
         </is>
       </c>
     </row>
@@ -2482,7 +2466,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2492,12 +2476,12 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2512,7 +2496,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2527,12 +2511,12 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -2542,7 +2526,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.27</t>
         </is>
       </c>
     </row>
@@ -2559,7 +2543,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2569,12 +2553,12 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2589,7 +2573,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -2604,12 +2588,12 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -2619,7 +2603,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.73</t>
         </is>
       </c>
     </row>
@@ -2636,27 +2620,27 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>14.03</t>
+          <t>11.97</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -2666,7 +2650,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -2676,17 +2660,17 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>5.83</t>
+          <t>6.50</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -2696,7 +2680,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2.61</t>
+          <t>3.16</t>
         </is>
       </c>
     </row>
@@ -2713,27 +2697,27 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>10.79%</t>
+          <t>5.17%</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>50.10%</t>
+          <t>51.34%</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>20.53%</t>
+          <t>19.44%</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>89.93%</t>
+          <t>90.57%</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>36.83%</t>
+          <t>34.96%</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -2750,12 +2734,12 @@
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
         <is>
-          <t>19.63%</t>
+          <t>18.16%</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>67.94%</t>
+          <t>68.20%</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -2765,7 +2749,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>40.54%</t>
+          <t>37.73%</t>
         </is>
       </c>
     </row>
@@ -2775,25 +2759,25 @@
           <t>M. EBITDA</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr"/>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>36.22%</t>
+        </is>
+      </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>-52.14%</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>9.86%</t>
-        </is>
-      </c>
+          <t>-77.62%</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>32.32%</t>
+          <t>31.89%</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>79.14%</t>
+          <t>80.88%</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
@@ -2805,14 +2789,10 @@
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>11.89%</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>26.73%</t>
+          <t>28.71%</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -2822,7 +2802,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>61.64%</t>
+          <t>74.74%</t>
         </is>
       </c>
     </row>
@@ -2839,27 +2819,27 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>-63.54%</t>
+          <t>-87.08%</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>4.91%</t>
+          <t>12.16%</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>18.55%</t>
+          <t>13.73%</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>59.29%</t>
+          <t>58.91%</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>6.66%</t>
+          <t>2.96%</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -2876,12 +2856,12 @@
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr">
         <is>
-          <t>23.79%</t>
+          <t>22.09%</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>21.89%</t>
+          <t>22.32%</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -2891,7 +2871,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>31.11%</t>
+          <t>26.63%</t>
         </is>
       </c>
     </row>
@@ -2908,27 +2888,27 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>-81.51%</t>
+          <t>-112.32%</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>-11.49%</t>
+          <t>-4.04%</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0.06%</t>
+          <t>-6.34%</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>43.97%</t>
+          <t>44.65%</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>8.86%</t>
+          <t>6.48%</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2945,12 +2925,12 @@
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr">
         <is>
-          <t>17.25%</t>
+          <t>15.50%</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>15.13%</t>
+          <t>16.49%</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -2960,7 +2940,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>-1.93%</t>
+          <t>15.25%</t>
         </is>
       </c>
     </row>
@@ -2977,27 +2957,27 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>-889.48%</t>
+          <t>-1823.36%</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>-57.47%</t>
+          <t>-21.07%</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0.04%</t>
+          <t>-5.52%</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>25.18%</t>
+          <t>24.40%</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>13.57%</t>
+          <t>10.31%</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -3007,7 +2987,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>74.13%</t>
+          <t>84.97%</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -3017,17 +2997,17 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>13.47%</t>
+          <t>12.34%</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>25.09%</t>
+          <t>22.84%</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>7.90%</t>
+          <t>8.84%</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -3037,7 +3017,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>-2.48%</t>
+          <t>18.13%</t>
         </is>
       </c>
     </row>
@@ -3054,27 +3034,27 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>-46.89%</t>
+          <t>-56.67%</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>-8.08%</t>
+          <t>-3.02%</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0.01%</t>
+          <t>-1.42%</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>10.22%</t>
+          <t>10.24%</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>1.02%</t>
+          <t>0.77%</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -3084,7 +3064,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>46.67%</t>
+          <t>41.71%</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -3094,17 +3074,17 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>13.27%</t>
+          <t>12.27%</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>10.96%</t>
+          <t>10.25%</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>4.06%</t>
+          <t>4.70%</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -3114,7 +3094,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>-0.61%</t>
+          <t>4.91%</t>
         </is>
       </c>
     </row>
@@ -3126,27 +3106,27 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>18.71%</t>
+          <t>18.73%</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>-47.60%</t>
+          <t>-58.22%</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>6.21%</t>
+          <t>18.95%</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>3.69%</t>
+          <t>3.55%</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>9.90%</t>
+          <t>9.27%</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
@@ -3159,17 +3139,17 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>12.72%</t>
+          <t>11.52%</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>17.72%</t>
+          <t>17.24%</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>5.34%</t>
+          <t>6.01%</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -3179,7 +3159,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>11.37%</t>
+          <t>2.23%</t>
         </is>
       </c>
     </row>
@@ -3196,17 +3176,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3216,14 +3196,14 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
           <t>0.11</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
       <c r="I39" t="inlineStr">
         <is>
           <t>0.00</t>
@@ -3241,12 +3221,12 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -3341,12 +3321,12 @@
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>11.76%</t>
+          <t>12.15%</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>8.51%</t>
+          <t>2.74%</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -3356,19 +3336,19 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>5.36%</t>
+          <t>6.01%</t>
         </is>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
-          <t>17.50%</t>
+          <t>15.77%</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>33.12%</t>
+          <t>36.40%</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -3391,27 +3371,27 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>111006000</t>
+          <t>-63526000</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>287288000</t>
+          <t>289343000</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>13251517000</t>
+          <t>12683764000</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>18794551000</t>
+          <t>19736147000</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>181793664000</t>
+          <t>181990739000</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -3421,7 +3401,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>11661962000</t>
+          <t>10494024000</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -3431,17 +3411,17 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>8667966000</t>
+          <t>8768448000</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>27914455000</t>
+          <t>28473167000</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>12444512000</t>
+          <t>12565444000</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -3451,7 +3431,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>38398266000</t>
+          <t>43137811000</t>
         </is>
       </c>
     </row>
@@ -3468,27 +3448,27 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2105580000</t>
+          <t>2044103000</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2044038000</t>
+          <t>2018171000</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>52266696000</t>
+          <t>49202800000</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>46292029000</t>
+          <t>47031043000</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2427051877000</t>
+          <t>2441421369000</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -3498,7 +3478,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>18524267000</t>
+          <t>21376875000</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -3508,17 +3488,17 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>8794484000</t>
+          <t>8818001000</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>63901931000</t>
+          <t>63411229000</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>24203940000</t>
+          <t>23649420000</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -3528,7 +3508,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>155244885000</t>
+          <t>159422893000</t>
         </is>
       </c>
     </row>
@@ -3545,27 +3525,27 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>819003000</t>
+          <t>750573000</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>570564000</t>
+          <t>526997000</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11093981000</t>
+          <t>8733253000</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>16116282000</t>
+          <t>16426800000</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>71510833000</t>
+          <t>64935263000</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -3575,7 +3555,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>7793681000</t>
+          <t>9994317000</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -3585,17 +3565,17 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>711811000</t>
+          <t>294544000</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>15471501000</t>
+          <t>13612195000</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>4711693000</t>
+          <t>4264420000</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -3605,7 +3585,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>34479115000</t>
+          <t>39909114000</t>
         </is>
       </c>
     </row>
@@ -3622,22 +3602,22 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1619666000</t>
+          <t>1693749000</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>644433000</t>
+          <t>672865000</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>26161764000</t>
+          <t>24670766000</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>14881775000</t>
+          <t>14538149000</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
@@ -3655,12 +3635,12 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>15242574000</t>
+          <t>15263937000</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>6873792000</t>
+          <t>6383633000</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -3670,7 +3650,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>91042571000</t>
+          <t>91627156000</t>
         </is>
       </c>
     </row>
@@ -3687,27 +3667,27 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>112714000</t>
+          <t>67568000</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>9236000</t>
+          <t>10248000</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>6162476000</t>
+          <t>4933168000</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>14519084000</t>
+          <t>14621493000</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>71510833000</t>
+          <t>64935263000</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -3717,7 +3697,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>6455132000</t>
+          <t>8672807000</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -3727,17 +3707,17 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>711201000</t>
+          <t>294061000</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>4700460000</t>
+          <t>2978857000</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>1421705000</t>
+          <t>944287000</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -3747,7 +3727,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>16430828000</t>
+          <t>20371439000</t>
         </is>
       </c>
     </row>
@@ -3764,22 +3744,22 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>1506952000</t>
+          <t>1626181000</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>635197000</t>
+          <t>662617000</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>19999288000</t>
+          <t>19737598000</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>362691000</t>
+          <t>-83344000</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
@@ -3792,17 +3772,17 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>-711201000</t>
+          <t>-294061000</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>10542114000</t>
+          <t>12285080000</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>5452087000</t>
+          <t>5439346000</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -3812,7 +3792,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>74611743000</t>
+          <t>71255717000</t>
         </is>
       </c>
     </row>
@@ -3824,72 +3804,72 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>193710540311</t>
+          <t>188824432297</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>271465257</t>
+          <t>267116843</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>636685493</t>
+          <t>616147252</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10041613431</t>
+          <t>10419749502</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>65883915000</t>
+          <t>68780490000</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>105561963017</t>
+          <t>118284414586</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>152401593300</t>
+          <t>158332805445</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>66860000000</t>
+          <t>65500000000</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>290015341</t>
+          <t>1876631002</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>6014853269</t>
+          <t>6069678063</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>33809679937</t>
+          <t>34628666615</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>5160667078</t>
+          <t>5273263450</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>155342739106</t>
+          <t>150725689308</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>65279033639</t>
+          <t>67187851237</t>
         </is>
       </c>
     </row>
@@ -3901,72 +3881,72 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>179343726311</t>
+          <t>174457618297</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>1778417257</t>
+          <t>1893297843</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1271882493</t>
+          <t>1278764252</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>30040901431</t>
+          <t>30157347502</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>66246606000</t>
+          <t>68697146000</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>105561963017</t>
+          <t>118284414586</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>152401593300</t>
+          <t>158332805445</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>66860000000</t>
+          <t>65500000000</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>7249015341</t>
+          <t>8835631002</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>5303652269</t>
+          <t>5775617063</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>44351793937</t>
+          <t>46913746615</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>10612754078</t>
+          <t>10712609450</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>152258290106</t>
+          <t>147641240308</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>139890776639</t>
+          <t>138443568237</t>
         </is>
       </c>
     </row>
@@ -4019,7 +3999,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>95086997</t>
+          <t>653878398</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -4169,7 +4149,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>99.98%</t>
+          <t>14.54%</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
